--- a/doc/planning-docs/Projektablaufplan.xlsx
+++ b/doc/planning-docs/Projektablaufplan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15752899-943B-41D6-9FAE-EECB33693991}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF7E6C3-544A-480C-B6F0-242381DB7761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -33,7 +33,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="160">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -456,6 +455,96 @@
   </si>
   <si>
     <t>Collection GetById und CreateOrUpdate</t>
+  </si>
+  <si>
+    <t>Tabs hinzufügen,Design überarbeiten</t>
+  </si>
+  <si>
+    <t>Felder bei Tabs hinzufügen</t>
+  </si>
+  <si>
+    <t>Tabs erweitern, Databinding</t>
+  </si>
+  <si>
+    <t>Strukturierung Tabs in Files</t>
+  </si>
+  <si>
+    <t>Datenstruktur, Übersicht-Seite</t>
+  </si>
+  <si>
+    <t>ExerciseService anpassen</t>
+  </si>
+  <si>
+    <t>Exercise speichern</t>
+  </si>
+  <si>
+    <t>Exercise-Liste, Home-Seite</t>
+  </si>
+  <si>
+    <t>BasicAuthentication</t>
+  </si>
+  <si>
+    <t>build error beheben</t>
+  </si>
+  <si>
+    <t>CreateExercise -&gt; sidenav</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>CreateExercise -&gt; multiple langs</t>
+  </si>
+  <si>
+    <t>written lang dropdown</t>
+  </si>
+  <si>
+    <t>programming / written lang from db</t>
+  </si>
+  <si>
+    <t>lang dropdown + make removable</t>
+  </si>
+  <si>
+    <t>Home -&gt; exercises from db</t>
+  </si>
+  <si>
+    <t>sidenav -&gt; re-naming + fixes</t>
+  </si>
+  <si>
+    <t>databinding + loading tabs</t>
+  </si>
+  <si>
+    <t>Export hinzufügen</t>
+  </si>
+  <si>
+    <t>Export überarbeiten, Validierung</t>
+  </si>
+  <si>
+    <t>databinding</t>
+  </si>
+  <si>
+    <t>databinding, Fehler beheben</t>
+  </si>
+  <si>
+    <t>databinding, kleine Anpassungen</t>
+  </si>
+  <si>
+    <t>add / remove tags</t>
+  </si>
+  <si>
+    <t>save -&gt; programming data kopieren</t>
+  </si>
+  <si>
+    <t>deepcopies</t>
+  </si>
+  <si>
+    <t>Restrukturierung Body, fixes</t>
+  </si>
+  <si>
+    <t>Export -&gt; download, fixes</t>
+  </si>
+  <si>
+    <t>Markdown</t>
   </si>
 </sst>
 </file>
@@ -3077,7 +3166,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3141,7 +3230,7 @@
                   <c:v>0.93750000000000022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76736111111111116</c:v>
+                  <c:v>4.041666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3204,7 +3293,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3250,7 +3339,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3913,15 +4002,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>30480</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>68580</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>67</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4312,22 +4401,22 @@
       <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
     <col min="3" max="3" width="13" style="19" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" customWidth="1"/>
-    <col min="12" max="67" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" customWidth="1"/>
+    <col min="12" max="67" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4367,7 +4456,7 @@
       <c r="AI1" s="19"/>
       <c r="AJ1" s="19"/>
     </row>
-    <row r="2" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
@@ -4386,7 +4475,7 @@
       <c r="J2" s="84"/>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:67" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:67" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
@@ -4480,7 +4569,7 @@
       <c r="BN3" s="40"/>
       <c r="BO3" s="40"/>
     </row>
-    <row r="4" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -4719,7 +4808,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="5" spans="1:67" s="19" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:67" s="19" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -4790,7 +4879,7 @@
       <c r="BN5" s="47"/>
       <c r="BO5" s="48"/>
     </row>
-    <row r="6" spans="1:67" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:67" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
@@ -4828,7 +4917,7 @@
       </c>
       <c r="M6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="N6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4836,19 +4925,19 @@
       </c>
       <c r="O6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="P6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="Q6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="R6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="S6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4856,7 +4945,7 @@
       </c>
       <c r="T6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="U6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4864,19 +4953,19 @@
       </c>
       <c r="V6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="W6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="X6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="Y6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="Z6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4884,7 +4973,7 @@
       </c>
       <c r="AA6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AB6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4892,19 +4981,19 @@
       </c>
       <c r="AC6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AD6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AE6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AF6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AG6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4912,7 +5001,7 @@
       </c>
       <c r="AH6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AI6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4920,19 +5009,19 @@
       </c>
       <c r="AJ6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AK6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AL6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AM6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AN6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4940,7 +5029,7 @@
       </c>
       <c r="AO6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AP6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4948,19 +5037,19 @@
       </c>
       <c r="AQ6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AR6" s="22" t="str">
         <f t="shared" ref="AR6:BO6" ca="1" si="4">LEFT(TEXT(AR4,"TTT"),1)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AS6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AT6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AU6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4968,7 +5057,7 @@
       </c>
       <c r="AV6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AW6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4976,19 +5065,19 @@
       </c>
       <c r="AX6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AY6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AZ6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BA6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BB6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -4996,7 +5085,7 @@
       </c>
       <c r="BC6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BD6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5004,19 +5093,19 @@
       </c>
       <c r="BE6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BF6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BG6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BH6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BI6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5024,7 +5113,7 @@
       </c>
       <c r="BJ6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BK6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5032,19 +5121,19 @@
       </c>
       <c r="BL6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BM6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BN6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BO6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>M</v>
       </c>
     </row>
     <row r="7" spans="1:67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5120,7 +5209,7 @@
       <c r="BN7" s="33"/>
       <c r="BO7" s="33"/>
     </row>
-    <row r="8" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
@@ -8197,7 +8286,7 @@
       </c>
       <c r="D32" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.1388888888888889</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>11</v>
@@ -8295,9 +8384,9 @@
       <c r="C33" s="78">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D33" s="59" t="str">
+      <c r="D33" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>0.16666666666666669</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>11</v>
@@ -8380,9 +8469,9 @@
       <c r="C34" s="78">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D34" s="59" t="str">
+      <c r="D34" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>1.770833333333333</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>11</v>
@@ -8465,9 +8554,9 @@
       <c r="C35" s="78">
         <v>0.125</v>
       </c>
-      <c r="D35" s="59" t="str">
+      <c r="D35" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>11</v>
@@ -8635,9 +8724,9 @@
       <c r="C37" s="78">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D37" s="59" t="str">
+      <c r="D37" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>0.125</v>
       </c>
       <c r="E37" s="31" t="s">
         <v>11</v>
@@ -8997,7 +9086,7 @@
       <c r="BN40" s="35"/>
       <c r="BO40" s="35"/>
     </row>
-    <row r="41" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="53" t="s">
         <v>56</v>
@@ -9005,9 +9094,9 @@
       <c r="C41" s="68">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D41" s="59" t="str">
+      <c r="D41" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>0.1875</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>11</v>
@@ -9091,7 +9180,7 @@
       <c r="BN41" s="35"/>
       <c r="BO41" s="35"/>
     </row>
-    <row r="42" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="52" t="s">
         <v>57</v>
@@ -9330,7 +9419,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="53" t="s">
         <v>58</v>
@@ -9583,7 +9672,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="53" t="s">
         <v>59</v>
@@ -9671,7 +9760,7 @@
       <c r="BN44" s="35"/>
       <c r="BO44" s="35"/>
     </row>
-    <row r="45" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="53" t="s">
         <v>60</v>
@@ -9759,7 +9848,7 @@
       <c r="BN45" s="35"/>
       <c r="BO45" s="35"/>
     </row>
-    <row r="46" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="53" t="s">
         <v>61</v>
@@ -9844,7 +9933,7 @@
       <c r="BN46" s="35"/>
       <c r="BO46" s="35"/>
     </row>
-    <row r="47" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="53" t="s">
         <v>63</v>
@@ -9854,7 +9943,7 @@
       </c>
       <c r="D47" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.82638888888888928</v>
+        <v>1.0347222222222225</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>11</v>
@@ -9929,7 +10018,7 @@
       <c r="BN47" s="35"/>
       <c r="BO47" s="35"/>
     </row>
-    <row r="48" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="53" t="s">
         <v>64</v>
@@ -9939,7 +10028,7 @@
       </c>
       <c r="D48" s="59">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>1.2708333333333337</v>
+        <v>1.7326388888888893</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>11</v>
@@ -10014,7 +10103,7 @@
       <c r="BN48" s="35"/>
       <c r="BO48" s="35"/>
     </row>
-    <row r="49" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="53" t="s">
         <v>62</v>
@@ -10090,7 +10179,7 @@
       <c r="BN49" s="35"/>
       <c r="BO49" s="35"/>
     </row>
-    <row r="50" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="53" t="s">
         <v>95</v>
@@ -10341,7 +10430,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="14"/>
       <c r="B51" s="52" t="s">
         <v>65</v>
@@ -10412,7 +10501,7 @@
       <c r="BN51" s="35"/>
       <c r="BO51" s="35"/>
     </row>
-    <row r="52" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="53" t="s">
         <v>66</v>
@@ -10497,7 +10586,7 @@
       <c r="BN52" s="35"/>
       <c r="BO52" s="35"/>
     </row>
-    <row r="53" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="53" t="s">
         <v>72</v>
@@ -10750,7 +10839,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="66" t="s">
         <v>36</v>
@@ -10761,18 +10850,18 @@
       </c>
       <c r="D54" s="68">
         <f>SUM(D8:D53)</f>
-        <v>5.6944444444444464</v>
+        <v>8.96875</v>
       </c>
       <c r="E54" s="69" t="s">
         <v>37</v>
       </c>
       <c r="F54" s="31" t="str">
         <f>IF(D54=Übersicht!G44,"OK","FEHLER")</f>
-        <v>FEHLER</v>
+        <v>OK</v>
       </c>
       <c r="G54" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.39499036608863219</v>
+        <v>0.62210982658959546</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -10835,7 +10924,7 @@
       <c r="BN54" s="35"/>
       <c r="BO54" s="35"/>
     </row>
-    <row r="55" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>7</v>
       </c>
@@ -10908,7 +10997,7 @@
       <c r="BN55" s="35"/>
       <c r="BO55" s="35"/>
     </row>
-    <row r="56" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
         <v>8</v>
       </c>
@@ -10979,7 +11068,7 @@
       <c r="BN56" s="34"/>
       <c r="BO56" s="34"/>
     </row>
-    <row r="57" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F57" s="6"/>
       <c r="K57" s="4"/>
     </row>
@@ -11212,15 +11301,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>30480</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:rowOff>68580</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>67</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>236220</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11319,20 +11408,20 @@
       <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" style="19"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" customWidth="1"/>
+    <col min="5" max="6" width="11.5546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="58"/>
       <c r="B2" s="57" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="60" t="s">
         <v>39</v>
       </c>
@@ -11352,7 +11441,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -11377,7 +11466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>44</v>
       </c>
@@ -11402,7 +11491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -11427,7 +11516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -11452,7 +11541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>46</v>
       </c>
@@ -11477,7 +11566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>47</v>
       </c>
@@ -11502,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>88</v>
       </c>
@@ -11527,7 +11616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>75</v>
       </c>
@@ -11552,7 +11641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>80</v>
       </c>
@@ -11577,7 +11666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>74</v>
       </c>
@@ -11602,7 +11691,7 @@
         <v>7.2916666666666671E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>48</v>
       </c>
@@ -11627,7 +11716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>49</v>
       </c>
@@ -11652,7 +11741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>50</v>
       </c>
@@ -11677,7 +11766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>51</v>
       </c>
@@ -11702,7 +11791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="19" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="s">
         <v>52</v>
       </c>
@@ -11727,7 +11816,7 @@
         <v>0.65972222222222221</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>77</v>
       </c>
@@ -11752,7 +11841,7 @@
         <v>1.0625</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>78</v>
       </c>
@@ -11777,7 +11866,7 @@
         <v>0.63194444444444464</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>82</v>
       </c>
@@ -11802,7 +11891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>79</v>
       </c>
@@ -11827,7 +11916,7 @@
         <v>0.22222222222222232</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="19" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
         <v>54</v>
       </c>
@@ -11845,14 +11934,14 @@
       </c>
       <c r="F23" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B23,Sabrina!F:F)</f>
-        <v>0.1388888888888889</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="G23" s="67">
         <f t="shared" si="0"/>
-        <v>0.1388888888888889</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+        <v>0.40972222222222221</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>89</v>
       </c>
@@ -11870,14 +11959,14 @@
       </c>
       <c r="F24" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B24,Sabrina!F:F)</f>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="G24" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+        <v>0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>83</v>
       </c>
@@ -11895,14 +11984,14 @@
       </c>
       <c r="F25" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B25,Sabrina!F:F)</f>
-        <v>0</v>
+        <v>1.770833333333333</v>
       </c>
       <c r="G25" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+        <v>1.770833333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>84</v>
       </c>
@@ -11920,14 +12009,14 @@
       </c>
       <c r="F26" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B26,Sabrina!F:F)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G26" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>85</v>
       </c>
@@ -11952,7 +12041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>86</v>
       </c>
@@ -11970,14 +12059,14 @@
       </c>
       <c r="F28" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B28,Sabrina!F:F)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G28" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="19" t="s">
         <v>87</v>
       </c>
@@ -12002,7 +12091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>55</v>
       </c>
@@ -12027,7 +12116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>70</v>
       </c>
@@ -12052,7 +12141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>56</v>
       </c>
@@ -12070,14 +12159,14 @@
       </c>
       <c r="F32" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B32,Sabrina!F:F)</f>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="G32" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" s="19" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="19" t="s">
         <v>58</v>
       </c>
@@ -12102,7 +12191,7 @@
         <v>0.10069444444444443</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="19" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="19" t="s">
         <v>59</v>
       </c>
@@ -12127,7 +12216,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="19" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="19" t="s">
         <v>60</v>
       </c>
@@ -12152,7 +12241,7 @@
         <v>0.12499999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>61</v>
       </c>
@@ -12177,7 +12266,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>63</v>
       </c>
@@ -12195,14 +12284,14 @@
       </c>
       <c r="F37" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B37,Sabrina!F:F)</f>
-        <v>0.16666666666666669</v>
+        <v>0.37500000000000006</v>
       </c>
       <c r="G37" s="67">
         <f t="shared" si="0"/>
-        <v>0.82638888888888928</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+        <v>1.0347222222222225</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>64</v>
       </c>
@@ -12220,14 +12309,14 @@
       </c>
       <c r="F38" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B38,Sabrina!F:F)</f>
-        <v>0.3541666666666668</v>
+        <v>0.81597222222222243</v>
       </c>
       <c r="G38" s="67">
         <f t="shared" si="0"/>
-        <v>1.2708333333333337</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1.7326388888888893</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>62</v>
       </c>
@@ -12252,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>66</v>
       </c>
@@ -12277,7 +12366,7 @@
         <v>0.16666666666666663</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>72</v>
       </c>
@@ -12302,7 +12391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>95</v>
       </c>
@@ -12327,7 +12416,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>99</v>
       </c>
@@ -12352,7 +12441,7 @@
         <v>0.14930555555555555</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="56" t="s">
         <v>32</v>
       </c>
@@ -12370,14 +12459,14 @@
       </c>
       <c r="F44" s="70">
         <f t="shared" ref="F44" si="2">SUM(F4:F43)</f>
-        <v>0.76736111111111116</v>
+        <v>4.041666666666667</v>
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>5.6944444444444446</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+        <v>8.96875</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>34</v>
       </c>
@@ -12399,7 +12488,7 @@
       </c>
       <c r="G45" s="61"/>
     </row>
-    <row r="46" spans="2:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="19"/>
     </row>
   </sheetData>
@@ -12449,15 +12538,15 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -12477,7 +12566,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="64">
         <v>44097</v>
       </c>
@@ -12502,7 +12591,7 @@
         <v>0.87847222222222254</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="64">
         <v>44097</v>
       </c>
@@ -12519,7 +12608,7 @@
       </c>
       <c r="H3" s="67"/>
     </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="71">
         <v>44100</v>
       </c>
@@ -12537,7 +12626,7 @@
         <v>6.9444444444444531E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="64">
         <v>44101</v>
       </c>
@@ -12555,7 +12644,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="64">
         <v>44103</v>
       </c>
@@ -12573,7 +12662,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="64">
         <v>44103</v>
       </c>
@@ -12589,7 +12678,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="71">
         <v>44105</v>
       </c>
@@ -12607,7 +12696,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="71">
         <v>44105</v>
       </c>
@@ -12623,7 +12712,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="71">
         <v>44107</v>
       </c>
@@ -12699,7 +12788,7 @@
       </c>
       <c r="J13" s="57"/>
     </row>
-    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="71">
         <v>44113</v>
       </c>
@@ -12716,7 +12805,7 @@
       </c>
       <c r="J14" s="57"/>
     </row>
-    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="71">
         <v>44115</v>
       </c>
@@ -12734,7 +12823,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="71">
         <v>44116</v>
       </c>
@@ -12752,7 +12841,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="71">
         <v>44116</v>
       </c>
@@ -12768,7 +12857,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="71">
         <v>44121</v>
       </c>
@@ -12784,7 +12873,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="71">
         <v>44123</v>
       </c>
@@ -12802,7 +12891,7 @@
         <v>1.0416666666666741E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="71">
         <v>44125</v>
       </c>
@@ -12820,7 +12909,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="71">
         <v>44112</v>
       </c>
@@ -12836,7 +12925,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="64">
         <v>44127</v>
       </c>
@@ -12854,7 +12943,7 @@
         <v>3.4722222222222265E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
@@ -12863,7 +12952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
@@ -12872,7 +12961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="64"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
@@ -12881,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="64"/>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
@@ -12890,7 +12979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="64"/>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
@@ -12899,7 +12988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="64"/>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
@@ -12908,7 +12997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="64"/>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
@@ -12917,7 +13006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="64"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
@@ -12926,7 +13015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="64"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
@@ -12935,7 +13024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="64"/>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
@@ -12944,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="64"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
@@ -12953,7 +13042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="64"/>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
@@ -12962,7 +13051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="64"/>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
@@ -12971,7 +13060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="64"/>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
@@ -12980,7 +13069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="64"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
@@ -12989,7 +13078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="64"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
@@ -12998,7 +13087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="64"/>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
@@ -13007,7 +13096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="64"/>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
@@ -13016,7 +13105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="64"/>
       <c r="D41" s="55"/>
       <c r="E41" s="55"/>
@@ -13025,7 +13114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="64"/>
       <c r="D42" s="55"/>
       <c r="E42" s="55"/>
@@ -13034,7 +13123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="64"/>
       <c r="D43" s="55"/>
       <c r="E43" s="55"/>
@@ -13043,7 +13132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="64"/>
       <c r="D44" s="55"/>
       <c r="E44" s="55"/>
@@ -13052,7 +13141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="64"/>
       <c r="D45" s="55"/>
       <c r="E45" s="55"/>
@@ -13061,7 +13150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="64"/>
       <c r="D46" s="55"/>
       <c r="E46" s="55"/>
@@ -13070,7 +13159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="64"/>
       <c r="D47" s="55"/>
       <c r="E47" s="55"/>
@@ -13079,7 +13168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="64"/>
       <c r="D48" s="55"/>
       <c r="E48" s="55"/>
@@ -13088,7 +13177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="64"/>
       <c r="D49" s="55"/>
       <c r="E49" s="55"/>
@@ -13097,7 +13186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="64"/>
       <c r="D50" s="55"/>
       <c r="E50" s="55"/>
@@ -13106,7 +13195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="64"/>
       <c r="D51" s="55"/>
       <c r="E51" s="55"/>
@@ -13115,7 +13204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="64"/>
       <c r="D52" s="55"/>
       <c r="E52" s="55"/>
@@ -13124,7 +13213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="64"/>
       <c r="D53" s="55"/>
       <c r="E53" s="55"/>
@@ -13133,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="64"/>
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
@@ -13142,7 +13231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="64"/>
       <c r="D55" s="55"/>
       <c r="E55" s="55"/>
@@ -13151,7 +13240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="64"/>
       <c r="D56" s="55"/>
       <c r="E56" s="55"/>
@@ -13160,7 +13249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="64"/>
       <c r="D57" s="55"/>
       <c r="E57" s="55"/>
@@ -13169,7 +13258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="64"/>
       <c r="D58" s="55"/>
       <c r="E58" s="55"/>
@@ -13178,7 +13267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="64"/>
       <c r="D59" s="55"/>
       <c r="E59" s="55"/>
@@ -13187,7 +13276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="64"/>
       <c r="D60" s="55"/>
       <c r="E60" s="55"/>
@@ -13196,7 +13285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="64"/>
       <c r="D61" s="55"/>
       <c r="E61" s="55"/>
@@ -13205,7 +13294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="64"/>
       <c r="D62" s="55"/>
       <c r="E62" s="55"/>
@@ -13214,7 +13303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="64"/>
       <c r="D63" s="55"/>
       <c r="E63" s="55"/>
@@ -13223,7 +13312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="64"/>
       <c r="D64" s="55"/>
       <c r="E64" s="55"/>
@@ -13232,7 +13321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="64"/>
       <c r="D65" s="55"/>
       <c r="E65" s="55"/>
@@ -13241,7 +13330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="64"/>
       <c r="D66" s="55"/>
       <c r="E66" s="55"/>
@@ -13250,7 +13339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="64"/>
       <c r="D67" s="55"/>
       <c r="E67" s="55"/>
@@ -13259,7 +13348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="64"/>
       <c r="D68" s="55"/>
       <c r="E68" s="55"/>
@@ -13268,7 +13357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="64"/>
       <c r="D69" s="55"/>
       <c r="E69" s="55"/>
@@ -13277,7 +13366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="64"/>
       <c r="D70" s="55"/>
       <c r="E70" s="55"/>
@@ -13286,7 +13375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="64"/>
       <c r="D71" s="55"/>
       <c r="E71" s="55"/>
@@ -13295,7 +13384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="64"/>
       <c r="D72" s="55"/>
       <c r="E72" s="55"/>
@@ -13304,7 +13393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="64"/>
       <c r="D73" s="55"/>
       <c r="E73" s="55"/>
@@ -13313,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="64"/>
       <c r="D74" s="55"/>
       <c r="E74" s="55"/>
@@ -13322,7 +13411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="64"/>
       <c r="D75" s="55"/>
       <c r="E75" s="55"/>
@@ -13331,7 +13420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="64"/>
       <c r="D76" s="55"/>
       <c r="E76" s="55"/>
@@ -13340,7 +13429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="64"/>
       <c r="D77" s="55"/>
       <c r="E77" s="55"/>
@@ -13349,7 +13438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="64"/>
       <c r="D78" s="55"/>
       <c r="E78" s="55"/>
@@ -13358,7 +13447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="64"/>
       <c r="D79" s="55"/>
       <c r="E79" s="55"/>
@@ -13367,229 +13456,229 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F80" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F81" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F82" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F83" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F84" s="55">
         <f t="shared" ref="F84:F117" si="4">E84-D84</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F85" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F86" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F87" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F88" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F89" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F90" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F91" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F92" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F93" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F94" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F95" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F96" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F97" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F98" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F99" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F100" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F101" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F102" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F103" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F104" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F105" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F106" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F107" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F108" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F109" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F110" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F111" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F112" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F113" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F114" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F115" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F116" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F117" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13605,21 +13694,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" style="19" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="19"/>
-    <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" style="19" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" style="19"/>
+    <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -13640,7 +13729,7 @@
       </c>
       <c r="G1" s="75"/>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="64">
         <v>44097</v>
       </c>
@@ -13668,7 +13757,7 @@
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="71">
         <v>44100</v>
       </c>
@@ -13688,7 +13777,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="71">
         <v>44101</v>
       </c>
@@ -13710,7 +13799,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="64">
         <v>44102</v>
       </c>
@@ -13732,7 +13821,7 @@
       </c>
       <c r="G5" s="55"/>
     </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="64">
         <v>44103</v>
       </c>
@@ -13751,7 +13840,7 @@
       </c>
       <c r="G6" s="55"/>
     </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="71">
         <v>44105</v>
       </c>
@@ -13770,7 +13859,7 @@
       </c>
       <c r="G7" s="55"/>
     </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="71">
         <v>44110</v>
       </c>
@@ -13791,7 +13880,7 @@
       </c>
       <c r="G8" s="55"/>
     </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="64">
         <v>44118</v>
       </c>
@@ -13813,7 +13902,7 @@
       </c>
       <c r="G9" s="55"/>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="71">
         <v>44120</v>
       </c>
@@ -13835,7 +13924,7 @@
       </c>
       <c r="G10" s="55"/>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="71">
         <v>44124</v>
       </c>
@@ -13857,7 +13946,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="71">
         <v>44126</v>
       </c>
@@ -13879,7 +13968,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="71">
         <v>44127</v>
       </c>
@@ -13900,7 +13989,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="71">
         <v>44133</v>
       </c>
@@ -13922,7 +14011,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="64">
         <v>44134</v>
       </c>
@@ -13944,7 +14033,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="64">
         <v>44137</v>
       </c>
@@ -13966,7 +14055,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="64">
         <v>44139</v>
       </c>
@@ -13985,7 +14074,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="64">
         <v>44143</v>
       </c>
@@ -14007,7 +14096,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="64">
         <v>44145</v>
       </c>
@@ -14029,7 +14118,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="64">
         <v>44150</v>
       </c>
@@ -14051,7 +14140,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="64"/>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
@@ -14061,7 +14150,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="64"/>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
@@ -14072,7 +14161,7 @@
       <c r="G22" s="55"/>
       <c r="I22" s="67"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="64">
         <v>44167</v>
       </c>
@@ -14094,7 +14183,7 @@
       </c>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="64">
         <v>44175</v>
       </c>
@@ -14116,7 +14205,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="64">
         <v>44176</v>
       </c>
@@ -14138,7 +14227,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="64">
         <v>44181</v>
       </c>
@@ -14160,7 +14249,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="64">
         <v>44182</v>
       </c>
@@ -14182,7 +14271,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="64">
         <v>44187</v>
       </c>
@@ -14204,7 +14293,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="64">
         <v>44192</v>
       </c>
@@ -14226,7 +14315,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="64">
         <v>44192</v>
       </c>
@@ -14248,7 +14337,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="64">
         <v>44193</v>
       </c>
@@ -14270,7 +14359,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="64">
         <v>44164</v>
       </c>
@@ -14292,7 +14381,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="64">
         <v>44194</v>
       </c>
@@ -14314,7 +14403,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="64">
         <v>44200</v>
       </c>
@@ -14336,7 +14425,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="64">
         <v>44201</v>
       </c>
@@ -14358,7 +14447,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="64">
         <v>44207</v>
       </c>
@@ -14380,7 +14469,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="64">
         <v>44208</v>
       </c>
@@ -14402,7 +14491,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="64"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
@@ -14412,7 +14501,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="64"/>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
@@ -14422,7 +14511,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="64"/>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
@@ -14432,7 +14521,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="64"/>
       <c r="D41" s="55"/>
       <c r="E41" s="55"/>
@@ -14442,7 +14531,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="64"/>
       <c r="F42" s="55">
         <f t="shared" si="2"/>
@@ -14450,440 +14539,440 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F43" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F44" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F45" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F46" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F47" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F48" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F49" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F50" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F51" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F52" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F53" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F54" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F55" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F56" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F57" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F58" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F59" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F60" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F61" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F62" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F63" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F64" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F65" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G65" s="55"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F66" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F67" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F68" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F69" s="55">
         <f t="shared" ref="F69:F105" si="3">E69-D69</f>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F70" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F71" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F72" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F73" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F74" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F75" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F76" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F77" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F78" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F79" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F80" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F81" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F82" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F83" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F84" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F85" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F86" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F87" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F88" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F89" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F90" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F91" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F92" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F93" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G93" s="55"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F94" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F95" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G95" s="55"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F96" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F97" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G97" s="55"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F98" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G98" s="55"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F99" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G99" s="55"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F100" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F101" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G101" s="55"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F102" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G102" s="55"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F103" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G103" s="55"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F104" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F105" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -14902,17 +14991,17 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="19"/>
-    <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" style="19"/>
+    <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -14933,7 +15022,7 @@
       </c>
       <c r="G1" s="75"/>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="64">
         <v>44097</v>
       </c>
@@ -14961,7 +15050,7 @@
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="71">
         <v>44100</v>
       </c>
@@ -14981,7 +15070,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="71">
         <v>44101</v>
       </c>
@@ -15003,7 +15092,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="71">
         <v>44102</v>
       </c>
@@ -15021,7 +15110,7 @@
       <c r="G5" s="55"/>
       <c r="J5" s="57"/>
     </row>
-    <row r="6" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="64">
         <v>44103</v>
       </c>
@@ -15041,7 +15130,7 @@
       <c r="G6" s="55"/>
       <c r="J6" s="57"/>
     </row>
-    <row r="7" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="64">
         <v>44104</v>
       </c>
@@ -15059,7 +15148,7 @@
       <c r="G7" s="55"/>
       <c r="J7" s="57"/>
     </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="71">
         <v>44105</v>
       </c>
@@ -15078,7 +15167,7 @@
       </c>
       <c r="G8" s="55"/>
     </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="71">
         <v>44110</v>
       </c>
@@ -15100,7 +15189,7 @@
       </c>
       <c r="G9" s="55"/>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="71">
         <v>44110</v>
       </c>
@@ -15117,7 +15206,7 @@
       </c>
       <c r="G10" s="55"/>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="71">
         <v>44081</v>
       </c>
@@ -15134,7 +15223,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="71">
         <v>44112</v>
       </c>
@@ -15153,7 +15242,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="71">
         <v>44115</v>
       </c>
@@ -15172,7 +15261,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="71">
         <v>44115</v>
       </c>
@@ -15189,7 +15278,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="71">
         <v>44116</v>
       </c>
@@ -15206,7 +15295,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="71">
         <v>44116</v>
       </c>
@@ -15225,7 +15314,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="71">
         <v>44123</v>
       </c>
@@ -15244,7 +15333,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="71">
         <v>44123</v>
       </c>
@@ -15261,7 +15350,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="71">
         <v>44124</v>
       </c>
@@ -15278,7 +15367,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="64">
         <v>44124</v>
       </c>
@@ -15292,7 +15381,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="71">
         <v>44125</v>
       </c>
@@ -15311,7 +15400,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="64">
         <v>44127</v>
       </c>
@@ -15330,7 +15419,7 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="64"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
@@ -15340,7 +15429,7 @@
       </c>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="64"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
@@ -15350,7 +15439,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="64"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
@@ -15360,7 +15449,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="64"/>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
@@ -15370,7 +15459,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="64"/>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
@@ -15380,7 +15469,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="64"/>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
@@ -15391,7 +15480,7 @@
       <c r="G28" s="55"/>
       <c r="I28" s="67"/>
     </row>
-    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="64"/>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
@@ -15401,7 +15490,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="64"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
@@ -15411,7 +15500,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="64"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
@@ -15421,7 +15510,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="64"/>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
@@ -15431,7 +15520,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="64"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
@@ -15441,7 +15530,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="64"/>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
@@ -15451,7 +15540,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="64"/>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
@@ -15461,7 +15550,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="64"/>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
@@ -15471,7 +15560,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="64"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
@@ -15481,7 +15570,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="64"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
@@ -15491,7 +15580,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="64"/>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
@@ -15501,7 +15590,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="64"/>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
@@ -15511,7 +15600,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="64"/>
       <c r="D41" s="55"/>
       <c r="E41" s="55"/>
@@ -15521,7 +15610,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="64"/>
       <c r="D42" s="55"/>
       <c r="E42" s="55"/>
@@ -15531,7 +15620,7 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="64"/>
       <c r="D43" s="55"/>
       <c r="E43" s="55"/>
@@ -15541,7 +15630,7 @@
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="64"/>
       <c r="D44" s="55"/>
       <c r="E44" s="55"/>
@@ -15551,7 +15640,7 @@
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="64"/>
       <c r="D45" s="55"/>
       <c r="E45" s="55"/>
@@ -15561,7 +15650,7 @@
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="64"/>
       <c r="D46" s="55"/>
       <c r="E46" s="55"/>
@@ -15571,7 +15660,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="64"/>
       <c r="D47" s="55"/>
       <c r="E47" s="55"/>
@@ -15581,7 +15670,7 @@
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="64"/>
       <c r="F48" s="55">
         <f t="shared" si="1"/>
@@ -15589,434 +15678,434 @@
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F49" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F50" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F51" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F52" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F53" s="55">
         <f t="shared" ref="F53:F74" si="2">E53-D53</f>
         <v>0</v>
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F54" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F55" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F56" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F57" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F58" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F59" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F60" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F61" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F62" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F63" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F64" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F65" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G65" s="55"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F66" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F67" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F68" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F69" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F70" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F71" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F72" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F73" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F74" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F75" s="55">
         <f t="shared" ref="F75:F106" si="3">E75-D75</f>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F76" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F77" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F78" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F79" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F80" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F81" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F82" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F83" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F84" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F85" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F86" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F87" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F88" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F89" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F90" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F91" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F92" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F93" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G93" s="55"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F94" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F95" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G95" s="55"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F96" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F97" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G97" s="55"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F98" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G98" s="55"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F99" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G99" s="55"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F100" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F101" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G101" s="55"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F102" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G102" s="55"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F103" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G103" s="55"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F104" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G104" s="55"/>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F105" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G105" s="55"/>
     </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F106" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G106" s="55"/>
     </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F107" s="55">
         <f t="shared" ref="F107:F110" si="4">E107-D107</f>
         <v>0</v>
       </c>
       <c r="G107" s="55"/>
     </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F108" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G108" s="55"/>
     </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F109" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G109" s="55"/>
     </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F110" s="55">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -16031,21 +16120,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="19"/>
-    <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="11.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" style="19"/>
+    <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -16066,8 +16155,8 @@
       </c>
       <c r="G1" s="75"/>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="71">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="64">
         <v>44100</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -16086,13 +16175,13 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>0.76736111111111116</v>
+        <v>4.041666666666667</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="71">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="64">
         <v>44101</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -16109,7 +16198,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64">
         <v>44101</v>
       </c>
@@ -16129,8 +16218,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="71">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="64">
         <v>44101</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -16143,13 +16232,13 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="F5" s="55">
-        <f t="shared" ref="F5:F68" si="0">E5-D5</f>
+        <f t="shared" ref="F5:F16" si="0">E5-D5</f>
         <v>6.25E-2</v>
       </c>
       <c r="G5" s="55"/>
     </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="64">
         <v>43948</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -16165,7 +16254,7 @@
       </c>
       <c r="G6" s="55"/>
     </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="64">
         <v>44101</v>
       </c>
@@ -16183,7 +16272,7 @@
       </c>
       <c r="G7" s="55"/>
     </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="64">
         <v>44103</v>
       </c>
@@ -16202,8 +16291,8 @@
       </c>
       <c r="G8" s="55"/>
     </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="71">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="64">
         <v>44110</v>
       </c>
       <c r="B9" s="19" t="s">
@@ -16224,8 +16313,8 @@
       </c>
       <c r="G9" s="55"/>
     </row>
-    <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="71">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="64">
         <v>44112</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -16243,8 +16332,8 @@
       </c>
       <c r="G10" s="55"/>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="71">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="64">
         <v>44115</v>
       </c>
       <c r="B11" s="19" t="s">
@@ -16262,8 +16351,8 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="71">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="64">
         <v>44116</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -16281,8 +16370,8 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="71">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="64">
         <v>44123</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -16300,7 +16389,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="64">
         <v>44124</v>
       </c>
@@ -16317,8 +16406,8 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" s="71">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="64">
         <v>44125</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -16336,7 +16425,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="64">
         <v>44127</v>
       </c>
@@ -16355,7 +16444,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="64">
         <v>44130</v>
       </c>
@@ -16372,683 +16461,1014 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="64"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="64">
+        <v>44139</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>130</v>
+      </c>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="64">
+        <v>44139</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="64">
+        <v>44139</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="64">
+        <v>44143</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>131</v>
+      </c>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="64">
+        <v>44144</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A23" s="64"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="64">
+        <v>44145</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>132</v>
+      </c>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G23" s="55"/>
       <c r="I23" s="67"/>
     </row>
-    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="64">
+        <v>44148</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>133</v>
+      </c>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="64">
+        <v>44149</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>134</v>
+      </c>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="64">
+        <v>44150</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.9027777777777783E-2</v>
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A27" s="64"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="64">
+        <v>44150</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A28" s="64"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="64">
+        <v>44151</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>136</v>
+      </c>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A29" s="64"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="64">
+        <v>44151</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A30" s="64"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="64">
+        <v>44157</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A31" s="64"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="64">
+        <v>44157</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A32" s="64"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="64">
+        <v>44158</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>138</v>
+      </c>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A33" s="64"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="64">
+        <v>44159</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>139</v>
+      </c>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A34" s="64"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="64">
+        <v>44164</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>140</v>
+      </c>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.17708333333333334</v>
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A35" s="64"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="64">
+        <v>44164</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A36" s="64"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="64">
+        <v>44169</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>140</v>
+      </c>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A37" s="64"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="64">
+        <v>44176</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>140</v>
+      </c>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A38" s="64"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="64">
+        <v>44177</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>141</v>
+      </c>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A39" s="64"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="64">
+        <v>44177</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
       <c r="F39" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A40" s="64"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="64">
+        <v>44178</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>142</v>
+      </c>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A41" s="64"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="64">
+        <v>44178</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>143</v>
+      </c>
       <c r="D41" s="55"/>
       <c r="E41" s="55"/>
       <c r="F41" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A42" s="64"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="64">
+        <v>44179</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="F42" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="64">
+        <v>44179</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F43" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="64">
+        <v>44182</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>144</v>
+      </c>
       <c r="F44" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="64">
+        <v>44183</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>145</v>
+      </c>
       <c r="F45" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="64">
+        <v>44186</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F46" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="64">
+        <v>44187</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F47" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="64">
+        <v>44187</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>146</v>
+      </c>
       <c r="F48" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="64">
+        <v>44187</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>147</v>
+      </c>
       <c r="F49" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="64">
+        <v>44187</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>148</v>
+      </c>
       <c r="F50" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="64">
+        <v>44193</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F51" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="64">
+        <v>44194</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>149</v>
+      </c>
       <c r="F52" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.375E-2</v>
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="64">
+        <v>44194</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="F53" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="64">
+        <v>44194</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="F54" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="64">
+        <v>44196</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>152</v>
+      </c>
       <c r="F55" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="64">
+        <v>44198</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>153</v>
+      </c>
       <c r="F56" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="64">
+        <v>44199</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F57" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="64">
+        <v>44200</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="F58" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="64">
+        <v>44200</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>155</v>
+      </c>
       <c r="F59" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="64">
+        <v>44200</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="F60" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="64">
+        <v>44202</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F61" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="64">
+        <v>44202</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="F62" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="64">
+        <v>44203</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>158</v>
+      </c>
       <c r="F63" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="64">
+        <v>44203</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="F64" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="64">
+        <v>44203</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F65" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="G65" s="55"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="64">
+        <v>44212</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F66" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="64">
+        <v>44213</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>159</v>
+      </c>
       <c r="F67" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="64">
+        <v>44214</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="F68" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="64">
+        <v>44214</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F69" s="55">
-        <f t="shared" ref="F69:F70" si="1">E69-D69</f>
-        <v>0</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F70" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F70" si="1">E70-D70</f>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F71" s="55">
         <f t="shared" ref="F71:F104" si="2">E71-D71</f>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F72" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F73" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F74" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F75" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F76" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F77" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F78" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F79" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F80" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F81" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F82" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F83" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F84" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F85" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F86" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F87" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F88" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F89" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F90" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F91" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F92" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F93" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G93" s="55"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F94" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F95" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G95" s="55"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F96" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F97" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G97" s="55"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F98" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G98" s="55"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F99" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G99" s="55"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F100" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F101" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G101" s="55"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F102" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G102" s="55"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F103" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G103" s="55"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F104" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17069,33 +17489,33 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="87.109375" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>21</v>
       </c>

--- a/doc/planning-docs/Projektablaufplan.xlsx
+++ b/doc/planning-docs/Projektablaufplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF7E6C3-544A-480C-B6F0-242381DB7761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86F1D96-B036-4168-BD32-28188D547A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="175">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -546,19 +546,64 @@
   <si>
     <t>Markdown</t>
   </si>
+  <si>
+    <t>Erste Controller erstellen</t>
+  </si>
+  <si>
+    <t>Business Logic</t>
+  </si>
+  <si>
+    <t>Stylecop Verbesserungen, neue Projekte</t>
+  </si>
+  <si>
+    <t>Anpassungen, Validatoren</t>
+  </si>
+  <si>
+    <t>Weitere Anpassungen, neue Features</t>
+  </si>
+  <si>
+    <t>Nachfassung einiger Unit Tests</t>
+  </si>
+  <si>
+    <t>Generierung und Konvertierung</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>Collection exportieren</t>
+  </si>
+  <si>
+    <t>Erweiterung um Collections</t>
+  </si>
+  <si>
+    <t>Weitere API Calls für Frontend</t>
+  </si>
+  <si>
+    <t>Kommentare</t>
+  </si>
+  <si>
+    <t>Refactoring</t>
+  </si>
+  <si>
+    <t>Aufgabenstellung importieren</t>
+  </si>
+  <si>
+    <t>Recherche und Mapping</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="168" formatCode="d"/>
-    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="170" formatCode="[hh]:mm"/>
+    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="167" formatCode="d"/>
+    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="169" formatCode="[hh]:mm"/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -1282,7 +1327,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -1294,7 +1339,7 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1416,7 +1461,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1446,25 +1491,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1492,7 +1537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1503,14 +1548,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1524,7 +1569,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
@@ -1681,112 +1726,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2745,6 +2684,112 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -3166,7 +3211,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-AT"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3224,10 +3269,10 @@
                   <c:v>0.87847222222222254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1111111111111116</c:v>
+                  <c:v>3.7395833333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93750000000000022</c:v>
+                  <c:v>4.1388888888888893</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.041666666666667</c:v>
@@ -3293,7 +3338,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-AT"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3339,7 +3384,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-AT"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4107,17 +4152,17 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Arbeitspaket" totalsRowLabel="Ergebnis" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Aufwandsschätzung[h]" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="tatsächlicher Aufwand[h]" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Arbeitspaket" totalsRowLabel="Ergebnis" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Aufwandsschätzung[h]" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="tatsächlicher Aufwand[h]" dataDxfId="63" totalsRowDxfId="62">
       <calculatedColumnFormula>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,7,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,7,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Kategorie" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Zugewiesen an" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Kategorie" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Zugewiesen an" dataDxfId="59" totalsRowDxfId="58"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Fortschritt"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" totalsRowDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ende" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Datum"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Anzahl Tage" totalsRowFunction="sum" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" totalsRowDxfId="57"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ende" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Datum"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Anzahl Tage" totalsRowFunction="sum" totalsRowDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4397,8 +4442,8 @@
   <dimension ref="A1:BO57"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="73" zoomScaleNormal="145" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4917,7 +4962,7 @@
       </c>
       <c r="M6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="N6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4925,19 +4970,19 @@
       </c>
       <c r="O6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="P6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="Q6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="R6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="S6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4945,7 +4990,7 @@
       </c>
       <c r="T6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="U6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4953,19 +4998,19 @@
       </c>
       <c r="V6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="W6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="X6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="Y6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="Z6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4973,7 +5018,7 @@
       </c>
       <c r="AA6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AB6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -4981,19 +5026,19 @@
       </c>
       <c r="AC6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AD6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AE6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AF6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AG6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5001,7 +5046,7 @@
       </c>
       <c r="AH6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AI6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5009,19 +5054,19 @@
       </c>
       <c r="AJ6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AK6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AL6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AM6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AN6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5029,7 +5074,7 @@
       </c>
       <c r="AO6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AP6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5037,19 +5082,19 @@
       </c>
       <c r="AQ6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AR6" s="22" t="str">
         <f t="shared" ref="AR6:BO6" ca="1" si="4">LEFT(TEXT(AR4,"TTT"),1)</f>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AS6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AT6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AU6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5057,7 +5102,7 @@
       </c>
       <c r="AV6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AW6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5065,19 +5110,19 @@
       </c>
       <c r="AX6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AY6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AZ6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BA6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BB6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5085,7 +5130,7 @@
       </c>
       <c r="BC6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BD6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5093,19 +5138,19 @@
       </c>
       <c r="BE6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BF6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BG6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BH6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BI6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5113,7 +5158,7 @@
       </c>
       <c r="BJ6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BK6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5121,19 +5166,19 @@
       </c>
       <c r="BL6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BM6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BN6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BO6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>T</v>
       </c>
     </row>
     <row r="7" spans="1:67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5217,7 +5262,7 @@
         <v>42</v>
       </c>
       <c r="C8" s="62"/>
-      <c r="D8" s="59"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="28"/>
@@ -5458,7 +5503,7 @@
       <c r="C9" s="68">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D9" s="59" t="str">
+      <c r="D9" s="68" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v/>
       </c>
@@ -5711,7 +5756,7 @@
       <c r="C10" s="68">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D10" s="59" t="str">
+      <c r="D10" s="68" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v/>
       </c>
@@ -5964,7 +6009,7 @@
       <c r="C11" s="68">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D11" s="59" t="str">
+      <c r="D11" s="68" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v/>
       </c>
@@ -6217,7 +6262,7 @@
       <c r="C12" s="68">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D12" s="59" t="str">
+      <c r="D12" s="68" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v/>
       </c>
@@ -6470,7 +6515,7 @@
       <c r="C13" s="68">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D13" s="59" t="str">
+      <c r="D13" s="68" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v/>
       </c>
@@ -6555,7 +6600,7 @@
       <c r="C14" s="68">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D14" s="59" t="str">
+      <c r="D14" s="68" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v/>
       </c>
@@ -6638,7 +6683,7 @@
         <v>76</v>
       </c>
       <c r="C15" s="68"/>
-      <c r="D15" s="59"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
       <c r="G15" s="28"/>
@@ -6879,9 +6924,9 @@
       <c r="C16" s="78">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D16" s="59" t="str">
+      <c r="D16" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>0.88541666666666663</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>11</v>
@@ -6964,7 +7009,7 @@
       <c r="C17" s="78">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D17" s="59" t="str">
+      <c r="D17" s="68" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v/>
       </c>
@@ -7049,7 +7094,7 @@
       <c r="C18" s="68">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D18" s="59" t="str">
+      <c r="D18" s="68" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v/>
       </c>
@@ -7155,9 +7200,9 @@
       <c r="C19" s="68">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D19" s="59">
+      <c r="D19" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>7.2916666666666671E-2</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>11</v>
@@ -7261,7 +7306,7 @@
       <c r="C20" s="68">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D20" s="59" t="str">
+      <c r="D20" s="68" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v/>
       </c>
@@ -7367,9 +7412,9 @@
       <c r="C21" s="68">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D21" s="59" t="str">
+      <c r="D21" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E21" s="31" t="s">
         <v>11</v>
@@ -7452,7 +7497,7 @@
       <c r="C22" s="68">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D22" s="59" t="str">
+      <c r="D22" s="68" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v/>
       </c>
@@ -7537,9 +7582,9 @@
       <c r="C23" s="68">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D23" s="59" t="str">
+      <c r="D23" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E23" s="31" t="s">
         <v>11</v>
@@ -7622,7 +7667,7 @@
       <c r="C24" s="68">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D24" s="59">
+      <c r="D24" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v>0.65972222222222221</v>
       </c>
@@ -7705,7 +7750,7 @@
         <v>73</v>
       </c>
       <c r="C25" s="68"/>
-      <c r="D25" s="59"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
       <c r="G25" s="28"/>
@@ -7799,7 +7844,7 @@
       <c r="C26" s="78">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D26" s="59">
+      <c r="D26" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v>1.0625</v>
       </c>
@@ -7884,7 +7929,7 @@
       <c r="C27" s="78">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D27" s="59">
+      <c r="D27" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v>0.63194444444444464</v>
       </c>
@@ -7969,7 +8014,7 @@
       <c r="C28" s="78">
         <v>0.25</v>
       </c>
-      <c r="D28" s="59" t="str">
+      <c r="D28" s="68" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v/>
       </c>
@@ -8054,7 +8099,7 @@
       <c r="C29" s="78">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D29" s="59">
+      <c r="D29" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v>0.22222222222222232</v>
       </c>
@@ -8137,7 +8182,7 @@
         <v>53</v>
       </c>
       <c r="C30" s="78"/>
-      <c r="D30" s="59"/>
+      <c r="D30" s="68"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
       <c r="G30" s="28"/>
@@ -8208,7 +8253,7 @@
         <v>99</v>
       </c>
       <c r="C31" s="78"/>
-      <c r="D31" s="59">
+      <c r="D31" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v>0.14930555555555555</v>
       </c>
@@ -8284,7 +8329,7 @@
       <c r="C32" s="68">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D32" s="59">
+      <c r="D32" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v>0.40972222222222221</v>
       </c>
@@ -8384,7 +8429,7 @@
       <c r="C33" s="78">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D33" s="59">
+      <c r="D33" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v>0.16666666666666669</v>
       </c>
@@ -8469,7 +8514,7 @@
       <c r="C34" s="78">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D34" s="59">
+      <c r="D34" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v>1.770833333333333</v>
       </c>
@@ -8554,7 +8599,7 @@
       <c r="C35" s="78">
         <v>0.125</v>
       </c>
-      <c r="D35" s="59">
+      <c r="D35" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -8639,7 +8684,7 @@
       <c r="C36" s="78">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D36" s="59" t="str">
+      <c r="D36" s="68" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v/>
       </c>
@@ -8724,7 +8769,7 @@
       <c r="C37" s="78">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D37" s="59">
+      <c r="D37" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v>0.125</v>
       </c>
@@ -8809,7 +8854,7 @@
       <c r="C38" s="78">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D38" s="59" t="str">
+      <c r="D38" s="68" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v/>
       </c>
@@ -8894,7 +8939,7 @@
       <c r="C39" s="68">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D39" s="59" t="str">
+      <c r="D39" s="68" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v/>
       </c>
@@ -8994,7 +9039,7 @@
       <c r="C40" s="68">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D40" s="59" t="str">
+      <c r="D40" s="68" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v/>
       </c>
@@ -9094,7 +9139,7 @@
       <c r="C41" s="68">
         <v>0.29166666666666669</v>
       </c>
-      <c r="D41" s="59">
+      <c r="D41" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v>0.1875</v>
       </c>
@@ -9186,7 +9231,7 @@
         <v>57</v>
       </c>
       <c r="C42" s="68"/>
-      <c r="D42" s="59"/>
+      <c r="D42" s="68"/>
       <c r="E42" s="31"/>
       <c r="F42" s="31"/>
       <c r="G42" s="28"/>
@@ -9427,7 +9472,7 @@
       <c r="C43" s="68">
         <v>0.125</v>
       </c>
-      <c r="D43" s="59">
+      <c r="D43" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v>0.10069444444444443</v>
       </c>
@@ -9680,7 +9725,7 @@
       <c r="C44" s="68">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D44" s="59">
+      <c r="D44" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v>6.9444444444444441E-3</v>
       </c>
@@ -9768,7 +9813,7 @@
       <c r="C45" s="68">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D45" s="59">
+      <c r="D45" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v>0.12499999999999999</v>
       </c>
@@ -9856,7 +9901,7 @@
       <c r="C46" s="68">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D46" s="59">
+      <c r="D46" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v>0.15625</v>
       </c>
@@ -9941,9 +9986,9 @@
       <c r="C47" s="68">
         <v>2.0833333333333335</v>
       </c>
-      <c r="D47" s="59">
+      <c r="D47" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>1.0347222222222225</v>
+        <v>1.4097222222222225</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>11</v>
@@ -10026,9 +10071,9 @@
       <c r="C48" s="68">
         <v>1.6666666666666667</v>
       </c>
-      <c r="D48" s="59">
+      <c r="D48" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>1.7326388888888893</v>
+        <v>2.6562500000000004</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>11</v>
@@ -10111,7 +10156,7 @@
       <c r="C49" s="78">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D49" s="59" t="str">
+      <c r="D49" s="68" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v/>
       </c>
@@ -10185,7 +10230,7 @@
         <v>95</v>
       </c>
       <c r="C50" s="78"/>
-      <c r="D50" s="59">
+      <c r="D50" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v>0.10416666666666667</v>
       </c>
@@ -10436,7 +10481,7 @@
         <v>65</v>
       </c>
       <c r="C51" s="63"/>
-      <c r="D51" s="59"/>
+      <c r="D51" s="68"/>
       <c r="E51" s="31"/>
       <c r="F51" s="31"/>
       <c r="G51" s="28"/>
@@ -10509,9 +10554,9 @@
       <c r="C52" s="68">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D52" s="59">
+      <c r="D52" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.16666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E52" s="31" t="s">
         <v>11</v>
@@ -10594,7 +10639,7 @@
       <c r="C53" s="68">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D53" s="59" t="str">
+      <c r="D53" s="68" t="str">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
         <v/>
       </c>
@@ -10850,7 +10895,7 @@
       </c>
       <c r="D54" s="68">
         <f>SUM(D8:D53)</f>
-        <v>8.96875</v>
+        <v>12.798611111111112</v>
       </c>
       <c r="E54" s="69" t="s">
         <v>37</v>
@@ -10861,7 +10906,7 @@
       </c>
       <c r="G54" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.62210982658959546</v>
+        <v>0.88776493256262068</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -11095,166 +11140,166 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:BO56">
-    <cfRule type="expression" dxfId="67" priority="4">
+    <cfRule type="expression" dxfId="53" priority="4">
       <formula>AND(TODAY()&gt;=L$4,TODAY()&lt;M$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:AP3">
-    <cfRule type="expression" dxfId="66" priority="10">
+    <cfRule type="expression" dxfId="52" priority="10">
       <formula>L$4&lt;=EOMONTH($L$4,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:BO3">
-    <cfRule type="expression" dxfId="65" priority="6">
+    <cfRule type="expression" dxfId="51" priority="6">
       <formula>AND(M$4&lt;=EOMONTH($L$4,2),M$4&gt;EOMONTH($L$4,0),M$4&gt;EOMONTH($L$4,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:BO3">
-    <cfRule type="expression" dxfId="64" priority="5">
+    <cfRule type="expression" dxfId="50" priority="5">
       <formula>AND(L$4&lt;=EOMONTH($L$4,1),L$4&gt;EOMONTH($L$4,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:BO20 L25:BO31 L35:BO53">
-    <cfRule type="expression" dxfId="63" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="27" stopIfTrue="1">
       <formula>AND($E7="Geringes Risiko",L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="46" stopIfTrue="1">
       <formula>AND($E7="Hohes Risiko",L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="64" stopIfTrue="1">
       <formula>AND($E7="Im Plan",L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="65" stopIfTrue="1">
       <formula>AND($E7="Mittleres Risiko",L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="66" stopIfTrue="1">
       <formula>AND(LEN($E7)=0,L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56:BO56">
-    <cfRule type="expression" dxfId="58" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="74" stopIfTrue="1">
       <formula>AND(#REF!="Geringes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="75" stopIfTrue="1">
       <formula>AND(#REF!="Hohes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="76" stopIfTrue="1">
       <formula>AND(#REF!="Im Plan",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="77" stopIfTrue="1">
       <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="78" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" dxfId="53" priority="2" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="39" priority="2" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",E56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="FEHLER">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="FEHLER">
       <formula>NOT(ISERROR(SEARCH("FEHLER",E56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:BO55">
-    <cfRule type="expression" dxfId="51" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="247" stopIfTrue="1">
       <formula>AND(#REF!="Geringes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="248" stopIfTrue="1">
       <formula>AND(#REF!="Hohes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="249" stopIfTrue="1">
       <formula>AND(#REF!="Im Plan",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="250" stopIfTrue="1">
       <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="251" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24:BO24">
-    <cfRule type="expression" dxfId="46" priority="288" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="288" stopIfTrue="1">
       <formula>AND($E24="Geringes Risiko",L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="289" stopIfTrue="1">
       <formula>AND($E24="Hohes Risiko",L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="290" stopIfTrue="1">
       <formula>AND($E24="Im Plan",L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="291" stopIfTrue="1">
       <formula>AND($E24="Mittleres Risiko",L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="292" stopIfTrue="1">
       <formula>AND(LEN($E24)=0,L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:BO23">
-    <cfRule type="expression" dxfId="41" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="352" stopIfTrue="1">
       <formula>AND($E21="Geringes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="353" stopIfTrue="1">
       <formula>AND($E21="Hohes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="354" stopIfTrue="1">
       <formula>AND($E21="Im Plan",L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="355" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="355" stopIfTrue="1">
       <formula>AND($E21="Mittleres Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="356" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="356" stopIfTrue="1">
       <formula>AND(LEN($E21)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54:BO54">
-    <cfRule type="expression" dxfId="36" priority="407" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="407" stopIfTrue="1">
       <formula>AND(#REF!="Geringes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="408" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="408" stopIfTrue="1">
       <formula>AND(#REF!="Hohes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="409" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="409" stopIfTrue="1">
       <formula>AND(#REF!="Im Plan",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="410" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="410" stopIfTrue="1">
       <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="411" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="411" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:BO33">
-    <cfRule type="expression" dxfId="31" priority="418" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="418" stopIfTrue="1">
       <formula>AND($E34="Geringes Risiko",L$4&gt;=$H32,L$4&lt;=$H32+$J32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="419" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="419" stopIfTrue="1">
       <formula>AND($E34="Hohes Risiko",L$4&gt;=$H32,L$4&lt;=$H32+$J32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="420" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="420" stopIfTrue="1">
       <formula>AND($E34="Im Plan",L$4&gt;=$H32,L$4&lt;=$H32+$J32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="421" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="421" stopIfTrue="1">
       <formula>AND($E34="Mittleres Risiko",L$4&gt;=$H32,L$4&lt;=$H32+$J32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="422" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="422" stopIfTrue="1">
       <formula>AND(LEN($E34)=0,L$4&gt;=$H32,L$4&lt;=$H32+$J32-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34:BO34">
-    <cfRule type="expression" dxfId="26" priority="423" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="423" stopIfTrue="1">
       <formula>AND(#REF!="Geringes Risiko",L$4&gt;=$H34,L$4&lt;=$H34+$J34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="424" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="424" stopIfTrue="1">
       <formula>AND(#REF!="Hohes Risiko",L$4&gt;=$H34,L$4&lt;=$H34+$J34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="425" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="425" stopIfTrue="1">
       <formula>AND(#REF!="Im Plan",L$4&gt;=$H34,L$4&lt;=$H34+$J34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="426" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="426" stopIfTrue="1">
       <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=$H34,L$4&lt;=$H34+$J34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="427" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="427" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$4&gt;=$H34,L$4&lt;=$H34+$J34-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11605,7 +11650,7 @@
       </c>
       <c r="E10" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B10,Michi!F:F)</f>
-        <v>0</v>
+        <v>0.88541666666666663</v>
       </c>
       <c r="F10" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B10,Sabrina!F:F)</f>
@@ -11613,7 +11658,7 @@
       </c>
       <c r="G10" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.88541666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -11680,7 +11725,7 @@
       </c>
       <c r="E13" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B13,Michi!F:F)</f>
-        <v>7.2916666666666671E-2</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="F13" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B13,Sabrina!F:F)</f>
@@ -11688,7 +11733,7 @@
       </c>
       <c r="G13" s="67">
         <f t="shared" si="0"/>
-        <v>7.2916666666666671E-2</v>
+        <v>0.36458333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -11730,7 +11775,7 @@
       </c>
       <c r="E15" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B15,Michi!F:F)</f>
-        <v>0</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F15" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B15,Sabrina!F:F)</f>
@@ -11738,7 +11783,7 @@
       </c>
       <c r="G15" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -11780,7 +11825,7 @@
       </c>
       <c r="E17" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B17,Michi!F:F)</f>
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="F17" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B17,Sabrina!F:F)</f>
@@ -11788,7 +11833,7 @@
       </c>
       <c r="G17" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="18" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
@@ -12276,11 +12321,11 @@
       </c>
       <c r="D37" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B37,Roman!F:F)</f>
-        <v>0.15972222222222232</v>
+        <v>0.32638888888888901</v>
       </c>
       <c r="E37" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B37,Michi!F:F)</f>
-        <v>0.25000000000000011</v>
+        <v>0.45833333333333354</v>
       </c>
       <c r="F37" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B37,Sabrina!F:F)</f>
@@ -12288,7 +12333,7 @@
       </c>
       <c r="G37" s="67">
         <f t="shared" si="0"/>
-        <v>1.0347222222222225</v>
+        <v>1.4097222222222225</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
@@ -12301,11 +12346,11 @@
       </c>
       <c r="D38" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B38,Roman!F:F)</f>
-        <v>0.20833333333333343</v>
+        <v>0.67013888888888895</v>
       </c>
       <c r="E38" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B38,Michi!F:F)</f>
-        <v>0.3541666666666668</v>
+        <v>0.81597222222222243</v>
       </c>
       <c r="F38" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B38,Sabrina!F:F)</f>
@@ -12313,7 +12358,7 @@
       </c>
       <c r="G38" s="67">
         <f t="shared" si="0"/>
-        <v>1.7326388888888893</v>
+        <v>2.6562500000000004</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
@@ -12355,7 +12400,7 @@
       </c>
       <c r="E40" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B40,Michi!F:F)</f>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="F40" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B40,Sabrina!F:F)</f>
@@ -12363,7 +12408,7 @@
       </c>
       <c r="G40" s="67">
         <f t="shared" si="0"/>
-        <v>0.16666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
@@ -12451,11 +12496,11 @@
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>3.1111111111111116</v>
+        <v>3.7395833333333335</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
-        <v>0.93750000000000022</v>
+        <v>4.1388888888888893</v>
       </c>
       <c r="F44" s="70">
         <f t="shared" ref="F44" si="2">SUM(F4:F43)</f>
@@ -12463,7 +12508,7 @@
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>8.96875</v>
+        <v>12.798611111111114</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
@@ -12480,7 +12525,7 @@
       </c>
       <c r="E45" s="61" t="str">
         <f>IF(E44=Michi!H2,"OK","FEHLER")</f>
-        <v>OK</v>
+        <v>FEHLER</v>
       </c>
       <c r="F45" s="61" t="str">
         <f>IF(F44=Sabrina!H2,"OK","FEHLER")</f>
@@ -13692,10 +13737,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13752,7 +13797,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>3.236111111111112</v>
+        <v>3.8645833333333344</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -14006,7 +14051,7 @@
         <v>0.875</v>
       </c>
       <c r="F14" s="55">
-        <f t="shared" ref="F14:F19" si="1">E14-D14</f>
+        <f t="shared" ref="F14:F21" si="1">E14-D14</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="G14" s="55"/>
@@ -14055,7 +14100,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="64">
         <v>44139</v>
       </c>
@@ -14074,619 +14119,720 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="64">
+        <v>44139</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G18" s="55"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="64">
         <v>44143</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B19" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D19" s="55">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E19" s="55">
         <v>0.91666666666666663</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F19" s="55">
         <f t="shared" si="1"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="G18" s="55"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="64">
+      <c r="G19" s="55"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="64">
+        <v>44144</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="64">
         <v>44145</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B21" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D21" s="55">
         <v>0.75</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E21" s="55">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F21" s="55">
         <f t="shared" si="1"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G19" s="55"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="64">
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="64">
         <v>44150</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="55">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E20" s="55">
-        <v>1</v>
-      </c>
-      <c r="F20" s="55">
-        <f t="shared" ref="F20:F68" si="2">E20-D20</f>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="G20" s="55"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="55"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
+      <c r="B22" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.9027777777777783E-2</v>
       </c>
       <c r="G22" s="55"/>
-      <c r="I22" s="67"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="64">
-        <v>44167</v>
+        <v>44150</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="55">
-        <v>0.875</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E23" s="55">
         <v>1</v>
       </c>
       <c r="F23" s="55">
+        <f t="shared" ref="F23:F83" si="2">E23-D23</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="G23" s="55"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="64">
+        <v>44151</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G24" s="55"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="64">
+        <v>44157</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="64">
+        <v>44164</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G26" s="55"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="64">
+        <v>44167</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="55">
+        <v>0.875</v>
+      </c>
+      <c r="E27" s="55">
+        <v>1</v>
+      </c>
+      <c r="F27" s="55">
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-      <c r="G23" s="55"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="64">
+      <c r="G27" s="55"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="64">
         <v>44175</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B28" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C28" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D28" s="55">
         <v>0.5625</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E28" s="55">
         <v>0.70833333333333337</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F28" s="55">
         <f t="shared" si="2"/>
         <v>0.14583333333333337</v>
       </c>
-      <c r="G24" s="55"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="64">
+      <c r="G28" s="55"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="64">
         <v>44176</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B29" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C29" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D29" s="55">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E29" s="55">
         <v>0.95833333333333337</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F29" s="55">
         <f t="shared" si="2"/>
         <v>0.29166666666666674</v>
       </c>
-      <c r="G25" s="55"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="64">
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="64">
+        <v>44177</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="64">
+        <v>44179</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="55">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G31" s="55"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="64">
+        <v>44179</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="55">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G32" s="55"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="64">
         <v>44181</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B33" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="55">
+      <c r="D33" s="55">
         <v>0.875</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E33" s="55">
         <v>0.97916666666666663</v>
       </c>
-      <c r="F26" s="55">
+      <c r="F33" s="55">
         <f t="shared" si="2"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="G26" s="55"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="64">
+      <c r="G33" s="55"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="64">
         <v>44182</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B34" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C34" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D27" s="55">
+      <c r="D34" s="55">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E34" s="55">
         <v>1</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F34" s="55">
         <f t="shared" si="2"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G27" s="55"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="64">
+      <c r="G34" s="55"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="64">
+        <v>44186</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="55">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G35" s="55"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="64">
         <v>44187</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B36" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="55">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G36" s="55"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="64">
+        <v>44187</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C37" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="55">
+      <c r="D37" s="55">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E37" s="55">
         <v>0.625</v>
       </c>
-      <c r="F28" s="55">
+      <c r="F37" s="55">
         <f t="shared" si="2"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G28" s="55"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="64">
+      <c r="G37" s="55"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="64">
         <v>44192</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B38" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C38" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="55">
+      <c r="D38" s="55">
         <v>0.73611111111111116</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E38" s="55">
         <v>0.75694444444444453</v>
       </c>
-      <c r="F29" s="55">
+      <c r="F38" s="55">
         <f t="shared" si="2"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="G29" s="55"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="64">
+      <c r="G38" s="55"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="64">
         <v>44192</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B39" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C39" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="55">
+      <c r="D39" s="55">
         <v>0.8125</v>
       </c>
-      <c r="E30" s="55">
+      <c r="E39" s="55">
         <v>0.86111111111111116</v>
       </c>
-      <c r="F30" s="55">
+      <c r="F39" s="55">
         <f t="shared" si="2"/>
         <v>4.861111111111116E-2</v>
       </c>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="64">
+      <c r="G39" s="55"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="64">
         <v>44193</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B40" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="55">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="G40" s="55"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="64">
+        <v>44193</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C41" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="55">
+      <c r="D41" s="55">
         <v>0.875</v>
       </c>
-      <c r="E31" s="55">
+      <c r="E41" s="55">
         <v>0.89583333333333337</v>
       </c>
-      <c r="F31" s="55">
+      <c r="F41" s="55">
         <f t="shared" si="2"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="G31" s="55"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="64">
+      <c r="G41" s="55"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="64">
         <v>44164</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B42" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C42" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="55">
+      <c r="D42" s="55">
         <v>0.5</v>
       </c>
-      <c r="E32" s="55">
+      <c r="E42" s="55">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F32" s="55">
+      <c r="F42" s="55">
         <f t="shared" si="2"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G32" s="55"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="64">
+      <c r="G42" s="55"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="64">
         <v>44194</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B43" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F43" s="55">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G43" s="55"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="64">
+        <v>44194</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C44" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D33" s="55">
+      <c r="D44" s="55">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E33" s="55">
+      <c r="E44" s="55">
         <v>0.875</v>
       </c>
-      <c r="F33" s="55">
+      <c r="F44" s="55">
         <f t="shared" si="2"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="G33" s="55"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="64">
+      <c r="G44" s="55"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="64">
+        <v>44199</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="55">
+        <v>3.125E-2</v>
+      </c>
+      <c r="G45" s="55"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="64">
         <v>44200</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B46" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C46" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="55">
+      <c r="D46" s="55">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E46" s="55">
         <v>0.9375</v>
       </c>
-      <c r="F34" s="55">
+      <c r="F46" s="55">
         <f t="shared" si="2"/>
         <v>2.083333333333337E-2</v>
       </c>
-      <c r="G34" s="55"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="64">
+      <c r="G46" s="55"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="64">
         <v>44201</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B47" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C47" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D35" s="55">
+      <c r="D47" s="55">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E35" s="55">
+      <c r="E47" s="55">
         <v>0.75</v>
       </c>
-      <c r="F35" s="55">
+      <c r="F47" s="55">
         <f t="shared" si="2"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="G35" s="55"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="64">
+      <c r="G47" s="55"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="64">
+        <v>44202</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="55">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G48" s="55"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="64">
+        <v>44203</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="55">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G49" s="55"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="64">
+        <v>44203</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="55">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="G50" s="55"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="64">
         <v>44207</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B51" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C51" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="55">
+      <c r="D51" s="55">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E36" s="55">
+      <c r="E51" s="55">
         <v>0.875</v>
       </c>
-      <c r="F36" s="55">
+      <c r="F51" s="55">
         <f t="shared" si="2"/>
         <v>0.29166666666666663</v>
       </c>
-      <c r="G36" s="55"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="64">
+      <c r="G51" s="55"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="64">
         <v>44208</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B52" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C52" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="55">
+      <c r="D52" s="55">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E37" s="55">
+      <c r="E52" s="55">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F37" s="55">
+      <c r="F52" s="55">
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
-      <c r="G37" s="55"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="64"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="55"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="64"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="55"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="64"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="55"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="64"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="55"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="64"/>
-      <c r="F42" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="55"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F43" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="55"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F44" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="55"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F45" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="55"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F46" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="55"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F47" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="55"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F48" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="55"/>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F49" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="55"/>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F50" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="55"/>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F51" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="55"/>
-    </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F52" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="64">
+        <v>44212</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F53" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="64">
+        <v>44214</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="F54" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="64">
+        <v>44214</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F55" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="64"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
       <c r="F56" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="64"/>
       <c r="F57" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F58" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F59" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F60" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F61" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F62" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F63" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F64" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -14723,112 +14869,112 @@
     </row>
     <row r="69" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F69" s="55">
-        <f t="shared" ref="F69:F105" si="3">E69-D69</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
     </row>
     <row r="70" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F70" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
     <row r="71" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F71" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
     </row>
     <row r="72" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F72" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
     <row r="73" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F73" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
     <row r="74" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F74" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
     <row r="75" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F75" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
     <row r="76" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F76" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
     <row r="77" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F77" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
     <row r="78" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F78" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
     <row r="79" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F79" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
     <row r="80" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F80" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
     <row r="81" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F81" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F82" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
     <row r="83" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F83" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
     <row r="84" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F84" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F84:F120" si="3">E84-D84</f>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
@@ -14971,9 +15117,113 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="G104" s="55"/>
     </row>
     <row r="105" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F105" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="55"/>
+    </row>
+    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F106" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="55"/>
+    </row>
+    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F107" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="55"/>
+    </row>
+    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F108" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="55"/>
+    </row>
+    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F109" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="55"/>
+    </row>
+    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F110" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="55"/>
+    </row>
+    <row r="111" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F111" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="55"/>
+    </row>
+    <row r="112" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F112" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="55"/>
+    </row>
+    <row r="113" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F113" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="55"/>
+    </row>
+    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F114" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="55"/>
+    </row>
+    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F115" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="55"/>
+    </row>
+    <row r="116" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F116" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="55"/>
+    </row>
+    <row r="117" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F117" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="55"/>
+    </row>
+    <row r="118" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F118" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F119" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F120" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -14985,19 +15235,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="19" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="19"/>
-    <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="19" customWidth="1"/>
     <col min="7" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
@@ -15045,7 +15296,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>0.93750000000000022</v>
+        <v>4.5138888888888893</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -15395,7 +15646,7 @@
         <v>0.625</v>
       </c>
       <c r="F21" s="55">
-        <f t="shared" ref="F21:F52" si="1">E21-D21</f>
+        <f t="shared" ref="F21:F22" si="1">E21-D21</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="G21" s="55"/>
@@ -15420,370 +15671,557 @@
       <c r="G22" s="55"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="64"/>
+      <c r="A23" s="64">
+        <v>44130</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="G23" s="55"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
+      <c r="A24" s="64">
+        <v>44131</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>161</v>
+      </c>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G24" s="55"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
+      <c r="A25" s="64">
+        <v>44139</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G25" s="55"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
+      <c r="A26" s="64">
+        <v>44139</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G26" s="55"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="64"/>
+      <c r="A27" s="64">
+        <v>44144</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G27" s="55"/>
+      <c r="I27" s="67"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="64"/>
+      <c r="A28" s="64">
+        <v>44149</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>163</v>
+      </c>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G28" s="55"/>
-      <c r="I28" s="67"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="64"/>
+      <c r="A29" s="64">
+        <v>44150</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.9027777777777783E-2</v>
       </c>
       <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="64"/>
+      <c r="A30" s="64">
+        <v>44150</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G30" s="55"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="64"/>
+      <c r="A31" s="64">
+        <v>44151</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>162</v>
+      </c>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G31" s="55"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="64"/>
+      <c r="A32" s="64">
+        <v>44157</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>164</v>
+      </c>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="G32" s="55"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="64"/>
+      <c r="A33" s="64">
+        <v>44157</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G33" s="55"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="64"/>
+      <c r="A34" s="64">
+        <v>44159</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>165</v>
+      </c>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="G34" s="55"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="64"/>
+      <c r="A35" s="64">
+        <v>44164</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G35" s="55"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="64"/>
+      <c r="A36" s="64">
+        <v>44169</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>166</v>
+      </c>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G36" s="55"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="64"/>
+      <c r="A37" s="64">
+        <v>44177</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="64"/>
+      <c r="A38" s="64">
+        <v>44178</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>167</v>
+      </c>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="G38" s="55"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="64"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
+      <c r="A39" s="64">
+        <v>44179</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="F39" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G39" s="55"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="64"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
+      <c r="A40" s="64">
+        <v>44179</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F40" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="64"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
+      <c r="A41" s="64">
+        <v>44183</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>168</v>
+      </c>
       <c r="F41" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="64"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
+      <c r="A42" s="64">
+        <v>44186</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F42" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="64"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
+      <c r="A43" s="64">
+        <v>44187</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F43" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G43" s="55"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="64"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
+      <c r="A44" s="64">
+        <v>44187</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>169</v>
+      </c>
       <c r="F44" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="64"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
+      <c r="A45" s="64">
+        <v>44193</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F45" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="G45" s="55"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="64"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
+      <c r="A46" s="64">
+        <v>44194</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>170</v>
+      </c>
       <c r="F46" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.13541666666666666</v>
       </c>
       <c r="G46" s="55"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="64"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
+      <c r="A47" s="64">
+        <v>44194</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="F47" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G47" s="55"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="64"/>
+      <c r="A48" s="64">
+        <v>44196</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>171</v>
+      </c>
       <c r="F48" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="64">
+        <v>44199</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F49" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="64">
+        <v>44200</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>172</v>
+      </c>
       <c r="F50" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="64">
+        <v>44202</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F51" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="64">
+        <v>44202</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>174</v>
+      </c>
       <c r="F52" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="64">
+        <v>44203</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="F53" s="55">
-        <f t="shared" ref="F53:F74" si="2">E53-D53</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="64">
+        <v>44203</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F54" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="64">
+        <v>44212</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F55" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="64">
+        <v>44213</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>167</v>
+      </c>
       <c r="F56" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="64">
+        <v>44214</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="F57" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="64">
+        <v>44214</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F58" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F59" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F59:F89" si="2">E59-D59</f>
         <v>0</v>
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F60" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F61" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F62" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F63" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F64" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -15862,112 +16300,112 @@
     </row>
     <row r="75" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F75" s="55">
-        <f t="shared" ref="F75:F106" si="3">E75-D75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
     <row r="76" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F76" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
     <row r="77" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F77" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
     <row r="78" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F78" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
     <row r="79" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F79" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
     <row r="80" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F80" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
     <row r="81" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F81" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
     <row r="82" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F82" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
     <row r="83" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F83" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
     <row r="84" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F84" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
     <row r="85" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F85" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
     <row r="86" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F86" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
     <row r="87" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F87" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
     <row r="88" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F88" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
     <row r="89" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F89" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
     <row r="90" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F90" s="55">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="F90:F93" si="3">E90-D90</f>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
@@ -15989,125 +16427,6 @@
     <row r="93" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F93" s="55">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="55"/>
-    </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F94" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="55"/>
-    </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F95" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="55"/>
-    </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F96" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="55"/>
-    </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F97" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="55"/>
-    </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F98" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="55"/>
-    </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F99" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="55"/>
-    </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F100" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="55"/>
-    </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F101" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="55"/>
-    </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F102" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="55"/>
-    </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F103" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="55"/>
-    </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F104" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G104" s="55"/>
-    </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F105" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G105" s="55"/>
-    </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F106" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G106" s="55"/>
-    </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F107" s="55">
-        <f t="shared" ref="F107:F110" si="4">E107-D107</f>
-        <v>0</v>
-      </c>
-      <c r="G107" s="55"/>
-    </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F108" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G108" s="55"/>
-    </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F109" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G109" s="55"/>
-    </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F110" s="55">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16120,8 +16439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A43" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/doc/planning-docs/Projektablaufplan.xlsx
+++ b/doc/planning-docs/Projektablaufplan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86F1D96-B036-4168-BD32-28188D547A2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC7DB35-2441-48E5-A895-3432E6A5ABC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -17,23 +17,15 @@
     <sheet name="Gantt Info" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Gantt!$3:$6</definedName>
     <definedName name="Heute" localSheetId="0">TODAY()</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Gantt!$3:$6</definedName>
     <definedName name="Projekt_Start">Gantt!$H$2</definedName>
     <definedName name="Scroll_Schrittweite">Gantt!$H$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -43,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="189">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -591,19 +583,61 @@
   <si>
     <t>Recherche und Mapping</t>
   </si>
+  <si>
+    <t>Design überarbeiten</t>
+  </si>
+  <si>
+    <t>Baumstruktur</t>
+  </si>
+  <si>
+    <t>Team-Besprechungen + Dokumente</t>
+  </si>
+  <si>
+    <t>Dokumentationen</t>
+  </si>
+  <si>
+    <t>GUI Gestaltung und Inputs</t>
+  </si>
+  <si>
+    <t>Databindings</t>
+  </si>
+  <si>
+    <t>Seiten verlinkung</t>
+  </si>
+  <si>
+    <t>SaveTab überarbeitung</t>
+  </si>
+  <si>
+    <t>Exercise-Collection GUI</t>
+  </si>
+  <si>
+    <t>Exercise-Collection</t>
+  </si>
+  <si>
+    <t>Data-Objects + DataBinding</t>
+  </si>
+  <si>
+    <t>Änderungen übernommen</t>
+  </si>
+  <si>
+    <t>Weitere Pages angelegt</t>
+  </si>
+  <si>
+    <t>GUI gestaltung</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="d"/>
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="169" formatCode="[hh]:mm"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="d"/>
+    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="170" formatCode="[hh]:mm"/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -1327,7 +1361,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -1339,12 +1373,12 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1461,7 +1495,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1491,25 +1525,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1537,7 +1571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1548,14 +1582,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1569,7 +1603,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="169" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
@@ -1593,57 +1627,57 @@
     </xf>
   </cellXfs>
   <cellStyles count="52">
-    <cellStyle name="20% - Accent1" xfId="28" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="32" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="35" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="39" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="43" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="47" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="29" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="33" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="36" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="40" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="30" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="34" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="37" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="41" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="27" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="31" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="11" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="38" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="42" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="16" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="20" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="22" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Comma [0]" xfId="10" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Currency" xfId="12" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Currency [0]" xfId="13" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="28" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="32" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="35" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="39" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="43" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="47" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="29" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="33" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="36" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="40" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="44" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="48" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="30" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="34" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="37" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="41" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="45" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="49" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="27" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="31" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="11" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="38" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="42" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="46" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="19" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="20" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Datum" xfId="9" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Explanatory Text" xfId="25" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="15" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="14" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="18" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="21" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Dezimal [0]" xfId="10" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="18" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="26" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="25" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="15" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Komma" xfId="4" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="17" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="24" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="19" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="24" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Prozent" xfId="2" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="16" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Tiefe 1" xfId="50" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Tiefe 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="26" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="23" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Überschrift" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="14" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="21" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Währung" xfId="12" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Währung [0]" xfId="13" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="23" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="22" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
   <dxfs count="80">
@@ -2684,7 +2718,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
+      <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3043,7 +3077,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3266,7 +3300,7 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.87847222222222254</c:v>
+                  <c:v>4.46875</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.7395833333333335</c:v>
@@ -4047,15 +4081,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>68580</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>67</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>236220</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4446,22 +4480,22 @@
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
     <col min="3" max="3" width="13" style="19" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" customWidth="1"/>
-    <col min="12" max="67" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" customWidth="1"/>
+    <col min="12" max="67" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4501,7 +4535,7 @@
       <c r="AI1" s="19"/>
       <c r="AJ1" s="19"/>
     </row>
-    <row r="2" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
@@ -4520,7 +4554,7 @@
       <c r="J2" s="84"/>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:67" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:67" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
@@ -4614,7 +4648,7 @@
       <c r="BN3" s="40"/>
       <c r="BO3" s="40"/>
     </row>
-    <row r="4" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -4853,7 +4887,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="5" spans="1:67" s="19" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:67" s="19" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -4924,7 +4958,7 @@
       <c r="BN5" s="47"/>
       <c r="BO5" s="48"/>
     </row>
-    <row r="6" spans="1:67" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:67" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
@@ -5181,7 +5215,7 @@
         <v>T</v>
       </c>
     </row>
-    <row r="7" spans="1:67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
@@ -5254,7 +5288,7 @@
       <c r="BN7" s="33"/>
       <c r="BO7" s="33"/>
     </row>
-    <row r="8" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
@@ -5495,7 +5529,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="53" t="s">
         <v>43</v>
@@ -5748,7 +5782,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="53" t="s">
         <v>44</v>
@@ -6001,7 +6035,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="53" t="s">
         <v>45</v>
@@ -6254,7 +6288,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="53" t="s">
         <v>38</v>
@@ -6507,7 +6541,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="53" t="s">
         <v>46</v>
@@ -6592,7 +6626,7 @@
       <c r="BN13" s="35"/>
       <c r="BO13" s="35"/>
     </row>
-    <row r="14" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="53" t="s">
         <v>47</v>
@@ -6677,7 +6711,7 @@
       <c r="BN14" s="35"/>
       <c r="BO14" s="35"/>
     </row>
-    <row r="15" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="50" t="s">
         <v>76</v>
@@ -6916,7 +6950,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="53" t="s">
         <v>88</v>
@@ -7001,7 +7035,7 @@
       <c r="BN16" s="35"/>
       <c r="BO16" s="35"/>
     </row>
-    <row r="17" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="53" t="s">
         <v>75</v>
@@ -7086,7 +7120,7 @@
       <c r="BN17" s="35"/>
       <c r="BO17" s="35"/>
     </row>
-    <row r="18" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="53" t="s">
         <v>80</v>
@@ -7192,7 +7226,7 @@
       <c r="BN18" s="35"/>
       <c r="BO18" s="35"/>
     </row>
-    <row r="19" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="53" t="s">
         <v>74</v>
@@ -7298,7 +7332,7 @@
       <c r="BN19" s="35"/>
       <c r="BO19" s="35"/>
     </row>
-    <row r="20" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="53" t="s">
         <v>48</v>
@@ -7404,7 +7438,7 @@
       <c r="BN20" s="35"/>
       <c r="BO20" s="35"/>
     </row>
-    <row r="21" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="53" t="s">
         <v>49</v>
@@ -7489,7 +7523,7 @@
       <c r="BN21" s="35"/>
       <c r="BO21" s="35"/>
     </row>
-    <row r="22" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="53" t="s">
         <v>50</v>
@@ -7574,7 +7608,7 @@
       <c r="BN22" s="35"/>
       <c r="BO22" s="35"/>
     </row>
-    <row r="23" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="53" t="s">
         <v>51</v>
@@ -7659,7 +7693,7 @@
       <c r="BN23" s="35"/>
       <c r="BO23" s="35"/>
     </row>
-    <row r="24" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="53" t="s">
         <v>52</v>
@@ -7744,7 +7778,7 @@
       <c r="BN24" s="35"/>
       <c r="BO24" s="35"/>
     </row>
-    <row r="25" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="50" t="s">
         <v>73</v>
@@ -7836,7 +7870,7 @@
       <c r="BN25" s="35"/>
       <c r="BO25" s="35"/>
     </row>
-    <row r="26" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="53" t="s">
         <v>77</v>
@@ -7921,7 +7955,7 @@
       <c r="BN26" s="35"/>
       <c r="BO26" s="35"/>
     </row>
-    <row r="27" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="53" t="s">
         <v>78</v>
@@ -8006,7 +8040,7 @@
       <c r="BN27" s="35"/>
       <c r="BO27" s="35"/>
     </row>
-    <row r="28" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="53" t="s">
         <v>82</v>
@@ -8091,7 +8125,7 @@
       <c r="BN28" s="35"/>
       <c r="BO28" s="35"/>
     </row>
-    <row r="29" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="53" t="s">
         <v>79</v>
@@ -8176,7 +8210,7 @@
       <c r="BN29" s="35"/>
       <c r="BO29" s="35"/>
     </row>
-    <row r="30" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="B30" s="77" t="s">
         <v>53</v>
@@ -8247,7 +8281,7 @@
       <c r="BN30" s="35"/>
       <c r="BO30" s="35"/>
     </row>
-    <row r="31" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="53" t="s">
         <v>99</v>
@@ -8255,7 +8289,7 @@
       <c r="C31" s="78"/>
       <c r="D31" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.14930555555555555</v>
+        <v>1.59375</v>
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
@@ -8321,7 +8355,7 @@
       <c r="BN31" s="35"/>
       <c r="BO31" s="35"/>
     </row>
-    <row r="32" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="53" t="s">
         <v>54</v>
@@ -8331,7 +8365,7 @@
       </c>
       <c r="D32" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.40972222222222221</v>
+        <v>0.67708333333333326</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>11</v>
@@ -8421,7 +8455,7 @@
       <c r="BN32" s="35"/>
       <c r="BO32" s="35"/>
     </row>
-    <row r="33" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="53" t="s">
         <v>89</v>
@@ -8506,7 +8540,7 @@
       <c r="BN33" s="35"/>
       <c r="BO33" s="35"/>
     </row>
-    <row r="34" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="53" t="s">
         <v>83</v>
@@ -8516,7 +8550,7 @@
       </c>
       <c r="D34" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>1.770833333333333</v>
+        <v>2.895833333333333</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>11</v>
@@ -8591,7 +8625,7 @@
       <c r="BN34" s="35"/>
       <c r="BO34" s="35"/>
     </row>
-    <row r="35" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="53" t="s">
         <v>84</v>
@@ -8601,7 +8635,7 @@
       </c>
       <c r="D35" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>11</v>
@@ -8676,7 +8710,7 @@
       <c r="BN35" s="35"/>
       <c r="BO35" s="35"/>
     </row>
-    <row r="36" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="53" t="s">
         <v>85</v>
@@ -8761,7 +8795,7 @@
       <c r="BN36" s="35"/>
       <c r="BO36" s="35"/>
     </row>
-    <row r="37" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="53" t="s">
         <v>86</v>
@@ -8846,7 +8880,7 @@
       <c r="BN37" s="35"/>
       <c r="BO37" s="35"/>
     </row>
-    <row r="38" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="53" t="s">
         <v>87</v>
@@ -8931,7 +8965,7 @@
       <c r="BN38" s="35"/>
       <c r="BO38" s="35"/>
     </row>
-    <row r="39" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="53" t="s">
         <v>55</v>
@@ -9031,7 +9065,7 @@
       <c r="BN39" s="35"/>
       <c r="BO39" s="35"/>
     </row>
-    <row r="40" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="53" t="s">
         <v>70</v>
@@ -9131,7 +9165,7 @@
       <c r="BN40" s="35"/>
       <c r="BO40" s="35"/>
     </row>
-    <row r="41" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="53" t="s">
         <v>56</v>
@@ -9225,7 +9259,7 @@
       <c r="BN41" s="35"/>
       <c r="BO41" s="35"/>
     </row>
-    <row r="42" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="52" t="s">
         <v>57</v>
@@ -9464,7 +9498,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="53" t="s">
         <v>58</v>
@@ -9717,7 +9751,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="53" t="s">
         <v>59</v>
@@ -9805,7 +9839,7 @@
       <c r="BN44" s="35"/>
       <c r="BO44" s="35"/>
     </row>
-    <row r="45" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="53" t="s">
         <v>60</v>
@@ -9893,7 +9927,7 @@
       <c r="BN45" s="35"/>
       <c r="BO45" s="35"/>
     </row>
-    <row r="46" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="53" t="s">
         <v>61</v>
@@ -9978,7 +10012,7 @@
       <c r="BN46" s="35"/>
       <c r="BO46" s="35"/>
     </row>
-    <row r="47" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="53" t="s">
         <v>63</v>
@@ -9988,7 +10022,7 @@
       </c>
       <c r="D47" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>1.4097222222222225</v>
+        <v>1.618055555555556</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>11</v>
@@ -10063,7 +10097,7 @@
       <c r="BN47" s="35"/>
       <c r="BO47" s="35"/>
     </row>
-    <row r="48" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="53" t="s">
         <v>64</v>
@@ -10073,7 +10107,7 @@
       </c>
       <c r="D48" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>2.6562500000000004</v>
+        <v>3.1180555555555562</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>11</v>
@@ -10148,7 +10182,7 @@
       <c r="BN48" s="35"/>
       <c r="BO48" s="35"/>
     </row>
-    <row r="49" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="53" t="s">
         <v>62</v>
@@ -10224,7 +10258,7 @@
       <c r="BN49" s="35"/>
       <c r="BO49" s="35"/>
     </row>
-    <row r="50" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="53" t="s">
         <v>95</v>
@@ -10475,7 +10509,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="52" t="s">
         <v>65</v>
@@ -10546,7 +10580,7 @@
       <c r="BN51" s="35"/>
       <c r="BO51" s="35"/>
     </row>
-    <row r="52" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="53" t="s">
         <v>66</v>
@@ -10631,7 +10665,7 @@
       <c r="BN52" s="35"/>
       <c r="BO52" s="35"/>
     </row>
-    <row r="53" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="53" t="s">
         <v>72</v>
@@ -10884,7 +10918,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="66" t="s">
         <v>36</v>
@@ -10895,7 +10929,7 @@
       </c>
       <c r="D54" s="68">
         <f>SUM(D8:D53)</f>
-        <v>12.798611111111112</v>
+        <v>16.388888888888889</v>
       </c>
       <c r="E54" s="69" t="s">
         <v>37</v>
@@ -10906,7 +10940,7 @@
       </c>
       <c r="G54" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.88776493256262068</v>
+        <v>1.136801541425819</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -10969,7 +11003,7 @@
       <c r="BN54" s="35"/>
       <c r="BO54" s="35"/>
     </row>
-    <row r="55" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>7</v>
       </c>
@@ -11042,7 +11076,7 @@
       <c r="BN55" s="35"/>
       <c r="BO55" s="35"/>
     </row>
-    <row r="56" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>8</v>
       </c>
@@ -11113,7 +11147,7 @@
       <c r="BN56" s="34"/>
       <c r="BO56" s="34"/>
     </row>
-    <row r="57" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F57" s="6"/>
       <c r="K57" s="4"/>
     </row>
@@ -11346,15 +11380,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>68580</xdr:rowOff>
+                    <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>67</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>236220</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11449,24 +11483,24 @@
   <dimension ref="A2:G46"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="145" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="44.109375" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" style="19"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
       <c r="B2" s="57" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="60" t="s">
         <v>39</v>
       </c>
@@ -11486,7 +11520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -11511,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>44</v>
       </c>
@@ -11536,7 +11570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -11561,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -11586,7 +11620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>46</v>
       </c>
@@ -11611,7 +11645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>47</v>
       </c>
@@ -11636,7 +11670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>88</v>
       </c>
@@ -11661,7 +11695,7 @@
         <v>0.88541666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>75</v>
       </c>
@@ -11686,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>80</v>
       </c>
@@ -11711,7 +11745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>74</v>
       </c>
@@ -11736,7 +11770,7 @@
         <v>0.36458333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>48</v>
       </c>
@@ -11761,7 +11795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>49</v>
       </c>
@@ -11786,7 +11820,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>50</v>
       </c>
@@ -11811,7 +11845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>51</v>
       </c>
@@ -11836,7 +11870,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>52</v>
       </c>
@@ -11861,7 +11895,7 @@
         <v>0.65972222222222221</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>77</v>
       </c>
@@ -11886,7 +11920,7 @@
         <v>1.0625</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>78</v>
       </c>
@@ -11911,7 +11945,7 @@
         <v>0.63194444444444464</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>82</v>
       </c>
@@ -11936,7 +11970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>79</v>
       </c>
@@ -11961,13 +11995,13 @@
         <v>0.22222222222222232</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="67">
         <f>SUMIF(Jacob!B:B,Übersicht!B23,Jacob!F:F)</f>
-        <v>0</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="D23" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B23,Roman!F:F)</f>
@@ -11983,10 +12017,10 @@
       </c>
       <c r="G23" s="67">
         <f t="shared" si="0"/>
-        <v>0.40972222222222221</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.67708333333333326</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>89</v>
       </c>
@@ -12011,13 +12045,13 @@
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>83</v>
       </c>
       <c r="C25" s="67">
         <f>SUMIF(Jacob!B:B,Übersicht!B25,Jacob!F:F)</f>
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="D25" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B25,Roman!F:F)</f>
@@ -12033,16 +12067,16 @@
       </c>
       <c r="G25" s="67">
         <f t="shared" si="0"/>
-        <v>1.770833333333333</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+        <v>2.895833333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>84</v>
       </c>
       <c r="C26" s="67">
         <f>SUMIF(Jacob!B:B,Übersicht!B26,Jacob!F:F)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D26" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B26,Roman!F:F)</f>
@@ -12058,10 +12092,10 @@
       </c>
       <c r="G26" s="67">
         <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>85</v>
       </c>
@@ -12086,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>86</v>
       </c>
@@ -12111,7 +12145,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
         <v>87</v>
       </c>
@@ -12136,7 +12170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>55</v>
       </c>
@@ -12161,7 +12195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>70</v>
       </c>
@@ -12186,7 +12220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>56</v>
       </c>
@@ -12211,7 +12245,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="19" t="s">
         <v>58</v>
       </c>
@@ -12236,7 +12270,7 @@
         <v>0.10069444444444443</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="s">
         <v>59</v>
       </c>
@@ -12261,7 +12295,7 @@
         <v>6.9444444444444441E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="19" t="s">
         <v>60</v>
       </c>
@@ -12286,7 +12320,7 @@
         <v>0.12499999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>61</v>
       </c>
@@ -12311,13 +12345,13 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>63</v>
       </c>
       <c r="C37" s="55">
         <f>SUMIF(Jacob!B:B,Übersicht!B37,Jacob!F:F)</f>
-        <v>0.25000000000000011</v>
+        <v>0.45833333333333354</v>
       </c>
       <c r="D37" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B37,Roman!F:F)</f>
@@ -12333,16 +12367,16 @@
       </c>
       <c r="G37" s="67">
         <f t="shared" si="0"/>
-        <v>1.4097222222222225</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1.618055555555556</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="55">
         <f>SUMIF(Jacob!B:B,Übersicht!B38,Jacob!F:F)</f>
-        <v>0.3541666666666668</v>
+        <v>0.81597222222222243</v>
       </c>
       <c r="D38" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B38,Roman!F:F)</f>
@@ -12358,10 +12392,10 @@
       </c>
       <c r="G38" s="67">
         <f t="shared" si="0"/>
-        <v>2.6562500000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+        <v>3.1180555555555562</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>62</v>
       </c>
@@ -12386,7 +12420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>66</v>
       </c>
@@ -12411,7 +12445,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>72</v>
       </c>
@@ -12436,7 +12470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>95</v>
       </c>
@@ -12461,13 +12495,13 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>99</v>
       </c>
       <c r="C43" s="55">
         <f>SUMIF(Jacob!B:B,Übersicht!B43,Jacob!F:F)</f>
-        <v>0.14930555555555555</v>
+        <v>1.59375</v>
       </c>
       <c r="D43" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B43,Roman!F:F)</f>
@@ -12483,16 +12517,16 @@
       </c>
       <c r="G43" s="67">
         <f t="shared" si="0"/>
-        <v>0.14930555555555555</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1.59375</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="56" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="70">
         <f>SUM(C4:C43)</f>
-        <v>0.87847222222222254</v>
+        <v>4.46875</v>
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
@@ -12508,16 +12542,16 @@
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>12.798611111111114</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+        <v>16.388888888888889</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="61" t="str">
         <f>IF(C44=Jacob!H2,"OK","FEHLER")</f>
-        <v>OK</v>
+        <v>FEHLER</v>
       </c>
       <c r="D45" s="61" t="str">
         <f>IF(D44=Roman!H2,"OK","FEHLER")</f>
@@ -12533,7 +12567,7 @@
       </c>
       <c r="G45" s="61"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="19"/>
     </row>
   </sheetData>
@@ -12577,21 +12611,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="111" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -12611,7 +12645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="64">
         <v>44097</v>
       </c>
@@ -12633,10 +12667,10 @@
       </c>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>0.87847222222222254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>4.6770833333333321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="64">
         <v>44097</v>
       </c>
@@ -12653,7 +12687,7 @@
       </c>
       <c r="H3" s="67"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="71">
         <v>44100</v>
       </c>
@@ -12667,11 +12701,11 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F4" s="55">
-        <f t="shared" ref="F4:F37" si="0">E4-D4</f>
+        <f t="shared" ref="F4:F16" si="0">E4-D4</f>
         <v>6.9444444444444531E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="64">
         <v>44101</v>
       </c>
@@ -12689,7 +12723,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="64">
         <v>44103</v>
       </c>
@@ -12707,7 +12741,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="64">
         <v>44103</v>
       </c>
@@ -12723,7 +12757,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="71">
         <v>44105</v>
       </c>
@@ -12741,7 +12775,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="71">
         <v>44105</v>
       </c>
@@ -12757,7 +12791,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="71">
         <v>44107</v>
       </c>
@@ -12770,10 +12804,10 @@
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
       <c r="F10" s="55">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="71">
         <v>44110</v>
       </c>
@@ -12797,7 +12831,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="71">
         <v>44112</v>
       </c>
@@ -12816,7 +12850,7 @@
       </c>
       <c r="J12" s="57"/>
     </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="71">
         <v>44112</v>
       </c>
@@ -12833,7 +12867,7 @@
       </c>
       <c r="J13" s="57"/>
     </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="71">
         <v>44113</v>
       </c>
@@ -12846,11 +12880,11 @@
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
       <c r="F14" s="55">
-        <v>3.4722222222222224E-2</v>
+        <v>0.20138888888888887</v>
       </c>
       <c r="J14" s="57"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="71">
         <v>44115</v>
       </c>
@@ -12868,7 +12902,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="71">
         <v>44116</v>
       </c>
@@ -12886,7 +12920,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="71">
         <v>44116</v>
       </c>
@@ -12902,830 +12936,994 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="71">
-        <v>44121</v>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="64">
+        <v>44119</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C18" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="55">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="71">
+        <v>44121</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55">
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55">
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="71">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="71">
         <v>44123</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B20" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D20" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E20" s="55">
         <v>0.73958333333333337</v>
       </c>
-      <c r="F19" s="55">
-        <f t="shared" si="0"/>
+      <c r="F20" s="55">
+        <f>E20-D20</f>
         <v>1.0416666666666741E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="71">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="71">
         <v>44125</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B21" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D21" s="55">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E21" s="55">
         <v>0.625</v>
       </c>
-      <c r="F20" s="55">
-        <f t="shared" si="0"/>
+      <c r="F21" s="55">
+        <f>E21-D21</f>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="71">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="71">
         <v>44112</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B22" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C22" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55">
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="64">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="64">
         <v>44127</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B23" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D23" s="55">
         <v>0.46527777777777773</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E23" s="55">
         <v>0.5</v>
       </c>
-      <c r="F22" s="55">
-        <f t="shared" si="0"/>
+      <c r="F23" s="55">
+        <f>E23-D23</f>
         <v>3.4722222222222265E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="64"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="64">
+        <v>44130</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="64"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="64">
+        <v>44139</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>175</v>
+      </c>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="64"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="64">
+        <v>44139</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
       <c r="F26" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="64"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="64">
+        <v>44139</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="64"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="64">
+        <v>44143</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="64"/>
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="64">
+        <v>44144</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="64"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="64">
+        <v>44147</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>187</v>
+      </c>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="64"/>
+        <v>0.15277777777777776</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="64">
+        <v>44149</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>134</v>
+      </c>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="64"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="64">
+        <v>44150</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
       <c r="F32" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="64"/>
+        <v>5.9027777777777783E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="64">
+        <v>44151</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="64"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="64">
+        <v>44152</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>186</v>
+      </c>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
       <c r="F34" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="64"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="64">
+        <v>44157</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="64"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="64">
+        <v>44159</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>187</v>
+      </c>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="64"/>
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="64">
+        <v>44162</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>187</v>
+      </c>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
       <c r="F37" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="64"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="64">
+        <v>44164</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55">
-        <f t="shared" ref="F38:F43" si="1">E38-D38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="64"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="64">
+        <v>44169</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>188</v>
+      </c>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
       <c r="F39" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="64"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="64">
+        <v>44176</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>188</v>
+      </c>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="64"/>
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="64">
+        <v>44177</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="D41" s="55"/>
       <c r="E41" s="55"/>
       <c r="F41" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="64"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="64">
+        <v>44178</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>142</v>
+      </c>
       <c r="D42" s="55"/>
       <c r="E42" s="55"/>
       <c r="F42" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="64"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="64">
+        <v>44179</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="F43" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="64"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="64">
+        <v>44179</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F44" s="55">
-        <f t="shared" ref="F44:F61" si="2">E44-D44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="64"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="64">
+        <v>44182</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>179</v>
+      </c>
       <c r="F45" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="64"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="64">
+        <v>44185</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>179</v>
+      </c>
       <c r="F46" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="64"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="64">
+        <v>44186</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F47" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="64"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="64">
+        <v>44187</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F48" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="64"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="64">
+        <v>44187</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>180</v>
+      </c>
       <c r="F49" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="64"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="64">
+        <v>44187</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>180</v>
+      </c>
       <c r="F50" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="64"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="64">
+        <v>44187</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>181</v>
+      </c>
       <c r="F51" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="64"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="64">
+        <v>44193</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F52" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="64"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="64">
+        <v>44194</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>182</v>
+      </c>
       <c r="F53" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="64"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
+        <v>0.18402777777777779</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="64">
+        <v>44194</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="F54" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="64"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="64">
+        <v>44196</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>152</v>
+      </c>
       <c r="F55" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="64"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="64">
+        <v>44198</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>153</v>
+      </c>
       <c r="F56" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="64"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="64">
+        <v>44199</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F57" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="64"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="64">
+        <v>44200</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="F58" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="64"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="64">
+        <v>44200</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>155</v>
+      </c>
       <c r="F59" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="64"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="64">
+        <v>44202</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F60" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="64"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="64">
+        <v>44202</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>184</v>
+      </c>
       <c r="F61" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="64"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="64">
+        <v>44203</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>183</v>
+      </c>
       <c r="F62" s="55">
-        <f t="shared" ref="F62:F83" si="3">E62-D62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="64"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="64">
+        <v>44203</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="F63" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="64"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="64">
+        <v>44203</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F64" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="64"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="64">
+        <v>44212</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F65" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="64"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="64">
+        <v>44213</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>185</v>
+      </c>
       <c r="F66" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="64"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="64">
+        <v>44214</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="F67" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="64"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="64">
+        <v>44214</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="F68" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="64"/>
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="64">
+        <v>44216</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>178</v>
+      </c>
       <c r="D69" s="55"/>
       <c r="E69" s="55"/>
       <c r="F69" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="64"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F70" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="64"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
+        <f>E75-D75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F71" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="64"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55"/>
+        <f>E76-D76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F72" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="64"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
+        <f>E77-D77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F73" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="64"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
+        <f>E78-D78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F74" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="64"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
+        <f>E79-D79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F75" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="64"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
+        <f>E80-D80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F76" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <f>E81-D81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="64"/>
       <c r="D77" s="55"/>
       <c r="E77" s="55"/>
       <c r="F77" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <f>E82-D82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="64"/>
       <c r="D78" s="55"/>
       <c r="E78" s="55"/>
       <c r="F78" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <f>E83-D83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="64"/>
       <c r="D79" s="55"/>
       <c r="E79" s="55"/>
       <c r="F79" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <f>E84-D84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F80" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E85-D85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E86-D86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E87-D87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E88-D88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="55">
-        <f t="shared" ref="F84:F117" si="4">E84-D84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E89-D89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E90-D90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E91-D91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E92-D92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E93-D93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E94-D94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E95-D95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E96-D96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E97-D97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E98-D98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E99-D99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E100-D100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E101-D101</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E102-D102</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E103-D103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E104-D104</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E105-D105</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E106-D106</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E107-D107</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F103" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E108-D108</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E109-D109</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F105" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E110-D110</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F106" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E111-D111</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F107" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E112-D112</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F108" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E113-D113</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F109" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E114-D114</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F110" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E115-D115</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F111" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.3">
+        <f>E116-D116</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F112" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F113" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F114" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F115" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F116" s="55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F117" s="55">
-        <f t="shared" si="4"/>
+        <f>E117-D117</f>
         <v>0</v>
       </c>
     </row>
@@ -13739,21 +13937,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A54" sqref="A54:XFD55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" style="19" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="19"/>
-    <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" style="19" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="19"/>
+    <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -13774,7 +13972,7 @@
       </c>
       <c r="G1" s="75"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="64">
         <v>44097</v>
       </c>
@@ -13802,7 +14000,7 @@
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="71">
         <v>44100</v>
       </c>
@@ -13822,7 +14020,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="71">
         <v>44101</v>
       </c>
@@ -13844,7 +14042,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="64">
         <v>44102</v>
       </c>
@@ -13866,7 +14064,7 @@
       </c>
       <c r="G5" s="55"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="64">
         <v>44103</v>
       </c>
@@ -13885,7 +14083,7 @@
       </c>
       <c r="G6" s="55"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="71">
         <v>44105</v>
       </c>
@@ -13904,7 +14102,7 @@
       </c>
       <c r="G7" s="55"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="71">
         <v>44110</v>
       </c>
@@ -13925,7 +14123,7 @@
       </c>
       <c r="G8" s="55"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="64">
         <v>44118</v>
       </c>
@@ -13947,7 +14145,7 @@
       </c>
       <c r="G9" s="55"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="71">
         <v>44120</v>
       </c>
@@ -13969,7 +14167,7 @@
       </c>
       <c r="G10" s="55"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="71">
         <v>44124</v>
       </c>
@@ -13991,7 +14189,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="71">
         <v>44126</v>
       </c>
@@ -14013,7 +14211,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="71">
         <v>44127</v>
       </c>
@@ -14034,7 +14232,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="71">
         <v>44133</v>
       </c>
@@ -14056,7 +14254,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="64">
         <v>44134</v>
       </c>
@@ -14078,7 +14276,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="64">
         <v>44137</v>
       </c>
@@ -14100,7 +14298,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="64">
         <v>44139</v>
       </c>
@@ -14119,7 +14317,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="64">
         <v>44139</v>
       </c>
@@ -14133,7 +14331,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="64">
         <v>44143</v>
       </c>
@@ -14155,7 +14353,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="64">
         <v>44144</v>
       </c>
@@ -14169,7 +14367,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="64">
         <v>44145</v>
       </c>
@@ -14191,7 +14389,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="64">
         <v>44150</v>
       </c>
@@ -14205,7 +14403,7 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="64">
         <v>44150</v>
       </c>
@@ -14227,7 +14425,7 @@
       </c>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="64">
         <v>44151</v>
       </c>
@@ -14241,7 +14439,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="64">
         <v>44157</v>
       </c>
@@ -14255,7 +14453,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="64">
         <v>44164</v>
       </c>
@@ -14269,7 +14467,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="64">
         <v>44167</v>
       </c>
@@ -14291,7 +14489,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="64">
         <v>44175</v>
       </c>
@@ -14313,7 +14511,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="64">
         <v>44176</v>
       </c>
@@ -14335,7 +14533,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="64">
         <v>44177</v>
       </c>
@@ -14349,7 +14547,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="64">
         <v>44179</v>
       </c>
@@ -14361,7 +14559,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="64">
         <v>44179</v>
       </c>
@@ -14373,7 +14571,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="64">
         <v>44181</v>
       </c>
@@ -14395,7 +14593,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="64">
         <v>44182</v>
       </c>
@@ -14417,7 +14615,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="64">
         <v>44186</v>
       </c>
@@ -14429,7 +14627,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="64">
         <v>44187</v>
       </c>
@@ -14441,7 +14639,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="64">
         <v>44187</v>
       </c>
@@ -14463,7 +14661,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="64">
         <v>44192</v>
       </c>
@@ -14485,7 +14683,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="64">
         <v>44192</v>
       </c>
@@ -14507,7 +14705,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="64">
         <v>44193</v>
       </c>
@@ -14519,7 +14717,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="64">
         <v>44193</v>
       </c>
@@ -14541,7 +14739,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="64">
         <v>44164</v>
       </c>
@@ -14563,7 +14761,7 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="64">
         <v>44194</v>
       </c>
@@ -14578,7 +14776,7 @@
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="64">
         <v>44194</v>
       </c>
@@ -14600,7 +14798,7 @@
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="64">
         <v>44199</v>
       </c>
@@ -14612,7 +14810,7 @@
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="64">
         <v>44200</v>
       </c>
@@ -14634,7 +14832,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="64">
         <v>44201</v>
       </c>
@@ -14656,7 +14854,7 @@
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="64">
         <v>44202</v>
       </c>
@@ -14668,7 +14866,7 @@
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="64">
         <v>44203</v>
       </c>
@@ -14680,7 +14878,7 @@
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="64">
         <v>44203</v>
       </c>
@@ -14692,7 +14890,7 @@
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="64">
         <v>44207</v>
       </c>
@@ -14714,7 +14912,7 @@
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="64">
         <v>44208</v>
       </c>
@@ -14736,7 +14934,7 @@
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="64">
         <v>44212</v>
       </c>
@@ -14748,7 +14946,7 @@
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="64">
         <v>44214</v>
       </c>
@@ -14760,7 +14958,7 @@
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="64">
         <v>44214</v>
       </c>
@@ -14772,7 +14970,7 @@
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="64"/>
       <c r="D56" s="55"/>
       <c r="E56" s="55"/>
@@ -14782,7 +14980,7 @@
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="64"/>
       <c r="F57" s="55">
         <f t="shared" si="2"/>
@@ -14790,439 +14988,439 @@
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F58" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F59" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F60" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F61" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F62" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F63" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F64" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F65" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G65" s="55"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F66" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F67" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F68" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F69" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F70" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F71" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F72" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F73" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F74" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F75" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F76" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F77" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F78" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F79" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F80" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84" s="55">
         <f t="shared" ref="F84:F120" si="3">E84-D84</f>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F85" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F86" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F87" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F88" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F89" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F90" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F91" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F92" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F93" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G93" s="55"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F94" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F95" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G95" s="55"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F96" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F97" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G97" s="55"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F98" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G98" s="55"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F99" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G99" s="55"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F100" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F101" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G101" s="55"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F102" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G102" s="55"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F103" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G103" s="55"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F104" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G104" s="55"/>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F105" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G105" s="55"/>
     </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F106" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G106" s="55"/>
     </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F107" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G107" s="55"/>
     </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F108" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G108" s="55"/>
     </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F109" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G109" s="55"/>
     </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F110" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G110" s="55"/>
     </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F111" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G111" s="55"/>
     </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F112" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G112" s="55"/>
     </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F113" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G113" s="55"/>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F114" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G114" s="55"/>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F115" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G115" s="55"/>
     </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F116" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G116" s="55"/>
     </row>
-    <row r="117" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F117" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G117" s="55"/>
     </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F118" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F119" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F120" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -15241,18 +15439,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="34.77734375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="19" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -15273,7 +15471,7 @@
       </c>
       <c r="G1" s="75"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="64">
         <v>44097</v>
       </c>
@@ -15301,7 +15499,7 @@
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="71">
         <v>44100</v>
       </c>
@@ -15321,7 +15519,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="71">
         <v>44101</v>
       </c>
@@ -15343,7 +15541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="71">
         <v>44102</v>
       </c>
@@ -15361,7 +15559,7 @@
       <c r="G5" s="55"/>
       <c r="J5" s="57"/>
     </row>
-    <row r="6" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="64">
         <v>44103</v>
       </c>
@@ -15381,7 +15579,7 @@
       <c r="G6" s="55"/>
       <c r="J6" s="57"/>
     </row>
-    <row r="7" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="64">
         <v>44104</v>
       </c>
@@ -15399,7 +15597,7 @@
       <c r="G7" s="55"/>
       <c r="J7" s="57"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="71">
         <v>44105</v>
       </c>
@@ -15418,7 +15616,7 @@
       </c>
       <c r="G8" s="55"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="71">
         <v>44110</v>
       </c>
@@ -15440,7 +15638,7 @@
       </c>
       <c r="G9" s="55"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="71">
         <v>44110</v>
       </c>
@@ -15457,7 +15655,7 @@
       </c>
       <c r="G10" s="55"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="71">
         <v>44081</v>
       </c>
@@ -15474,7 +15672,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="71">
         <v>44112</v>
       </c>
@@ -15493,7 +15691,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="71">
         <v>44115</v>
       </c>
@@ -15512,7 +15710,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="71">
         <v>44115</v>
       </c>
@@ -15529,7 +15727,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="71">
         <v>44116</v>
       </c>
@@ -15546,7 +15744,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="71">
         <v>44116</v>
       </c>
@@ -15565,7 +15763,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="71">
         <v>44123</v>
       </c>
@@ -15584,7 +15782,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="71">
         <v>44123</v>
       </c>
@@ -15601,7 +15799,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="71">
         <v>44124</v>
       </c>
@@ -15618,7 +15816,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="64">
         <v>44124</v>
       </c>
@@ -15632,7 +15830,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="71">
         <v>44125</v>
       </c>
@@ -15651,7 +15849,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="64">
         <v>44127</v>
       </c>
@@ -15670,7 +15868,7 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="64">
         <v>44130</v>
       </c>
@@ -15687,7 +15885,7 @@
       </c>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="64">
         <v>44131</v>
       </c>
@@ -15704,7 +15902,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="64">
         <v>44139</v>
       </c>
@@ -15718,7 +15916,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="64">
         <v>44139</v>
       </c>
@@ -15732,7 +15930,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="64">
         <v>44144</v>
       </c>
@@ -15747,7 +15945,7 @@
       <c r="G27" s="55"/>
       <c r="I27" s="67"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="64">
         <v>44149</v>
       </c>
@@ -15764,7 +15962,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="64">
         <v>44150</v>
       </c>
@@ -15778,7 +15976,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="64">
         <v>44150</v>
       </c>
@@ -15795,7 +15993,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="64">
         <v>44151</v>
       </c>
@@ -15812,7 +16010,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="64">
         <v>44157</v>
       </c>
@@ -15829,7 +16027,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="64">
         <v>44157</v>
       </c>
@@ -15843,7 +16041,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="64">
         <v>44159</v>
       </c>
@@ -15860,7 +16058,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="64">
         <v>44164</v>
       </c>
@@ -15874,7 +16072,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="64">
         <v>44169</v>
       </c>
@@ -15891,7 +16089,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="64">
         <v>44177</v>
       </c>
@@ -15905,7 +16103,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="64">
         <v>44178</v>
       </c>
@@ -15922,7 +16120,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="64">
         <v>44179</v>
       </c>
@@ -15934,7 +16132,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="64">
         <v>44179</v>
       </c>
@@ -15946,7 +16144,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="64">
         <v>44183</v>
       </c>
@@ -15961,7 +16159,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="64">
         <v>44186</v>
       </c>
@@ -15973,7 +16171,7 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="64">
         <v>44187</v>
       </c>
@@ -15985,7 +16183,7 @@
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="64">
         <v>44187</v>
       </c>
@@ -16000,7 +16198,7 @@
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="64">
         <v>44193</v>
       </c>
@@ -16012,7 +16210,7 @@
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="64">
         <v>44194</v>
       </c>
@@ -16027,7 +16225,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="64">
         <v>44194</v>
       </c>
@@ -16042,7 +16240,7 @@
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="64">
         <v>44196</v>
       </c>
@@ -16057,7 +16255,7 @@
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="64">
         <v>44199</v>
       </c>
@@ -16069,7 +16267,7 @@
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="64">
         <v>44200</v>
       </c>
@@ -16084,7 +16282,7 @@
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="64">
         <v>44202</v>
       </c>
@@ -16096,7 +16294,7 @@
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="64">
         <v>44202</v>
       </c>
@@ -16111,7 +16309,7 @@
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="64">
         <v>44203</v>
       </c>
@@ -16123,7 +16321,7 @@
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="64">
         <v>44203</v>
       </c>
@@ -16135,7 +16333,7 @@
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="64">
         <v>44212</v>
       </c>
@@ -16147,7 +16345,7 @@
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="64">
         <v>44213</v>
       </c>
@@ -16162,7 +16360,7 @@
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="64">
         <v>44214</v>
       </c>
@@ -16174,7 +16372,7 @@
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="64">
         <v>44214</v>
       </c>
@@ -16186,245 +16384,245 @@
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F59" s="55">
         <f t="shared" ref="F59:F89" si="2">E59-D59</f>
         <v>0</v>
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F60" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F61" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F62" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F63" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F64" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F65" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G65" s="55"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F66" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F67" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F68" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F69" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F70" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F71" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F72" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F73" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F74" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F75" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F76" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F77" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F78" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F79" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F80" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F85" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F86" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F87" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F88" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F89" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F90" s="55">
         <f t="shared" ref="F90:F93" si="3">E90-D90</f>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F91" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F92" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F93" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -16439,21 +16637,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD69"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:F69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="19"/>
-    <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="19"/>
+    <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -16474,7 +16672,7 @@
       </c>
       <c r="G1" s="75"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="64">
         <v>44100</v>
       </c>
@@ -16499,7 +16697,7 @@
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="64">
         <v>44101</v>
       </c>
@@ -16517,7 +16715,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="64">
         <v>44101</v>
       </c>
@@ -16537,7 +16735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="64">
         <v>44101</v>
       </c>
@@ -16556,7 +16754,7 @@
       </c>
       <c r="G5" s="55"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="64">
         <v>43948</v>
       </c>
@@ -16573,7 +16771,7 @@
       </c>
       <c r="G6" s="55"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="64">
         <v>44101</v>
       </c>
@@ -16591,7 +16789,7 @@
       </c>
       <c r="G7" s="55"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="64">
         <v>44103</v>
       </c>
@@ -16610,7 +16808,7 @@
       </c>
       <c r="G8" s="55"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="64">
         <v>44110</v>
       </c>
@@ -16632,7 +16830,7 @@
       </c>
       <c r="G9" s="55"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="64">
         <v>44112</v>
       </c>
@@ -16651,7 +16849,7 @@
       </c>
       <c r="G10" s="55"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="64">
         <v>44115</v>
       </c>
@@ -16670,7 +16868,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="64">
         <v>44116</v>
       </c>
@@ -16689,7 +16887,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="64">
         <v>44123</v>
       </c>
@@ -16708,7 +16906,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="64">
         <v>44124</v>
       </c>
@@ -16725,7 +16923,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="64">
         <v>44125</v>
       </c>
@@ -16744,7 +16942,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="64">
         <v>44127</v>
       </c>
@@ -16763,7 +16961,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="64">
         <v>44130</v>
       </c>
@@ -16780,7 +16978,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="64">
         <v>44139</v>
       </c>
@@ -16797,7 +16995,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="64">
         <v>44139</v>
       </c>
@@ -16811,7 +17009,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="64">
         <v>44139</v>
       </c>
@@ -16825,7 +17023,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="64">
         <v>44143</v>
       </c>
@@ -16842,7 +17040,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="64">
         <v>44144</v>
       </c>
@@ -16856,7 +17054,7 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="64">
         <v>44145</v>
       </c>
@@ -16874,7 +17072,7 @@
       <c r="G23" s="55"/>
       <c r="I23" s="67"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="64">
         <v>44148</v>
       </c>
@@ -16891,7 +17089,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="64">
         <v>44149</v>
       </c>
@@ -16908,7 +17106,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="64">
         <v>44150</v>
       </c>
@@ -16922,7 +17120,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="64">
         <v>44150</v>
       </c>
@@ -16939,7 +17137,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="64">
         <v>44151</v>
       </c>
@@ -16956,7 +17154,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="64">
         <v>44151</v>
       </c>
@@ -16970,7 +17168,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="64">
         <v>44157</v>
       </c>
@@ -16987,7 +17185,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="64">
         <v>44157</v>
       </c>
@@ -17001,7 +17199,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="64">
         <v>44158</v>
       </c>
@@ -17018,7 +17216,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="64">
         <v>44159</v>
       </c>
@@ -17035,7 +17233,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="64">
         <v>44164</v>
       </c>
@@ -17052,7 +17250,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="64">
         <v>44164</v>
       </c>
@@ -17066,7 +17264,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="64">
         <v>44169</v>
       </c>
@@ -17083,7 +17281,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="64">
         <v>44176</v>
       </c>
@@ -17100,7 +17298,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="64">
         <v>44177</v>
       </c>
@@ -17117,7 +17315,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="64">
         <v>44177</v>
       </c>
@@ -17131,7 +17329,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="64">
         <v>44178</v>
       </c>
@@ -17148,7 +17346,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="64">
         <v>44178</v>
       </c>
@@ -17165,7 +17363,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="64">
         <v>44179</v>
       </c>
@@ -17177,7 +17375,7 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="64">
         <v>44179</v>
       </c>
@@ -17189,7 +17387,7 @@
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="64">
         <v>44182</v>
       </c>
@@ -17204,7 +17402,7 @@
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="64">
         <v>44183</v>
       </c>
@@ -17219,7 +17417,7 @@
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="64">
         <v>44186</v>
       </c>
@@ -17231,7 +17429,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="64">
         <v>44187</v>
       </c>
@@ -17243,7 +17441,7 @@
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="64">
         <v>44187</v>
       </c>
@@ -17258,7 +17456,7 @@
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="64">
         <v>44187</v>
       </c>
@@ -17273,7 +17471,7 @@
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="64">
         <v>44187</v>
       </c>
@@ -17288,7 +17486,7 @@
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="64">
         <v>44193</v>
       </c>
@@ -17300,7 +17498,7 @@
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="64">
         <v>44194</v>
       </c>
@@ -17315,7 +17513,7 @@
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="64">
         <v>44194</v>
       </c>
@@ -17330,7 +17528,7 @@
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="64">
         <v>44194</v>
       </c>
@@ -17345,7 +17543,7 @@
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="64">
         <v>44196</v>
       </c>
@@ -17360,7 +17558,7 @@
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="64">
         <v>44198</v>
       </c>
@@ -17375,7 +17573,7 @@
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="64">
         <v>44199</v>
       </c>
@@ -17387,7 +17585,7 @@
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="64">
         <v>44200</v>
       </c>
@@ -17402,7 +17600,7 @@
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="64">
         <v>44200</v>
       </c>
@@ -17417,7 +17615,7 @@
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="64">
         <v>44200</v>
       </c>
@@ -17432,7 +17630,7 @@
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="64">
         <v>44202</v>
       </c>
@@ -17444,7 +17642,7 @@
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="64">
         <v>44202</v>
       </c>
@@ -17459,7 +17657,7 @@
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="64">
         <v>44203</v>
       </c>
@@ -17474,7 +17672,7 @@
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="64">
         <v>44203</v>
       </c>
@@ -17486,7 +17684,7 @@
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="64">
         <v>44203</v>
       </c>
@@ -17498,7 +17696,7 @@
       </c>
       <c r="G65" s="55"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="64">
         <v>44212</v>
       </c>
@@ -17510,7 +17708,7 @@
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="64">
         <v>44213</v>
       </c>
@@ -17525,7 +17723,7 @@
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="64">
         <v>44214</v>
       </c>
@@ -17537,7 +17735,7 @@
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="64">
         <v>44214</v>
       </c>
@@ -17549,245 +17747,245 @@
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F70" s="55">
         <f t="shared" ref="F70" si="1">E70-D70</f>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F71" s="55">
         <f t="shared" ref="F71:F104" si="2">E71-D71</f>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F72" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F73" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F74" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F75" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F76" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F77" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F78" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F79" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F80" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F85" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F86" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F87" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F88" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F89" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F90" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F91" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F92" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F93" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G93" s="55"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F94" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F95" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G95" s="55"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F96" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F97" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G97" s="55"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F98" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G98" s="55"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F99" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G99" s="55"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F100" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F101" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G101" s="55"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F102" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G102" s="55"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F103" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G103" s="55"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F104" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -17808,33 +18006,33 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.109375" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="8"/>
+    <col min="1" max="1" width="87.140625" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
         <v>21</v>
       </c>

--- a/doc/planning-docs/Projektablaufplan.xlsx
+++ b/doc/planning-docs/Projektablaufplan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC7DB35-2441-48E5-A895-3432E6A5ABC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDB4D77-82CF-4014-AFBC-7E398BF740B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -17,15 +17,23 @@
     <sheet name="Gantt Info" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="Heute" localSheetId="0">TODAY()</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Gantt!$3:$6</definedName>
-    <definedName name="Heute" localSheetId="0">TODAY()</definedName>
     <definedName name="Projekt_Start">Gantt!$H$2</definedName>
     <definedName name="Scroll_Schrittweite">Gantt!$H$3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="186">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -398,9 +406,6 @@
     <t>Epics und User Stories Definieren</t>
   </si>
   <si>
-    <t>User Stories</t>
-  </si>
-  <si>
     <t>Genric Repository und Tests</t>
   </si>
   <si>
@@ -578,9 +583,6 @@
     <t>Refactoring</t>
   </si>
   <si>
-    <t>Aufgabenstellung importieren</t>
-  </si>
-  <si>
     <t>Recherche und Mapping</t>
   </si>
   <si>
@@ -590,9 +592,6 @@
     <t>Baumstruktur</t>
   </si>
   <si>
-    <t>Team-Besprechungen + Dokumente</t>
-  </si>
-  <si>
     <t>Dokumentationen</t>
   </si>
   <si>
@@ -614,9 +613,6 @@
     <t>Exercise-Collection</t>
   </si>
   <si>
-    <t>Data-Objects + DataBinding</t>
-  </si>
-  <si>
     <t>Änderungen übernommen</t>
   </si>
   <si>
@@ -624,6 +620,9 @@
   </si>
   <si>
     <t>GUI gestaltung</t>
+  </si>
+  <si>
+    <t>Create-Collection -&gt; Data-Objects + DataBinding</t>
   </si>
 </sst>
 </file>
@@ -1627,57 +1626,57 @@
     </xf>
   </cellXfs>
   <cellStyles count="52">
-    <cellStyle name="20 % - Akzent1" xfId="28" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="32" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="35" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="39" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="43" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="47" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="29" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="33" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="36" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="40" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="44" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="48" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="30" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="34" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="37" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="41" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="45" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="49" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="27" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="31" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="11" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="38" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="42" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="46" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="19" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="20" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="28" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="32" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="35" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="39" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="43" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="47" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="29" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="33" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="36" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="40" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="30" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="34" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="37" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="41" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="27" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="31" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="11" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="38" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="42" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="16" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="20" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="22" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="10" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="12" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Currency [0]" xfId="13" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Datum" xfId="9" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Dezimal [0]" xfId="10" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="18" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="26" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="25" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="15" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Komma" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="25" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="15" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="14" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="18" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="21" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="17" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="24" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Prozent" xfId="2" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="16" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="24" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="19" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Tiefe 1" xfId="50" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Tiefe 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Überschrift" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="8" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="14" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="21" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Währung" xfId="12" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Währung [0]" xfId="13" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="23" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="22" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="26" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="23" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
   <dxfs count="80">
@@ -3077,7 +3076,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3245,7 +3244,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-AT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3300,16 +3299,16 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.46875</c:v>
+                  <c:v>4.6909722222222232</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7395833333333335</c:v>
+                  <c:v>3.9618055555555558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1388888888888893</c:v>
+                  <c:v>4.6111111111111125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.041666666666667</c:v>
+                  <c:v>4.4965277777777786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3372,7 +3371,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-AT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3418,7 +3417,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-AT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4081,15 +4080,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>30480</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>68580</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>67</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>236220</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4476,26 +4475,26 @@
   <dimension ref="A1:BO57"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="73" zoomScaleNormal="145" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="5" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
     <col min="3" max="3" width="13" style="19" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" customWidth="1"/>
-    <col min="12" max="67" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" customWidth="1"/>
+    <col min="12" max="67" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4535,7 +4534,7 @@
       <c r="AI1" s="19"/>
       <c r="AJ1" s="19"/>
     </row>
-    <row r="2" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
@@ -4554,7 +4553,7 @@
       <c r="J2" s="84"/>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:67" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:67" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
@@ -4648,7 +4647,7 @@
       <c r="BN3" s="40"/>
       <c r="BO3" s="40"/>
     </row>
-    <row r="4" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -4887,7 +4886,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="5" spans="1:67" s="19" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:67" s="19" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -4958,7 +4957,7 @@
       <c r="BN5" s="47"/>
       <c r="BO5" s="48"/>
     </row>
-    <row r="6" spans="1:67" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:67" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
@@ -4996,7 +4995,7 @@
       </c>
       <c r="M6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="N6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5004,19 +5003,19 @@
       </c>
       <c r="O6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="P6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="Q6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="R6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="S6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5024,7 +5023,7 @@
       </c>
       <c r="T6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="U6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5032,19 +5031,19 @@
       </c>
       <c r="V6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="W6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="X6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="Y6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="Z6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5052,7 +5051,7 @@
       </c>
       <c r="AA6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AB6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5060,19 +5059,19 @@
       </c>
       <c r="AC6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AD6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AE6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AF6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AG6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5080,7 +5079,7 @@
       </c>
       <c r="AH6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AI6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5088,19 +5087,19 @@
       </c>
       <c r="AJ6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AK6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AL6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AM6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AN6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5108,7 +5107,7 @@
       </c>
       <c r="AO6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AP6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5116,19 +5115,19 @@
       </c>
       <c r="AQ6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AR6" s="22" t="str">
         <f t="shared" ref="AR6:BO6" ca="1" si="4">LEFT(TEXT(AR4,"TTT"),1)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AS6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AT6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="AU6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5136,7 +5135,7 @@
       </c>
       <c r="AV6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="AW6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5144,19 +5143,19 @@
       </c>
       <c r="AX6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="AY6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AZ6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BA6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BB6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5164,7 +5163,7 @@
       </c>
       <c r="BC6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BD6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5172,19 +5171,19 @@
       </c>
       <c r="BE6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BF6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BG6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BH6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>M</v>
       </c>
       <c r="BI6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5192,7 +5191,7 @@
       </c>
       <c r="BJ6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>W</v>
       </c>
       <c r="BK6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5200,22 +5199,22 @@
       </c>
       <c r="BL6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>F</v>
       </c>
       <c r="BM6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BN6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BO6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="7" spans="1:67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>M</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
@@ -5288,7 +5287,7 @@
       <c r="BN7" s="33"/>
       <c r="BO7" s="33"/>
     </row>
-    <row r="8" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
@@ -5529,7 +5528,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15"/>
       <c r="B9" s="53" t="s">
         <v>43</v>
@@ -5782,7 +5781,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15"/>
       <c r="B10" s="53" t="s">
         <v>44</v>
@@ -6035,7 +6034,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="53" t="s">
         <v>45</v>
@@ -6288,7 +6287,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
       <c r="B12" s="53" t="s">
         <v>38</v>
@@ -6541,7 +6540,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="53" t="s">
         <v>46</v>
@@ -6549,9 +6548,9 @@
       <c r="C13" s="68">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D13" s="68" t="str">
+      <c r="D13" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>0.125</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>11</v>
@@ -6560,7 +6559,8 @@
         <v>68</v>
       </c>
       <c r="G13" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>0.6</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
@@ -6626,7 +6626,7 @@
       <c r="BN13" s="35"/>
       <c r="BO13" s="35"/>
     </row>
-    <row r="14" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="53" t="s">
         <v>47</v>
@@ -6711,7 +6711,7 @@
       <c r="BN14" s="35"/>
       <c r="BO14" s="35"/>
     </row>
-    <row r="15" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="50" t="s">
         <v>76</v>
@@ -6950,7 +6950,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="53" t="s">
         <v>88</v>
@@ -6969,7 +6969,8 @@
         <v>69</v>
       </c>
       <c r="G16" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>2.125</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
@@ -7035,7 +7036,7 @@
       <c r="BN16" s="35"/>
       <c r="BO16" s="35"/>
     </row>
-    <row r="17" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="53" t="s">
         <v>75</v>
@@ -7120,7 +7121,7 @@
       <c r="BN17" s="35"/>
       <c r="BO17" s="35"/>
     </row>
-    <row r="18" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="53" t="s">
         <v>80</v>
@@ -7226,7 +7227,7 @@
       <c r="BN18" s="35"/>
       <c r="BO18" s="35"/>
     </row>
-    <row r="19" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="53" t="s">
         <v>74</v>
@@ -7245,7 +7246,8 @@
         <v>69</v>
       </c>
       <c r="G19" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>1.7499999999999998</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
@@ -7332,7 +7334,7 @@
       <c r="BN19" s="35"/>
       <c r="BO19" s="35"/>
     </row>
-    <row r="20" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="53" t="s">
         <v>48</v>
@@ -7340,9 +7342,9 @@
       <c r="C20" s="68">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D20" s="68" t="str">
+      <c r="D20" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
+        <v>0.375</v>
       </c>
       <c r="E20" s="31" t="s">
         <v>11</v>
@@ -7351,7 +7353,8 @@
         <v>69</v>
       </c>
       <c r="G20" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>2.25</v>
       </c>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
@@ -7438,7 +7441,7 @@
       <c r="BN20" s="35"/>
       <c r="BO20" s="35"/>
     </row>
-    <row r="21" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="53" t="s">
         <v>49</v>
@@ -7457,7 +7460,8 @@
         <v>69</v>
       </c>
       <c r="G21" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>1.55</v>
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
@@ -7523,7 +7527,7 @@
       <c r="BN21" s="35"/>
       <c r="BO21" s="35"/>
     </row>
-    <row r="22" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="53" t="s">
         <v>50</v>
@@ -7608,7 +7612,7 @@
       <c r="BN22" s="35"/>
       <c r="BO22" s="35"/>
     </row>
-    <row r="23" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="53" t="s">
         <v>51</v>
@@ -7627,7 +7631,8 @@
         <v>69</v>
       </c>
       <c r="G23" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>1.2500000000000002</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
@@ -7693,7 +7698,7 @@
       <c r="BN23" s="35"/>
       <c r="BO23" s="35"/>
     </row>
-    <row r="24" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="53" t="s">
         <v>52</v>
@@ -7712,7 +7717,8 @@
         <v>68</v>
       </c>
       <c r="G24" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>0.79166666666666663</v>
       </c>
       <c r="H24" s="29"/>
       <c r="I24" s="76"/>
@@ -7778,7 +7784,7 @@
       <c r="BN24" s="35"/>
       <c r="BO24" s="35"/>
     </row>
-    <row r="25" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="50" t="s">
         <v>73</v>
@@ -7870,7 +7876,7 @@
       <c r="BN25" s="35"/>
       <c r="BO25" s="35"/>
     </row>
-    <row r="26" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="53" t="s">
         <v>77</v>
@@ -7889,7 +7895,8 @@
         <v>68</v>
       </c>
       <c r="G26" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
@@ -7955,7 +7962,7 @@
       <c r="BN26" s="35"/>
       <c r="BO26" s="35"/>
     </row>
-    <row r="27" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="53" t="s">
         <v>78</v>
@@ -7974,7 +7981,8 @@
         <v>68</v>
       </c>
       <c r="G27" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>1.8958333333333339</v>
       </c>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
@@ -8040,7 +8048,7 @@
       <c r="BN27" s="35"/>
       <c r="BO27" s="35"/>
     </row>
-    <row r="28" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="53" t="s">
         <v>82</v>
@@ -8125,7 +8133,7 @@
       <c r="BN28" s="35"/>
       <c r="BO28" s="35"/>
     </row>
-    <row r="29" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="53" t="s">
         <v>79</v>
@@ -8144,7 +8152,8 @@
         <v>68</v>
       </c>
       <c r="G29" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>0.53333333333333355</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
@@ -8210,7 +8219,7 @@
       <c r="BN29" s="35"/>
       <c r="BO29" s="35"/>
     </row>
-    <row r="30" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="14"/>
       <c r="B30" s="77" t="s">
         <v>53</v>
@@ -8281,7 +8290,7 @@
       <c r="BN30" s="35"/>
       <c r="BO30" s="35"/>
     </row>
-    <row r="31" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="53" t="s">
         <v>99</v>
@@ -8355,7 +8364,7 @@
       <c r="BN31" s="35"/>
       <c r="BO31" s="35"/>
     </row>
-    <row r="32" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="53" t="s">
         <v>54</v>
@@ -8365,7 +8374,7 @@
       </c>
       <c r="D32" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.67708333333333326</v>
+        <v>0.87847222222222221</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>11</v>
@@ -8374,7 +8383,8 @@
         <v>41</v>
       </c>
       <c r="G32" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>2.1083333333333334</v>
       </c>
       <c r="H32" s="76"/>
       <c r="I32" s="29"/>
@@ -8455,7 +8465,7 @@
       <c r="BN32" s="35"/>
       <c r="BO32" s="35"/>
     </row>
-    <row r="33" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="53" t="s">
         <v>89</v>
@@ -8474,7 +8484,8 @@
         <v>41</v>
       </c>
       <c r="G33" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>1.0000000000000002</v>
       </c>
       <c r="H33" s="76"/>
       <c r="I33" s="29"/>
@@ -8540,7 +8551,7 @@
       <c r="BN33" s="35"/>
       <c r="BO33" s="35"/>
     </row>
-    <row r="34" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="53" t="s">
         <v>83</v>
@@ -8550,7 +8561,7 @@
       </c>
       <c r="D34" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>2.895833333333333</v>
+        <v>3.1180555555555554</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>11</v>
@@ -8559,7 +8570,8 @@
         <v>41</v>
       </c>
       <c r="G34" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>10.69047619047619</v>
       </c>
       <c r="H34" s="76"/>
       <c r="I34" s="29"/>
@@ -8625,7 +8637,7 @@
       <c r="BN34" s="35"/>
       <c r="BO34" s="35"/>
     </row>
-    <row r="35" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="53" t="s">
         <v>84</v>
@@ -8635,7 +8647,7 @@
       </c>
       <c r="D35" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.16666666666666666</v>
+        <v>0.19444444444444442</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>11</v>
@@ -8644,7 +8656,8 @@
         <v>41</v>
       </c>
       <c r="G35" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>1.5555555555555554</v>
       </c>
       <c r="H35" s="76"/>
       <c r="I35" s="29"/>
@@ -8710,7 +8723,7 @@
       <c r="BN35" s="35"/>
       <c r="BO35" s="35"/>
     </row>
-    <row r="36" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="53" t="s">
         <v>85</v>
@@ -8795,7 +8808,7 @@
       <c r="BN36" s="35"/>
       <c r="BO36" s="35"/>
     </row>
-    <row r="37" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="53" t="s">
         <v>86</v>
@@ -8814,7 +8827,8 @@
         <v>41</v>
       </c>
       <c r="G37" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>0.75</v>
       </c>
       <c r="H37" s="76"/>
       <c r="I37" s="29"/>
@@ -8880,7 +8894,7 @@
       <c r="BN37" s="35"/>
       <c r="BO37" s="35"/>
     </row>
-    <row r="38" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="53" t="s">
         <v>87</v>
@@ -8965,7 +8979,7 @@
       <c r="BN38" s="35"/>
       <c r="BO38" s="35"/>
     </row>
-    <row r="39" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="53" t="s">
         <v>55</v>
@@ -9065,7 +9079,7 @@
       <c r="BN39" s="35"/>
       <c r="BO39" s="35"/>
     </row>
-    <row r="40" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="53" t="s">
         <v>70</v>
@@ -9165,7 +9179,7 @@
       <c r="BN40" s="35"/>
       <c r="BO40" s="35"/>
     </row>
-    <row r="41" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="53" t="s">
         <v>56</v>
@@ -9184,7 +9198,8 @@
         <v>41</v>
       </c>
       <c r="G41" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>0.64285714285714279</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="29"/>
@@ -9259,7 +9274,7 @@
       <c r="BN41" s="35"/>
       <c r="BO41" s="35"/>
     </row>
-    <row r="42" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="52" t="s">
         <v>57</v>
@@ -9498,7 +9513,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="53" t="s">
         <v>58</v>
@@ -9508,7 +9523,7 @@
       </c>
       <c r="D43" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.10069444444444443</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>11</v>
@@ -9517,7 +9532,8 @@
         <v>41</v>
       </c>
       <c r="G43" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>0.88888888888888884</v>
       </c>
       <c r="H43" s="29"/>
       <c r="I43" s="29"/>
@@ -9751,7 +9767,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="53" t="s">
         <v>59</v>
@@ -9761,7 +9777,7 @@
       </c>
       <c r="D44" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>6.9444444444444441E-3</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="E44" s="31" t="s">
         <v>11</v>
@@ -9770,7 +9786,8 @@
         <v>41</v>
       </c>
       <c r="G44" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
@@ -9839,7 +9856,7 @@
       <c r="BN44" s="35"/>
       <c r="BO44" s="35"/>
     </row>
-    <row r="45" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="53" t="s">
         <v>60</v>
@@ -9858,7 +9875,8 @@
         <v>67</v>
       </c>
       <c r="G45" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>1.5</v>
       </c>
       <c r="H45" s="29"/>
       <c r="I45" s="29"/>
@@ -9927,7 +9945,7 @@
       <c r="BN45" s="35"/>
       <c r="BO45" s="35"/>
     </row>
-    <row r="46" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="53" t="s">
         <v>61</v>
@@ -9946,7 +9964,8 @@
         <v>69</v>
       </c>
       <c r="G46" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>1.875</v>
       </c>
       <c r="H46" s="29"/>
       <c r="I46" s="29"/>
@@ -10012,7 +10031,7 @@
       <c r="BN46" s="35"/>
       <c r="BO46" s="35"/>
     </row>
-    <row r="47" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="53" t="s">
         <v>63</v>
@@ -10031,7 +10050,8 @@
         <v>25</v>
       </c>
       <c r="G47" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>0.77666666666666684</v>
       </c>
       <c r="H47" s="29"/>
       <c r="I47" s="29"/>
@@ -10097,7 +10117,7 @@
       <c r="BN47" s="35"/>
       <c r="BO47" s="35"/>
     </row>
-    <row r="48" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="53" t="s">
         <v>64</v>
@@ -10116,7 +10136,8 @@
         <v>25</v>
       </c>
       <c r="G48" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>1.8708333333333336</v>
       </c>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
@@ -10182,7 +10203,7 @@
       <c r="BN48" s="35"/>
       <c r="BO48" s="35"/>
     </row>
-    <row r="49" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="53" t="s">
         <v>62</v>
@@ -10190,13 +10211,20 @@
       <c r="C49" s="78">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D49" s="68" t="str">
+      <c r="D49" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v/>
-      </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="28"/>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="28">
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>0.93333333333333335</v>
+      </c>
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
       <c r="J49" s="30"/>
@@ -10258,7 +10286,7 @@
       <c r="BN49" s="35"/>
       <c r="BO49" s="35"/>
     </row>
-    <row r="50" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="53" t="s">
         <v>95</v>
@@ -10509,7 +10537,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="14"/>
       <c r="B51" s="52" t="s">
         <v>65</v>
@@ -10580,7 +10608,7 @@
       <c r="BN51" s="35"/>
       <c r="BO51" s="35"/>
     </row>
-    <row r="52" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="53" t="s">
         <v>66</v>
@@ -10599,7 +10627,8 @@
         <v>69</v>
       </c>
       <c r="G52" s="28">
-        <v>0</v>
+        <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
+        <v>1.0999999999999999</v>
       </c>
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
@@ -10665,7 +10694,7 @@
       <c r="BN52" s="35"/>
       <c r="BO52" s="35"/>
     </row>
-    <row r="53" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="53" t="s">
         <v>72</v>
@@ -10918,7 +10947,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14"/>
       <c r="B54" s="66" t="s">
         <v>36</v>
@@ -10929,7 +10958,7 @@
       </c>
       <c r="D54" s="68">
         <f>SUM(D8:D53)</f>
-        <v>16.388888888888889</v>
+        <v>17.760416666666668</v>
       </c>
       <c r="E54" s="69" t="s">
         <v>37</v>
@@ -10940,7 +10969,7 @@
       </c>
       <c r="G54" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>1.136801541425819</v>
+        <v>1.2319364161849713</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -11003,7 +11032,7 @@
       <c r="BN54" s="35"/>
       <c r="BO54" s="35"/>
     </row>
-    <row r="55" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>7</v>
       </c>
@@ -11076,7 +11105,7 @@
       <c r="BN55" s="35"/>
       <c r="BO55" s="35"/>
     </row>
-    <row r="56" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
         <v>8</v>
       </c>
@@ -11147,7 +11176,7 @@
       <c r="BN56" s="34"/>
       <c r="BO56" s="34"/>
     </row>
-    <row r="57" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F57" s="6"/>
       <c r="K57" s="4"/>
     </row>
@@ -11380,15 +11409,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>30480</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:rowOff>68580</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>67</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>236220</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11483,24 +11512,24 @@
   <dimension ref="A2:G46"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="145" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" style="19"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" customWidth="1"/>
+    <col min="5" max="6" width="11.5546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="58"/>
       <c r="B2" s="57" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="60" t="s">
         <v>39</v>
       </c>
@@ -11520,7 +11549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -11545,7 +11574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>44</v>
       </c>
@@ -11570,7 +11599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -11595,7 +11624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -11620,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>46</v>
       </c>
@@ -11630,7 +11659,7 @@
       </c>
       <c r="D8" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B8,Roman!F:F)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E8" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B8,Michi!F:F)</f>
@@ -11642,10 +11671,10 @@
       </c>
       <c r="G8" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>47</v>
       </c>
@@ -11670,7 +11699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>88</v>
       </c>
@@ -11695,7 +11724,7 @@
         <v>0.88541666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>75</v>
       </c>
@@ -11720,7 +11749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>80</v>
       </c>
@@ -11745,7 +11774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>74</v>
       </c>
@@ -11770,7 +11799,7 @@
         <v>0.36458333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>48</v>
       </c>
@@ -11784,7 +11813,7 @@
       </c>
       <c r="E14" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B14,Michi!F:F)</f>
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="F14" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B14,Sabrina!F:F)</f>
@@ -11792,10 +11821,10 @@
       </c>
       <c r="G14" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>49</v>
       </c>
@@ -11820,7 +11849,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>50</v>
       </c>
@@ -11845,7 +11874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>51</v>
       </c>
@@ -11870,7 +11899,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="19" t="s">
         <v>52</v>
       </c>
@@ -11895,7 +11924,7 @@
         <v>0.65972222222222221</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>77</v>
       </c>
@@ -11920,7 +11949,7 @@
         <v>1.0625</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>78</v>
       </c>
@@ -11945,7 +11974,7 @@
         <v>0.63194444444444464</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>82</v>
       </c>
@@ -11970,7 +11999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>79</v>
       </c>
@@ -11995,13 +12024,13 @@
         <v>0.22222222222222232</v>
       </c>
     </row>
-    <row r="23" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="19" t="s">
         <v>54</v>
       </c>
       <c r="C23" s="67">
         <f>SUMIF(Jacob!B:B,Übersicht!B23,Jacob!F:F)</f>
-        <v>0.2673611111111111</v>
+        <v>0.3923611111111111</v>
       </c>
       <c r="D23" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B23,Roman!F:F)</f>
@@ -12013,14 +12042,14 @@
       </c>
       <c r="F23" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B23,Sabrina!F:F)</f>
-        <v>0.40972222222222221</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="G23" s="67">
         <f t="shared" si="0"/>
-        <v>0.67708333333333326</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.87847222222222221</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>89</v>
       </c>
@@ -12045,7 +12074,7 @@
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>83</v>
       </c>
@@ -12063,14 +12092,14 @@
       </c>
       <c r="F25" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B25,Sabrina!F:F)</f>
-        <v>1.770833333333333</v>
+        <v>1.9930555555555556</v>
       </c>
       <c r="G25" s="67">
         <f t="shared" si="0"/>
-        <v>2.895833333333333</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3.1180555555555554</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>84</v>
       </c>
@@ -12088,14 +12117,14 @@
       </c>
       <c r="F26" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B26,Sabrina!F:F)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G26" s="67">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.19444444444444442</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>85</v>
       </c>
@@ -12120,7 +12149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>86</v>
       </c>
@@ -12145,7 +12174,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="19" t="s">
         <v>87</v>
       </c>
@@ -12170,7 +12199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>55</v>
       </c>
@@ -12195,7 +12224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>70</v>
       </c>
@@ -12220,7 +12249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>56</v>
       </c>
@@ -12245,11 +12274,11 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="55">
+      <c r="C33" s="67">
         <f>SUMIF(Jacob!B:B,Übersicht!B33,Jacob!F:F)</f>
         <v>0</v>
       </c>
@@ -12263,18 +12292,18 @@
       </c>
       <c r="F33" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B33,Sabrina!F:F)</f>
-        <v>0.10069444444444443</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G33" s="67">
         <f t="shared" si="0"/>
-        <v>0.10069444444444443</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="55">
+      <c r="C34" s="67">
         <f>SUMIF(Jacob!B:B,Übersicht!B34,Jacob!F:F)</f>
         <v>0</v>
       </c>
@@ -12288,18 +12317,18 @@
       </c>
       <c r="F34" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B34,Sabrina!F:F)</f>
-        <v>6.9444444444444441E-3</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="G34" s="67">
         <f t="shared" si="0"/>
-        <v>6.9444444444444441E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="55">
+      <c r="C35" s="67">
         <f>SUMIF(Jacob!B:B,Übersicht!B35,Jacob!F:F)</f>
         <v>0.12499999999999999</v>
       </c>
@@ -12320,11 +12349,11 @@
         <v>0.12499999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="55">
+      <c r="C36" s="67">
         <f>SUMIF(Jacob!B:B,Übersicht!B36,Jacob!F:F)</f>
         <v>0</v>
       </c>
@@ -12345,11 +12374,11 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="55">
+      <c r="C37" s="67">
         <f>SUMIF(Jacob!B:B,Übersicht!B37,Jacob!F:F)</f>
         <v>0.45833333333333354</v>
       </c>
@@ -12370,11 +12399,11 @@
         <v>1.618055555555556</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="55">
+      <c r="C38" s="67">
         <f>SUMIF(Jacob!B:B,Übersicht!B38,Jacob!F:F)</f>
         <v>0.81597222222222243</v>
       </c>
@@ -12395,36 +12424,36 @@
         <v>3.1180555555555562</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="55">
+      <c r="C39" s="67">
         <f>SUMIF(Jacob!B:B,Übersicht!B39,Jacob!F:F)</f>
-        <v>0</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="D39" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B39,Roman!F:F)</f>
-        <v>0</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="E39" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B39,Michi!F:F)</f>
-        <v>0</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="F39" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B39,Sabrina!F:F)</f>
-        <v>0</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="G39" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="55">
+      <c r="C40" s="67">
         <f>SUMIF(Jacob!B:B,Übersicht!B40,Jacob!F:F)</f>
         <v>0</v>
       </c>
@@ -12445,11 +12474,11 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="55">
+      <c r="C41" s="67">
         <f>SUMIF(Jacob!B:B,Übersicht!B41,Jacob!F:F)</f>
         <v>0</v>
       </c>
@@ -12470,11 +12499,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="55">
+      <c r="C42" s="67">
         <f>SUMIF(Jacob!B:B,Übersicht!B42,Jacob!F:F)</f>
         <v>0</v>
       </c>
@@ -12495,11 +12524,11 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="55">
+      <c r="C43" s="67">
         <f>SUMIF(Jacob!B:B,Übersicht!B43,Jacob!F:F)</f>
         <v>1.59375</v>
       </c>
@@ -12520,46 +12549,46 @@
         <v>1.59375</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="56" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="70">
         <f>SUM(C4:C43)</f>
-        <v>4.46875</v>
+        <v>4.6909722222222232</v>
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>3.7395833333333335</v>
+        <v>3.9618055555555558</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
-        <v>4.1388888888888893</v>
+        <v>4.6111111111111125</v>
       </c>
       <c r="F44" s="70">
         <f t="shared" ref="F44" si="2">SUM(F4:F43)</f>
-        <v>4.041666666666667</v>
+        <v>4.4965277777777786</v>
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>16.388888888888889</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+        <v>17.760416666666671</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="61" t="str">
         <f>IF(C44=Jacob!H2,"OK","FEHLER")</f>
-        <v>FEHLER</v>
+        <v>OK</v>
       </c>
       <c r="D45" s="61" t="str">
         <f>IF(D44=Roman!H2,"OK","FEHLER")</f>
-        <v>FEHLER</v>
+        <v>OK</v>
       </c>
       <c r="E45" s="61" t="str">
         <f>IF(E44=Michi!H2,"OK","FEHLER")</f>
-        <v>FEHLER</v>
+        <v>OK</v>
       </c>
       <c r="F45" s="61" t="str">
         <f>IF(F44=Sabrina!H2,"OK","FEHLER")</f>
@@ -12567,7 +12596,7 @@
       </c>
       <c r="G45" s="61"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="19"/>
     </row>
   </sheetData>
@@ -12613,19 +12642,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="111" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -12645,7 +12674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="64">
         <v>44097</v>
       </c>
@@ -12667,10 +12696,10 @@
       </c>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>4.6770833333333321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4.6909722222222214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="64">
         <v>44097</v>
       </c>
@@ -12687,7 +12716,7 @@
       </c>
       <c r="H3" s="67"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="71">
         <v>44100</v>
       </c>
@@ -12705,7 +12734,7 @@
         <v>6.9444444444444531E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="64">
         <v>44101</v>
       </c>
@@ -12723,7 +12752,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="64">
         <v>44103</v>
       </c>
@@ -12741,7 +12770,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="64">
         <v>44103</v>
       </c>
@@ -12757,7 +12786,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="71">
         <v>44105</v>
       </c>
@@ -12775,7 +12804,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="71">
         <v>44105</v>
       </c>
@@ -12791,7 +12820,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="71">
         <v>44107</v>
       </c>
@@ -12807,7 +12836,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="71">
         <v>44110</v>
       </c>
@@ -12831,7 +12860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="71">
         <v>44112</v>
       </c>
@@ -12850,7 +12879,7 @@
       </c>
       <c r="J12" s="57"/>
     </row>
-    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="71">
         <v>44112</v>
       </c>
@@ -12867,7 +12896,7 @@
       </c>
       <c r="J13" s="57"/>
     </row>
-    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="71">
         <v>44113</v>
       </c>
@@ -12884,7 +12913,7 @@
       </c>
       <c r="J14" s="57"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="71">
         <v>44115</v>
       </c>
@@ -12902,7 +12931,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="71">
         <v>44116</v>
       </c>
@@ -12920,7 +12949,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="71">
         <v>44116</v>
       </c>
@@ -12936,7 +12965,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="64">
         <v>44119</v>
       </c>
@@ -12944,13 +12973,13 @@
         <v>99</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F18" s="55">
         <v>0.15625</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="71">
         <v>44121</v>
       </c>
@@ -12966,7 +12995,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="71">
         <v>44123</v>
       </c>
@@ -12984,7 +13013,7 @@
         <v>1.0416666666666741E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="71">
         <v>44125</v>
       </c>
@@ -13002,7 +13031,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="71">
         <v>44112</v>
       </c>
@@ -13018,7 +13047,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="64">
         <v>44127</v>
       </c>
@@ -13036,7 +13065,7 @@
         <v>3.4722222222222265E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="64">
         <v>44130</v>
       </c>
@@ -13052,7 +13081,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="64">
         <v>44139</v>
       </c>
@@ -13060,7 +13089,7 @@
         <v>99</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
@@ -13068,7 +13097,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="64">
         <v>44139</v>
       </c>
@@ -13081,7 +13110,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="64">
         <v>44139</v>
       </c>
@@ -13094,7 +13123,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="64">
         <v>44143</v>
       </c>
@@ -13102,7 +13131,7 @@
         <v>99</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
@@ -13110,7 +13139,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="64">
         <v>44144</v>
       </c>
@@ -13123,7 +13152,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="64">
         <v>44147</v>
       </c>
@@ -13131,7 +13160,7 @@
         <v>99</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
@@ -13139,7 +13168,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="64">
         <v>44149</v>
       </c>
@@ -13147,7 +13176,7 @@
         <v>83</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
@@ -13155,7 +13184,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="64">
         <v>44150</v>
       </c>
@@ -13168,7 +13197,7 @@
         <v>5.9027777777777783E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="64">
         <v>44151</v>
       </c>
@@ -13181,7 +13210,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="64">
         <v>44152</v>
       </c>
@@ -13189,7 +13218,7 @@
         <v>99</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
@@ -13197,7 +13226,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="64">
         <v>44157</v>
       </c>
@@ -13210,7 +13239,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="64">
         <v>44159</v>
       </c>
@@ -13218,7 +13247,7 @@
         <v>99</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
@@ -13226,7 +13255,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="64">
         <v>44162</v>
       </c>
@@ -13234,7 +13263,7 @@
         <v>99</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
@@ -13242,7 +13271,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="64">
         <v>44164</v>
       </c>
@@ -13255,7 +13284,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="64">
         <v>44169</v>
       </c>
@@ -13263,7 +13292,7 @@
         <v>83</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
@@ -13271,7 +13300,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="64">
         <v>44176</v>
       </c>
@@ -13279,7 +13308,7 @@
         <v>83</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
@@ -13287,7 +13316,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="64">
         <v>44177</v>
       </c>
@@ -13300,7 +13329,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="64">
         <v>44178</v>
       </c>
@@ -13308,7 +13337,7 @@
         <v>83</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D42" s="55"/>
       <c r="E42" s="55"/>
@@ -13316,7 +13345,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="64">
         <v>44179</v>
       </c>
@@ -13327,7 +13356,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="64">
         <v>44179</v>
       </c>
@@ -13338,7 +13367,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="64">
         <v>44182</v>
       </c>
@@ -13346,13 +13375,13 @@
         <v>83</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F45" s="55">
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="64">
         <v>44185</v>
       </c>
@@ -13360,13 +13389,13 @@
         <v>83</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F46" s="55">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="64">
         <v>44186</v>
       </c>
@@ -13377,7 +13406,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="64">
         <v>44187</v>
       </c>
@@ -13388,7 +13417,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="64">
         <v>44187</v>
       </c>
@@ -13396,13 +13425,13 @@
         <v>83</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F49" s="55">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="64">
         <v>44187</v>
       </c>
@@ -13410,13 +13439,13 @@
         <v>83</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F50" s="55">
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="64">
         <v>44187</v>
       </c>
@@ -13424,13 +13453,13 @@
         <v>83</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F51" s="55">
         <v>0.125</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="64">
         <v>44193</v>
       </c>
@@ -13441,7 +13470,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="64">
         <v>44194</v>
       </c>
@@ -13449,13 +13478,13 @@
         <v>54</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F53" s="55">
         <v>0.18402777777777779</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="64">
         <v>44194</v>
       </c>
@@ -13463,13 +13492,13 @@
         <v>64</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F54" s="55">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="64">
         <v>44196</v>
       </c>
@@ -13477,13 +13506,13 @@
         <v>83</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F55" s="55">
         <v>0.125</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="64">
         <v>44198</v>
       </c>
@@ -13491,13 +13520,13 @@
         <v>83</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F56" s="55">
         <v>0.125</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="64">
         <v>44199</v>
       </c>
@@ -13508,7 +13537,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="64">
         <v>44200</v>
       </c>
@@ -13516,13 +13545,13 @@
         <v>84</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F58" s="55">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="64">
         <v>44200</v>
       </c>
@@ -13530,13 +13559,13 @@
         <v>83</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F59" s="55">
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="64">
         <v>44202</v>
       </c>
@@ -13547,7 +13576,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="64">
         <v>44202</v>
       </c>
@@ -13555,13 +13584,13 @@
         <v>83</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F61" s="55">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="64">
         <v>44203</v>
       </c>
@@ -13569,13 +13598,13 @@
         <v>54</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F62" s="55">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="64">
         <v>44203</v>
       </c>
@@ -13586,7 +13615,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="64">
         <v>44203</v>
       </c>
@@ -13597,7 +13626,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="64">
         <v>44212</v>
       </c>
@@ -13608,12 +13637,12 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="64">
         <v>44213</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="C66" s="19" t="s">
         <v>185</v>
@@ -13622,7 +13651,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="64">
         <v>44214</v>
       </c>
@@ -13633,7 +13662,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="64">
         <v>44214</v>
       </c>
@@ -13644,286 +13673,286 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="64">
         <v>44216</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D69" s="55"/>
       <c r="E69" s="55"/>
       <c r="F69" s="55">
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.7222222222222224E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F70" s="55">
-        <f>E75-D75</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F70:F112" si="1">E75-D75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F71" s="55">
-        <f>E76-D76</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F72" s="55">
-        <f>E77-D77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F73" s="55">
-        <f>E78-D78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F74" s="55">
-        <f>E79-D79</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F75" s="55">
-        <f>E80-D80</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F76" s="55">
-        <f>E81-D81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="64"/>
       <c r="D77" s="55"/>
       <c r="E77" s="55"/>
       <c r="F77" s="55">
-        <f>E82-D82</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="64"/>
       <c r="D78" s="55"/>
       <c r="E78" s="55"/>
       <c r="F78" s="55">
-        <f>E83-D83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="64"/>
       <c r="D79" s="55"/>
       <c r="E79" s="55"/>
       <c r="F79" s="55">
-        <f>E84-D84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F80" s="55">
-        <f>E85-D85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F81" s="55">
-        <f>E86-D86</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F82" s="55">
-        <f>E87-D87</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F83" s="55">
-        <f>E88-D88</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F84" s="55">
-        <f>E89-D89</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F85" s="55">
-        <f>E90-D90</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F86" s="55">
-        <f>E91-D91</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F87" s="55">
-        <f>E92-D92</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F88" s="55">
-        <f>E93-D93</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F89" s="55">
-        <f>E94-D94</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F90" s="55">
-        <f>E95-D95</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F91" s="55">
-        <f>E96-D96</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F92" s="55">
-        <f>E97-D97</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F93" s="55">
-        <f>E98-D98</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F94" s="55">
-        <f>E99-D99</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F95" s="55">
-        <f>E100-D100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F96" s="55">
-        <f>E101-D101</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F97" s="55">
-        <f>E102-D102</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F98" s="55">
-        <f>E103-D103</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F99" s="55">
-        <f>E104-D104</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F100" s="55">
-        <f>E105-D105</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F101" s="55">
-        <f>E106-D106</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F102" s="55">
-        <f>E107-D107</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F103" s="55">
-        <f>E108-D108</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F104" s="55">
-        <f>E109-D109</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F105" s="55">
-        <f>E110-D110</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F106" s="55">
-        <f>E111-D111</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F107" s="55">
-        <f>E112-D112</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F108" s="55">
-        <f>E113-D113</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F109" s="55">
-        <f>E114-D114</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F110" s="55">
-        <f>E115-D115</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F111" s="55">
-        <f>E116-D116</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F112" s="55">
-        <f>E117-D117</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -13938,20 +13967,20 @@
   <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD55"/>
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" style="19" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="19"/>
-    <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" style="19" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" style="19"/>
+    <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -13972,7 +14001,7 @@
       </c>
       <c r="G1" s="75"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="64">
         <v>44097</v>
       </c>
@@ -13995,12 +14024,12 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>3.8645833333333344</v>
+        <v>3.9618055555555567</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="71">
         <v>44100</v>
       </c>
@@ -14020,7 +14049,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="71">
         <v>44101</v>
       </c>
@@ -14042,12 +14071,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="64">
         <v>44102</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>112</v>
@@ -14064,7 +14093,7 @@
       </c>
       <c r="G5" s="55"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="64">
         <v>44103</v>
       </c>
@@ -14083,7 +14112,7 @@
       </c>
       <c r="G6" s="55"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="71">
         <v>44105</v>
       </c>
@@ -14102,7 +14131,7 @@
       </c>
       <c r="G7" s="55"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="71">
         <v>44110</v>
       </c>
@@ -14123,7 +14152,7 @@
       </c>
       <c r="G8" s="55"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="64">
         <v>44118</v>
       </c>
@@ -14145,7 +14174,7 @@
       </c>
       <c r="G9" s="55"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="71">
         <v>44120</v>
       </c>
@@ -14167,7 +14196,7 @@
       </c>
       <c r="G10" s="55"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="71">
         <v>44124</v>
       </c>
@@ -14189,7 +14218,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="71">
         <v>44126</v>
       </c>
@@ -14211,7 +14240,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="71">
         <v>44127</v>
       </c>
@@ -14232,7 +14261,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="71">
         <v>44133</v>
       </c>
@@ -14254,7 +14283,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="64">
         <v>44134</v>
       </c>
@@ -14276,7 +14305,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="64">
         <v>44137</v>
       </c>
@@ -14298,7 +14327,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="64">
         <v>44139</v>
       </c>
@@ -14317,7 +14346,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="64">
         <v>44139</v>
       </c>
@@ -14331,7 +14360,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="64">
         <v>44143</v>
       </c>
@@ -14353,7 +14382,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="64">
         <v>44144</v>
       </c>
@@ -14367,7 +14396,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="64">
         <v>44145</v>
       </c>
@@ -14389,7 +14418,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="64">
         <v>44150</v>
       </c>
@@ -14403,7 +14432,7 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="64">
         <v>44150</v>
       </c>
@@ -14411,7 +14440,7 @@
         <v>52</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" s="55">
         <v>0.66666666666666663</v>
@@ -14425,7 +14454,7 @@
       </c>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="64">
         <v>44151</v>
       </c>
@@ -14439,7 +14468,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="64">
         <v>44157</v>
       </c>
@@ -14453,7 +14482,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="64">
         <v>44164</v>
       </c>
@@ -14467,7 +14496,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="64">
         <v>44167</v>
       </c>
@@ -14475,7 +14504,7 @@
         <v>77</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" s="55">
         <v>0.875</v>
@@ -14489,7 +14518,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="64">
         <v>44175</v>
       </c>
@@ -14497,7 +14526,7 @@
         <v>77</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D28" s="55">
         <v>0.5625</v>
@@ -14511,7 +14540,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="64">
         <v>44176</v>
       </c>
@@ -14519,7 +14548,7 @@
         <v>77</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D29" s="55">
         <v>0.66666666666666663</v>
@@ -14533,7 +14562,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="64">
         <v>44177</v>
       </c>
@@ -14547,7 +14576,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="64">
         <v>44179</v>
       </c>
@@ -14559,7 +14588,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="64">
         <v>44179</v>
       </c>
@@ -14571,7 +14600,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="64">
         <v>44181</v>
       </c>
@@ -14579,7 +14608,7 @@
         <v>78</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D33" s="55">
         <v>0.875</v>
@@ -14593,7 +14622,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="64">
         <v>44182</v>
       </c>
@@ -14601,7 +14630,7 @@
         <v>78</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D34" s="55">
         <v>0.91666666666666663</v>
@@ -14615,7 +14644,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="64">
         <v>44186</v>
       </c>
@@ -14627,7 +14656,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="64">
         <v>44187</v>
       </c>
@@ -14639,7 +14668,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="64">
         <v>44187</v>
       </c>
@@ -14647,7 +14676,7 @@
         <v>78</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="55">
         <v>0.54166666666666663</v>
@@ -14661,7 +14690,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="64">
         <v>44192</v>
       </c>
@@ -14669,7 +14698,7 @@
         <v>78</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="55">
         <v>0.73611111111111116</v>
@@ -14683,7 +14712,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="64">
         <v>44192</v>
       </c>
@@ -14691,7 +14720,7 @@
         <v>78</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="55">
         <v>0.8125</v>
@@ -14705,7 +14734,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="64">
         <v>44193</v>
       </c>
@@ -14717,7 +14746,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="64">
         <v>44193</v>
       </c>
@@ -14725,7 +14754,7 @@
         <v>78</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="55">
         <v>0.875</v>
@@ -14739,7 +14768,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="64">
         <v>44164</v>
       </c>
@@ -14747,7 +14776,7 @@
         <v>78</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="55">
         <v>0.5</v>
@@ -14761,7 +14790,7 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="64">
         <v>44194</v>
       </c>
@@ -14769,14 +14798,14 @@
         <v>64</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F43" s="55">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="64">
         <v>44194</v>
       </c>
@@ -14784,7 +14813,7 @@
         <v>77</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D44" s="55">
         <v>0.79166666666666663</v>
@@ -14798,7 +14827,7 @@
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="64">
         <v>44199</v>
       </c>
@@ -14810,7 +14839,7 @@
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="64">
         <v>44200</v>
       </c>
@@ -14818,7 +14847,7 @@
         <v>78</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D46" s="55">
         <v>0.91666666666666663</v>
@@ -14832,7 +14861,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="64">
         <v>44201</v>
       </c>
@@ -14840,7 +14869,7 @@
         <v>78</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" s="55">
         <v>0.70833333333333337</v>
@@ -14854,7 +14883,7 @@
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="64">
         <v>44202</v>
       </c>
@@ -14866,7 +14895,7 @@
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="64">
         <v>44203</v>
       </c>
@@ -14878,7 +14907,7 @@
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="64">
         <v>44203</v>
       </c>
@@ -14890,7 +14919,7 @@
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="64">
         <v>44207</v>
       </c>
@@ -14898,7 +14927,7 @@
         <v>77</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D51" s="55">
         <v>0.58333333333333337</v>
@@ -14912,7 +14941,7 @@
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="64">
         <v>44208</v>
       </c>
@@ -14920,7 +14949,7 @@
         <v>78</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D52" s="55">
         <v>0.70833333333333337</v>
@@ -14934,7 +14963,7 @@
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="64">
         <v>44212</v>
       </c>
@@ -14946,7 +14975,7 @@
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="64">
         <v>44214</v>
       </c>
@@ -14958,7 +14987,7 @@
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="64">
         <v>44214</v>
       </c>
@@ -14970,17 +14999,23 @@
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="64"/>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="64">
+        <v>44216</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>175</v>
+      </c>
       <c r="D56" s="55"/>
       <c r="E56" s="55"/>
       <c r="F56" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="55"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.7222222222222224E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="64"/>
       <c r="F57" s="55">
         <f t="shared" si="2"/>
@@ -14988,439 +15023,439 @@
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F58" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F59" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F60" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F61" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F62" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F63" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F64" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F65" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G65" s="55"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F66" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F67" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F68" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F69" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F70" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F71" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F72" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F73" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F74" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F75" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F76" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F77" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F78" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F79" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F80" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F81" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F82" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F83" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F84" s="55">
         <f t="shared" ref="F84:F120" si="3">E84-D84</f>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F85" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F86" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F87" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F88" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F89" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F90" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F91" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F92" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F93" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G93" s="55"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F94" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F95" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G95" s="55"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F96" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F97" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G97" s="55"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F98" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G98" s="55"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F99" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G99" s="55"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F100" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F101" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G101" s="55"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F102" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G102" s="55"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F103" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G103" s="55"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F104" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G104" s="55"/>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F105" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G105" s="55"/>
     </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F106" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G106" s="55"/>
     </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F107" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G107" s="55"/>
     </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F108" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G108" s="55"/>
     </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F109" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G109" s="55"/>
     </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F110" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G110" s="55"/>
     </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F111" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G111" s="55"/>
     </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F112" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G112" s="55"/>
     </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F113" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G113" s="55"/>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F114" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G114" s="55"/>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F115" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G115" s="55"/>
     </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F116" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G116" s="55"/>
     </row>
-    <row r="117" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F117" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G117" s="55"/>
     </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F118" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F119" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F120" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -15436,21 +15471,21 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="19" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -15471,7 +15506,7 @@
       </c>
       <c r="G1" s="75"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="64">
         <v>44097</v>
       </c>
@@ -15494,12 +15529,12 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>4.5138888888888893</v>
+        <v>4.6111111111111116</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="71">
         <v>44100</v>
       </c>
@@ -15519,7 +15554,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="71">
         <v>44101</v>
       </c>
@@ -15541,7 +15576,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="71">
         <v>44102</v>
       </c>
@@ -15559,7 +15594,7 @@
       <c r="G5" s="55"/>
       <c r="J5" s="57"/>
     </row>
-    <row r="6" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="64">
         <v>44103</v>
       </c>
@@ -15579,7 +15614,7 @@
       <c r="G6" s="55"/>
       <c r="J6" s="57"/>
     </row>
-    <row r="7" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="64">
         <v>44104</v>
       </c>
@@ -15597,7 +15632,7 @@
       <c r="G7" s="55"/>
       <c r="J7" s="57"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="71">
         <v>44105</v>
       </c>
@@ -15616,7 +15651,7 @@
       </c>
       <c r="G8" s="55"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="71">
         <v>44110</v>
       </c>
@@ -15638,7 +15673,7 @@
       </c>
       <c r="G9" s="55"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="71">
         <v>44110</v>
       </c>
@@ -15655,7 +15690,7 @@
       </c>
       <c r="G10" s="55"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="71">
         <v>44081</v>
       </c>
@@ -15672,7 +15707,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="71">
         <v>44112</v>
       </c>
@@ -15691,7 +15726,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="71">
         <v>44115</v>
       </c>
@@ -15710,7 +15745,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="71">
         <v>44115</v>
       </c>
@@ -15727,7 +15762,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="71">
         <v>44116</v>
       </c>
@@ -15744,7 +15779,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="71">
         <v>44116</v>
       </c>
@@ -15763,7 +15798,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="71">
         <v>44123</v>
       </c>
@@ -15782,7 +15817,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="71">
         <v>44123</v>
       </c>
@@ -15799,7 +15834,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="71">
         <v>44124</v>
       </c>
@@ -15816,7 +15851,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="64">
         <v>44124</v>
       </c>
@@ -15830,7 +15865,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="71">
         <v>44125</v>
       </c>
@@ -15849,7 +15884,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="64">
         <v>44127</v>
       </c>
@@ -15868,7 +15903,7 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="64">
         <v>44130</v>
       </c>
@@ -15876,7 +15911,7 @@
         <v>88</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
@@ -15885,7 +15920,7 @@
       </c>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="64">
         <v>44131</v>
       </c>
@@ -15893,7 +15928,7 @@
         <v>88</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
@@ -15902,7 +15937,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="64">
         <v>44139</v>
       </c>
@@ -15916,7 +15951,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="64">
         <v>44139</v>
       </c>
@@ -15930,7 +15965,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="64">
         <v>44144</v>
       </c>
@@ -15945,7 +15980,7 @@
       <c r="G27" s="55"/>
       <c r="I27" s="67"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="64">
         <v>44149</v>
       </c>
@@ -15953,7 +15988,7 @@
         <v>51</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
@@ -15962,7 +15997,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="64">
         <v>44150</v>
       </c>
@@ -15976,7 +16011,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="64">
         <v>44150</v>
       </c>
@@ -15984,7 +16019,7 @@
         <v>74</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
@@ -15993,15 +16028,12 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="64">
         <v>44151</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>162</v>
       </c>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
@@ -16010,7 +16042,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="64">
         <v>44157</v>
       </c>
@@ -16018,7 +16050,7 @@
         <v>88</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
@@ -16027,7 +16059,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="64">
         <v>44157</v>
       </c>
@@ -16041,7 +16073,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="64">
         <v>44159</v>
       </c>
@@ -16049,7 +16081,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
@@ -16058,7 +16090,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="64">
         <v>44164</v>
       </c>
@@ -16072,7 +16104,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="64">
         <v>44169</v>
       </c>
@@ -16080,7 +16112,7 @@
         <v>49</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
@@ -16089,7 +16121,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="64">
         <v>44177</v>
       </c>
@@ -16103,7 +16135,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="64">
         <v>44178</v>
       </c>
@@ -16111,7 +16143,7 @@
         <v>49</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
@@ -16120,7 +16152,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="64">
         <v>44179</v>
       </c>
@@ -16132,7 +16164,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="64">
         <v>44179</v>
       </c>
@@ -16144,7 +16176,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="64">
         <v>44183</v>
       </c>
@@ -16152,14 +16184,14 @@
         <v>49</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F41" s="55">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="64">
         <v>44186</v>
       </c>
@@ -16171,7 +16203,7 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="64">
         <v>44187</v>
       </c>
@@ -16183,7 +16215,7 @@
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="64">
         <v>44187</v>
       </c>
@@ -16191,14 +16223,14 @@
         <v>88</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F44" s="55">
         <v>0.1875</v>
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="64">
         <v>44193</v>
       </c>
@@ -16210,7 +16242,7 @@
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="64">
         <v>44194</v>
       </c>
@@ -16218,14 +16250,14 @@
         <v>88</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F46" s="55">
         <v>0.13541666666666666</v>
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="64">
         <v>44194</v>
       </c>
@@ -16233,14 +16265,14 @@
         <v>64</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F47" s="55">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="64">
         <v>44196</v>
       </c>
@@ -16248,14 +16280,14 @@
         <v>74</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F48" s="55">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="64">
         <v>44199</v>
       </c>
@@ -16267,7 +16299,7 @@
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="64">
         <v>44200</v>
       </c>
@@ -16275,14 +16307,14 @@
         <v>74</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F50" s="55">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="64">
         <v>44202</v>
       </c>
@@ -16294,22 +16326,22 @@
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="64">
         <v>44202</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F52" s="55">
         <v>0.25</v>
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="64">
         <v>44203</v>
       </c>
@@ -16321,7 +16353,7 @@
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="64">
         <v>44203</v>
       </c>
@@ -16333,7 +16365,7 @@
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="64">
         <v>44212</v>
       </c>
@@ -16345,22 +16377,22 @@
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="64">
         <v>44213</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F56" s="55">
         <v>0.125</v>
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="64">
         <v>44214</v>
       </c>
@@ -16372,7 +16404,7 @@
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="64">
         <v>44214</v>
       </c>
@@ -16384,245 +16416,254 @@
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="64">
+        <v>44216</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
       <c r="F59" s="55">
-        <f t="shared" ref="F59:F89" si="2">E59-D59</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="55"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.7222222222222224E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F60" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F59:F89" si="2">E60-D60</f>
         <v>0</v>
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F61" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F62" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F63" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F64" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F65" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G65" s="55"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F66" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F67" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F68" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F69" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F70" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F71" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F72" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F73" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F74" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F75" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F76" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F77" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F78" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F79" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F80" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F81" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F82" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F83" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F84" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F85" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F86" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F87" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F88" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F89" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F90" s="55">
         <f t="shared" ref="F90:F93" si="3">E90-D90</f>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F91" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F92" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F93" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -16635,23 +16676,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:F69"/>
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="19"/>
-    <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="11.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" style="19"/>
+    <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -16672,7 +16713,7 @@
       </c>
       <c r="G1" s="75"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="64">
         <v>44100</v>
       </c>
@@ -16692,12 +16733,12 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>4.041666666666667</v>
+        <v>4.4965277777777768</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="64">
         <v>44101</v>
       </c>
@@ -16715,7 +16756,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64">
         <v>44101</v>
       </c>
@@ -16735,7 +16776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="64">
         <v>44101</v>
       </c>
@@ -16754,7 +16795,7 @@
       </c>
       <c r="G5" s="55"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="64">
         <v>43948</v>
       </c>
@@ -16767,11 +16808,11 @@
       <c r="D6" s="55"/>
       <c r="E6" s="55"/>
       <c r="F6" s="55">
-        <v>2.0833333333333332E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G6" s="55"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="64">
         <v>44101</v>
       </c>
@@ -16784,12 +16825,11 @@
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
       <c r="F7" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G7" s="55"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="64">
         <v>44103</v>
       </c>
@@ -16808,7 +16848,7 @@
       </c>
       <c r="G8" s="55"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="64">
         <v>44110</v>
       </c>
@@ -16830,7 +16870,7 @@
       </c>
       <c r="G9" s="55"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="64">
         <v>44112</v>
       </c>
@@ -16849,7 +16889,7 @@
       </c>
       <c r="G10" s="55"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="64">
         <v>44115</v>
       </c>
@@ -16868,7 +16908,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="64">
         <v>44116</v>
       </c>
@@ -16887,7 +16927,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="64">
         <v>44123</v>
       </c>
@@ -16906,7 +16946,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="64">
         <v>44124</v>
       </c>
@@ -16923,7 +16963,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="64">
         <v>44125</v>
       </c>
@@ -16942,7 +16982,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="64">
         <v>44127</v>
       </c>
@@ -16961,7 +17001,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="64">
         <v>44130</v>
       </c>
@@ -16974,11 +17014,11 @@
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="55">
-        <v>0.1388888888888889</v>
+        <v>0.15972222222222224</v>
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="64">
         <v>44139</v>
       </c>
@@ -16986,16 +17026,16 @@
         <v>83</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55">
-        <v>8.3333333333333329E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="64">
         <v>44139</v>
       </c>
@@ -17009,7 +17049,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="64">
         <v>44139</v>
       </c>
@@ -17023,7 +17063,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="64">
         <v>44143</v>
       </c>
@@ -17031,16 +17071,16 @@
         <v>83</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="55">
-        <v>5.2083333333333336E-2</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="64">
         <v>44144</v>
       </c>
@@ -17054,7 +17094,7 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="64">
         <v>44145</v>
       </c>
@@ -17062,7 +17102,7 @@
         <v>83</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
@@ -17072,7 +17112,7 @@
       <c r="G23" s="55"/>
       <c r="I23" s="67"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="64">
         <v>44148</v>
       </c>
@@ -17080,7 +17120,7 @@
         <v>83</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
@@ -17089,7 +17129,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="64">
         <v>44149</v>
       </c>
@@ -17097,7 +17137,7 @@
         <v>83</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
@@ -17106,7 +17146,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="64">
         <v>44150</v>
       </c>
@@ -17120,7 +17160,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="64">
         <v>44150</v>
       </c>
@@ -17128,16 +17168,16 @@
         <v>83</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55">
-        <v>2.0833333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="64">
         <v>44151</v>
       </c>
@@ -17145,16 +17185,16 @@
         <v>83</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="55">
-        <v>4.1666666666666664E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="64">
         <v>44151</v>
       </c>
@@ -17168,7 +17208,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="64">
         <v>44157</v>
       </c>
@@ -17176,7 +17216,7 @@
         <v>56</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
@@ -17185,7 +17225,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="64">
         <v>44157</v>
       </c>
@@ -17199,7 +17239,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="64">
         <v>44158</v>
       </c>
@@ -17207,7 +17247,7 @@
         <v>89</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
@@ -17216,7 +17256,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="64">
         <v>44159</v>
       </c>
@@ -17224,7 +17264,7 @@
         <v>54</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
@@ -17233,7 +17273,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="64">
         <v>44164</v>
       </c>
@@ -17241,7 +17281,7 @@
         <v>83</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
@@ -17250,7 +17290,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="64">
         <v>44164</v>
       </c>
@@ -17264,7 +17304,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="64">
         <v>44169</v>
       </c>
@@ -17272,16 +17312,16 @@
         <v>83</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
       <c r="F36" s="55">
-        <v>0.125</v>
+        <v>0.18402777777777779</v>
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="64">
         <v>44176</v>
       </c>
@@ -17289,7 +17329,7 @@
         <v>83</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
@@ -17298,7 +17338,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="64">
         <v>44177</v>
       </c>
@@ -17306,7 +17346,7 @@
         <v>89</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
@@ -17315,7 +17355,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="64">
         <v>44177</v>
       </c>
@@ -17329,7 +17369,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="64">
         <v>44178</v>
       </c>
@@ -17337,7 +17377,7 @@
         <v>83</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
@@ -17346,7 +17386,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="64">
         <v>44178</v>
       </c>
@@ -17354,7 +17394,7 @@
         <v>83</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D41" s="55"/>
       <c r="E41" s="55"/>
@@ -17363,7 +17403,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="64">
         <v>44179</v>
       </c>
@@ -17375,7 +17415,7 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="64">
         <v>44179</v>
       </c>
@@ -17387,7 +17427,7 @@
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="64">
         <v>44182</v>
       </c>
@@ -17395,14 +17435,14 @@
         <v>83</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F44" s="55">
         <v>0.10416666666666667</v>
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="64">
         <v>44183</v>
       </c>
@@ -17410,14 +17450,14 @@
         <v>83</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F45" s="55">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="64">
         <v>44186</v>
       </c>
@@ -17429,7 +17469,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="64">
         <v>44187</v>
       </c>
@@ -17441,7 +17481,7 @@
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="64">
         <v>44187</v>
       </c>
@@ -17449,14 +17489,14 @@
         <v>56</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F48" s="55">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="64">
         <v>44187</v>
       </c>
@@ -17464,14 +17504,14 @@
         <v>83</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F49" s="55">
         <v>3.125E-2</v>
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="64">
         <v>44187</v>
       </c>
@@ -17479,14 +17519,14 @@
         <v>83</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F50" s="55">
-        <v>0.125</v>
+        <v>0.14930555555555555</v>
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="64">
         <v>44193</v>
       </c>
@@ -17498,7 +17538,7 @@
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="64">
         <v>44194</v>
       </c>
@@ -17506,14 +17546,14 @@
         <v>54</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F52" s="55">
         <v>9.375E-2</v>
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="64">
         <v>44194</v>
       </c>
@@ -17521,14 +17561,14 @@
         <v>54</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F53" s="55">
-        <v>5.2083333333333336E-2</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="64">
         <v>44194</v>
       </c>
@@ -17536,14 +17576,14 @@
         <v>64</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F54" s="55">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="64">
         <v>44196</v>
       </c>
@@ -17551,14 +17591,14 @@
         <v>83</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F55" s="55">
-        <v>0.125</v>
+        <v>0.18402777777777779</v>
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="64">
         <v>44198</v>
       </c>
@@ -17566,14 +17606,14 @@
         <v>83</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F56" s="55">
         <v>0.125</v>
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="64">
         <v>44199</v>
       </c>
@@ -17585,7 +17625,7 @@
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="64">
         <v>44200</v>
       </c>
@@ -17593,14 +17633,14 @@
         <v>84</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F58" s="55">
-        <v>8.3333333333333329E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="64">
         <v>44200</v>
       </c>
@@ -17608,14 +17648,14 @@
         <v>83</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F59" s="55">
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="64">
         <v>44200</v>
       </c>
@@ -17623,14 +17663,14 @@
         <v>83</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F60" s="55">
-        <v>8.3333333333333329E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="64">
         <v>44202</v>
       </c>
@@ -17642,7 +17682,7 @@
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="64">
         <v>44202</v>
       </c>
@@ -17650,14 +17690,14 @@
         <v>83</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F62" s="55">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="64">
         <v>44203</v>
       </c>
@@ -17665,14 +17705,14 @@
         <v>54</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F63" s="55">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="64">
         <v>44203</v>
       </c>
@@ -17684,7 +17724,7 @@
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="64">
         <v>44203</v>
       </c>
@@ -17696,7 +17736,7 @@
       </c>
       <c r="G65" s="55"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="64">
         <v>44212</v>
       </c>
@@ -17708,7 +17748,7 @@
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="64">
         <v>44213</v>
       </c>
@@ -17716,14 +17756,14 @@
         <v>86</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F67" s="55">
         <v>0.125</v>
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="64">
         <v>44214</v>
       </c>
@@ -17735,7 +17775,7 @@
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="64">
         <v>44214</v>
       </c>
@@ -17747,250 +17787,274 @@
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="64">
+        <v>44216</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>138</v>
+      </c>
       <c r="F70" s="55">
-        <f t="shared" ref="F70" si="1">E70-D70</f>
-        <v>0</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="64">
+        <v>44216</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" s="55"/>
+      <c r="E71" s="55"/>
       <c r="F71" s="55">
-        <f t="shared" ref="F71:F104" si="2">E71-D71</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="55"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.7222222222222224E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F72" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F72:F105" si="1">E72-D72</f>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F73" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F74" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F75" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F76" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F77" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F78" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F79" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F80" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F81" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F82" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F83" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F84" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F85" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F86" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F87" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F88" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F89" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F90" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F91" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F92" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F93" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G93" s="55"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F94" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F95" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G95" s="55"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F96" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F97" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G97" s="55"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F98" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G98" s="55"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F99" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G99" s="55"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F100" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F101" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G101" s="55"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F102" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G102" s="55"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F103" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G103" s="55"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F104" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G104" s="55"/>
+    </row>
+    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F105" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18006,33 +18070,33 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="87.140625" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="87.109375" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>21</v>
       </c>

--- a/doc/planning-docs/Projektablaufplan.xlsx
+++ b/doc/planning-docs/Projektablaufplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDB4D77-82CF-4014-AFBC-7E398BF740B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A63CA0-766B-4353-99A2-9D833272E632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -1761,6 +1761,112 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -2717,112 +2823,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -3299,16 +3299,16 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.6909722222222232</c:v>
+                  <c:v>4.9097222222222232</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9618055555555558</c:v>
+                  <c:v>4.1805555555555562</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6111111111111125</c:v>
+                  <c:v>4.8298611111111125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4965277777777786</c:v>
+                  <c:v>4.7152777777777786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4185,17 +4185,17 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Arbeitspaket" totalsRowLabel="Ergebnis" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Aufwandsschätzung[h]" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="tatsächlicher Aufwand[h]" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Arbeitspaket" totalsRowLabel="Ergebnis" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Aufwandsschätzung[h]" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="tatsächlicher Aufwand[h]" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,7,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,7,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Kategorie" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Zugewiesen an" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Kategorie" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Zugewiesen an" dataDxfId="13" totalsRowDxfId="12"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Fortschritt"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" totalsRowDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ende" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Datum"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Anzahl Tage" totalsRowFunction="sum" totalsRowDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Start" totalsRowDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ende" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Datum"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Anzahl Tage" totalsRowFunction="sum" totalsRowDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Gantt Table Style" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -10127,7 +10127,7 @@
       </c>
       <c r="D48" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>3.1180555555555562</v>
+        <v>3.8819444444444451</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>11</v>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="G48" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>1.8708333333333336</v>
+        <v>2.3291666666666671</v>
       </c>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
@@ -10213,7 +10213,7 @@
       </c>
       <c r="D49" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.3888888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>11</v>
@@ -10223,7 +10223,7 @@
       </c>
       <c r="G49" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.93333333333333335</v>
+        <v>1.2</v>
       </c>
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
@@ -10958,7 +10958,7 @@
       </c>
       <c r="D54" s="68">
         <f>SUM(D8:D53)</f>
-        <v>17.760416666666668</v>
+        <v>18.635416666666668</v>
       </c>
       <c r="E54" s="69" t="s">
         <v>37</v>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="G54" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>1.2319364161849713</v>
+        <v>1.2926300578034684</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -11203,166 +11203,166 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:BO56">
-    <cfRule type="expression" dxfId="53" priority="4">
+    <cfRule type="expression" dxfId="67" priority="4">
       <formula>AND(TODAY()&gt;=L$4,TODAY()&lt;M$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:AP3">
-    <cfRule type="expression" dxfId="52" priority="10">
+    <cfRule type="expression" dxfId="66" priority="10">
       <formula>L$4&lt;=EOMONTH($L$4,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:BO3">
-    <cfRule type="expression" dxfId="51" priority="6">
+    <cfRule type="expression" dxfId="65" priority="6">
       <formula>AND(M$4&lt;=EOMONTH($L$4,2),M$4&gt;EOMONTH($L$4,0),M$4&gt;EOMONTH($L$4,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:BO3">
-    <cfRule type="expression" dxfId="50" priority="5">
+    <cfRule type="expression" dxfId="64" priority="5">
       <formula>AND(L$4&lt;=EOMONTH($L$4,1),L$4&gt;EOMONTH($L$4,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:BO20 L25:BO31 L35:BO53">
-    <cfRule type="expression" dxfId="49" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="27" stopIfTrue="1">
       <formula>AND($E7="Geringes Risiko",L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="46" stopIfTrue="1">
       <formula>AND($E7="Hohes Risiko",L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="64" stopIfTrue="1">
       <formula>AND($E7="Im Plan",L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="65" stopIfTrue="1">
       <formula>AND($E7="Mittleres Risiko",L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="66" stopIfTrue="1">
       <formula>AND(LEN($E7)=0,L$4&gt;=$H7,L$4&lt;=$H7+$J7-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56:BO56">
-    <cfRule type="expression" dxfId="44" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="74" stopIfTrue="1">
       <formula>AND(#REF!="Geringes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="75" stopIfTrue="1">
       <formula>AND(#REF!="Hohes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="76" stopIfTrue="1">
       <formula>AND(#REF!="Im Plan",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="77" stopIfTrue="1">
       <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="78" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="containsText" dxfId="39" priority="2" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="53" priority="2" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",E56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="FEHLER">
+    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="FEHLER">
       <formula>NOT(ISERROR(SEARCH("FEHLER",E56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55:BO55">
-    <cfRule type="expression" dxfId="37" priority="247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="247" stopIfTrue="1">
       <formula>AND(#REF!="Geringes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="248" stopIfTrue="1">
       <formula>AND(#REF!="Hohes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="249" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="249" stopIfTrue="1">
       <formula>AND(#REF!="Im Plan",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="250" stopIfTrue="1">
       <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="251" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="251" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24:BO24">
-    <cfRule type="expression" dxfId="32" priority="288" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="288" stopIfTrue="1">
       <formula>AND($E24="Geringes Risiko",L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="289" stopIfTrue="1">
       <formula>AND($E24="Hohes Risiko",L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="290" stopIfTrue="1">
       <formula>AND($E24="Im Plan",L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="291" stopIfTrue="1">
       <formula>AND($E24="Mittleres Risiko",L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="292" stopIfTrue="1">
       <formula>AND(LEN($E24)=0,L$4&gt;=$H21,L$4&lt;=$H21+$J24-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:BO23">
-    <cfRule type="expression" dxfId="27" priority="352" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="352" stopIfTrue="1">
       <formula>AND($E21="Geringes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="353" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="353" stopIfTrue="1">
       <formula>AND($E21="Hohes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="354" stopIfTrue="1">
       <formula>AND($E21="Im Plan",L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="355" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="355" stopIfTrue="1">
       <formula>AND($E21="Mittleres Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="356" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="356" stopIfTrue="1">
       <formula>AND(LEN($E21)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+$J21-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54:BO54">
-    <cfRule type="expression" dxfId="22" priority="407" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="407" stopIfTrue="1">
       <formula>AND(#REF!="Geringes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="408" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="408" stopIfTrue="1">
       <formula>AND(#REF!="Hohes Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="409" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="409" stopIfTrue="1">
       <formula>AND(#REF!="Im Plan",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="410" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="410" stopIfTrue="1">
       <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="411" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="411" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$4&gt;=#REF!,L$4&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:BO33">
-    <cfRule type="expression" dxfId="17" priority="418" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="418" stopIfTrue="1">
       <formula>AND($E34="Geringes Risiko",L$4&gt;=$H32,L$4&lt;=$H32+$J32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="419" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="419" stopIfTrue="1">
       <formula>AND($E34="Hohes Risiko",L$4&gt;=$H32,L$4&lt;=$H32+$J32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="420" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="420" stopIfTrue="1">
       <formula>AND($E34="Im Plan",L$4&gt;=$H32,L$4&lt;=$H32+$J32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="421" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="421" stopIfTrue="1">
       <formula>AND($E34="Mittleres Risiko",L$4&gt;=$H32,L$4&lt;=$H32+$J32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="422" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="422" stopIfTrue="1">
       <formula>AND(LEN($E34)=0,L$4&gt;=$H32,L$4&lt;=$H32+$J32-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34:BO34">
-    <cfRule type="expression" dxfId="12" priority="423" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="423" stopIfTrue="1">
       <formula>AND(#REF!="Geringes Risiko",L$4&gt;=$H34,L$4&lt;=$H34+$J34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="424" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="424" stopIfTrue="1">
       <formula>AND(#REF!="Hohes Risiko",L$4&gt;=$H34,L$4&lt;=$H34+$J34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="425" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="425" stopIfTrue="1">
       <formula>AND(#REF!="Im Plan",L$4&gt;=$H34,L$4&lt;=$H34+$J34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="426" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="426" stopIfTrue="1">
       <formula>AND(#REF!="Mittleres Risiko",L$4&gt;=$H34,L$4&lt;=$H34+$J34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="427" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="427" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,L$4&gt;=$H34,L$4&lt;=$H34+$J34-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12405,23 +12405,23 @@
       </c>
       <c r="C38" s="67">
         <f>SUMIF(Jacob!B:B,Übersicht!B38,Jacob!F:F)</f>
-        <v>0.81597222222222243</v>
+        <v>1.0069444444444446</v>
       </c>
       <c r="D38" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B38,Roman!F:F)</f>
-        <v>0.67013888888888895</v>
+        <v>0.86111111111111127</v>
       </c>
       <c r="E38" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B38,Michi!F:F)</f>
-        <v>0.81597222222222243</v>
+        <v>1.0069444444444446</v>
       </c>
       <c r="F38" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B38,Sabrina!F:F)</f>
-        <v>0.81597222222222243</v>
+        <v>1.0069444444444446</v>
       </c>
       <c r="G38" s="67">
         <f t="shared" si="0"/>
-        <v>3.1180555555555562</v>
+        <v>3.8819444444444451</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
@@ -12430,23 +12430,23 @@
       </c>
       <c r="C39" s="67">
         <f>SUMIF(Jacob!B:B,Übersicht!B39,Jacob!F:F)</f>
-        <v>9.7222222222222224E-2</v>
+        <v>0.125</v>
       </c>
       <c r="D39" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B39,Roman!F:F)</f>
-        <v>9.7222222222222224E-2</v>
+        <v>0.125</v>
       </c>
       <c r="E39" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B39,Michi!F:F)</f>
-        <v>9.7222222222222224E-2</v>
+        <v>0.125</v>
       </c>
       <c r="F39" s="67">
         <f>SUMIF(Sabrina!B:B,Übersicht!B39,Sabrina!F:F)</f>
-        <v>9.7222222222222224E-2</v>
+        <v>0.125</v>
       </c>
       <c r="G39" s="67">
         <f t="shared" si="0"/>
-        <v>0.3888888888888889</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
@@ -12555,23 +12555,23 @@
       </c>
       <c r="C44" s="70">
         <f>SUM(C4:C43)</f>
-        <v>4.6909722222222232</v>
+        <v>4.9097222222222232</v>
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>3.9618055555555558</v>
+        <v>4.1805555555555562</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
-        <v>4.6111111111111125</v>
+        <v>4.8298611111111125</v>
       </c>
       <c r="F44" s="70">
         <f t="shared" ref="F44" si="2">SUM(F4:F43)</f>
-        <v>4.4965277777777786</v>
+        <v>4.7152777777777786</v>
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>17.760416666666671</v>
+        <v>18.635416666666671</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
@@ -12642,8 +12642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64:F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12696,7 +12696,7 @@
       </c>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>4.6909722222222214</v>
+        <v>4.9097222222222205</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -13149,7 +13149,7 @@
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
       <c r="F29" s="55">
-        <v>4.1666666666666664E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -13236,7 +13236,7 @@
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
       <c r="F35" s="55">
-        <v>2.0833333333333332E-2</v>
+        <v>6.9444444444444434E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -13623,7 +13623,7 @@
         <v>64</v>
       </c>
       <c r="F64" s="55">
-        <v>1.0416666666666666E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -13634,7 +13634,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="55">
-        <v>2.0833333333333332E-2</v>
+        <v>6.9444444444444434E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -13686,7 +13686,7 @@
       <c r="D69" s="55"/>
       <c r="E69" s="55"/>
       <c r="F69" s="55">
-        <v>9.7222222222222224E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -13967,7 +13967,7 @@
   <dimension ref="A1:K120"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14024,7 +14024,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>3.9618055555555567</v>
+        <v>4.1805555555555571</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -14392,7 +14392,7 @@
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="55">
-        <v>4.1666666666666664E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="G20" s="55"/>
     </row>
@@ -14478,7 +14478,7 @@
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
       <c r="F25" s="55">
-        <v>2.0833333333333332E-2</v>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="G25" s="55"/>
     </row>
@@ -14915,7 +14915,7 @@
         <v>64</v>
       </c>
       <c r="F50" s="55">
-        <v>1.0416666666666666E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="G50" s="55"/>
     </row>
@@ -14971,7 +14971,7 @@
         <v>64</v>
       </c>
       <c r="F53" s="55">
-        <v>2.0833333333333332E-2</v>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="G53" s="55"/>
     </row>
@@ -15012,7 +15012,7 @@
       <c r="D56" s="55"/>
       <c r="E56" s="55"/>
       <c r="F56" s="55">
-        <v>9.7222222222222224E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -15471,7 +15471,7 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="F54" sqref="F54:F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15529,7 +15529,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>4.6111111111111116</v>
+        <v>4.8298611111111116</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -15975,7 +15975,7 @@
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
       <c r="F27" s="55">
-        <v>4.1666666666666664E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="G27" s="55"/>
       <c r="I27" s="67"/>
@@ -16069,7 +16069,7 @@
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
       <c r="F33" s="55">
-        <v>2.0833333333333332E-2</v>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="G33" s="55"/>
     </row>
@@ -16361,7 +16361,7 @@
         <v>64</v>
       </c>
       <c r="F54" s="55">
-        <v>1.0416666666666666E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="G54" s="55"/>
     </row>
@@ -16373,7 +16373,7 @@
         <v>64</v>
       </c>
       <c r="F55" s="55">
-        <v>2.0833333333333332E-2</v>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="G55" s="55"/>
     </row>
@@ -16429,12 +16429,12 @@
       <c r="D59" s="55"/>
       <c r="E59" s="55"/>
       <c r="F59" s="55">
-        <v>9.7222222222222224E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F60" s="55">
-        <f t="shared" ref="F59:F89" si="2">E60-D60</f>
+        <f t="shared" ref="F60:F89" si="2">E60-D60</f>
         <v>0</v>
       </c>
       <c r="G60" s="55"/>
@@ -16678,8 +16678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16733,7 +16733,7 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>4.4965277777777768</v>
+        <v>4.7152777777777768</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
@@ -17090,7 +17090,7 @@
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="55">
-        <v>4.1666666666666664E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="G22" s="55"/>
     </row>
@@ -17235,7 +17235,7 @@
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="55">
-        <v>2.0833333333333332E-2</v>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="G31" s="55"/>
     </row>
@@ -17732,7 +17732,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="55">
-        <v>1.0416666666666666E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="G65" s="55"/>
     </row>
@@ -17744,7 +17744,7 @@
         <v>64</v>
       </c>
       <c r="F66" s="55">
-        <v>2.0833333333333332E-2</v>
+        <v>6.9444444444444434E-2</v>
       </c>
       <c r="G66" s="55"/>
     </row>
@@ -17815,7 +17815,7 @@
       <c r="D71" s="55"/>
       <c r="E71" s="55"/>
       <c r="F71" s="55">
-        <v>9.7222222222222224E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">

--- a/doc/planning-docs/Projektablaufplan.xlsx
+++ b/doc/planning-docs/Projektablaufplan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A63CA0-766B-4353-99A2-9D833272E632}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E63B78-8C52-4736-8464-0C494B4C850B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="415" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="189">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -623,6 +623,15 @@
   </si>
   <si>
     <t>Create-Collection -&gt; Data-Objects + DataBinding</t>
+  </si>
+  <si>
+    <t>Problem mit ensureseeded gelöst</t>
+  </si>
+  <si>
+    <t>Versucht Docker aus CLI zu starten</t>
+  </si>
+  <si>
+    <t>DAL, Datenstrucktur und Setup Guide</t>
   </si>
 </sst>
 </file>
@@ -3244,7 +3253,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-AT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3302,7 +3311,7 @@
                   <c:v>4.9097222222222232</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1805555555555562</c:v>
+                  <c:v>4.6458333333333348</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.8298611111111125</c:v>
@@ -3371,7 +3380,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-AT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3417,7 +3426,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-AT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4080,15 +4089,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>30480</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>68580</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>67</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>236220</xdr:rowOff>
+          <xdr:rowOff>238125</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4479,22 +4488,22 @@
       <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
     <col min="3" max="3" width="13" style="19" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="9" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" customWidth="1"/>
-    <col min="12" max="67" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" customWidth="1"/>
+    <col min="12" max="67" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -4534,7 +4543,7 @@
       <c r="AI1" s="19"/>
       <c r="AJ1" s="19"/>
     </row>
-    <row r="2" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
@@ -4553,7 +4562,7 @@
       <c r="J2" s="84"/>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:67" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:67" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
@@ -4647,7 +4656,7 @@
       <c r="BN3" s="40"/>
       <c r="BO3" s="40"/>
     </row>
-    <row r="4" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
@@ -4886,7 +4895,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="5" spans="1:67" s="19" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:67" s="19" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
@@ -4957,7 +4966,7 @@
       <c r="BN5" s="47"/>
       <c r="BO5" s="48"/>
     </row>
-    <row r="6" spans="1:67" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:67" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
@@ -4995,7 +5004,7 @@
       </c>
       <c r="M6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="N6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5003,19 +5012,19 @@
       </c>
       <c r="O6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="P6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="Q6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="R6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="S6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5023,7 +5032,7 @@
       </c>
       <c r="T6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="U6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5031,19 +5040,19 @@
       </c>
       <c r="V6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="W6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="X6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="Y6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="Z6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5051,7 +5060,7 @@
       </c>
       <c r="AA6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AB6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5059,19 +5068,19 @@
       </c>
       <c r="AC6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AD6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AE6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AF6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AG6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5079,7 +5088,7 @@
       </c>
       <c r="AH6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AI6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5087,19 +5096,19 @@
       </c>
       <c r="AJ6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AK6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AL6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AM6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AN6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5107,7 +5116,7 @@
       </c>
       <c r="AO6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AP6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5115,19 +5124,19 @@
       </c>
       <c r="AQ6" s="22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AR6" s="22" t="str">
         <f t="shared" ref="AR6:BO6" ca="1" si="4">LEFT(TEXT(AR4,"TTT"),1)</f>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AS6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AT6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="AU6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5135,7 +5144,7 @@
       </c>
       <c r="AV6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="AW6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5143,19 +5152,19 @@
       </c>
       <c r="AX6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="AY6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AZ6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BA6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BB6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5163,7 +5172,7 @@
       </c>
       <c r="BC6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BD6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5171,19 +5180,19 @@
       </c>
       <c r="BE6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BF6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BG6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BH6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>T</v>
       </c>
       <c r="BI6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5191,7 +5200,7 @@
       </c>
       <c r="BJ6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <v>T</v>
       </c>
       <c r="BK6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -5199,22 +5208,22 @@
       </c>
       <c r="BL6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>T</v>
       </c>
       <c r="BM6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BN6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BO6" s="22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
-      </c>
-    </row>
-    <row r="7" spans="1:67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>T</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
@@ -5287,7 +5296,7 @@
       <c r="BN7" s="33"/>
       <c r="BO7" s="33"/>
     </row>
-    <row r="8" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
@@ -5528,7 +5537,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="53" t="s">
         <v>43</v>
@@ -5781,7 +5790,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="53" t="s">
         <v>44</v>
@@ -6034,7 +6043,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="53" t="s">
         <v>45</v>
@@ -6287,7 +6296,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="53" t="s">
         <v>38</v>
@@ -6540,7 +6549,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="53" t="s">
         <v>46</v>
@@ -6550,7 +6559,7 @@
       </c>
       <c r="D13" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.125</v>
+        <v>0.13194444444444442</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>11</v>
@@ -6560,7 +6569,7 @@
       </c>
       <c r="G13" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.6</v>
+        <v>0.63333333333333319</v>
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
@@ -6626,7 +6635,7 @@
       <c r="BN13" s="35"/>
       <c r="BO13" s="35"/>
     </row>
-    <row r="14" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="53" t="s">
         <v>47</v>
@@ -6711,7 +6720,7 @@
       <c r="BN14" s="35"/>
       <c r="BO14" s="35"/>
     </row>
-    <row r="15" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="50" t="s">
         <v>76</v>
@@ -6950,7 +6959,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="53" t="s">
         <v>88</v>
@@ -7036,7 +7045,7 @@
       <c r="BN16" s="35"/>
       <c r="BO16" s="35"/>
     </row>
-    <row r="17" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="53" t="s">
         <v>75</v>
@@ -7121,7 +7130,7 @@
       <c r="BN17" s="35"/>
       <c r="BO17" s="35"/>
     </row>
-    <row r="18" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="53" t="s">
         <v>80</v>
@@ -7227,7 +7236,7 @@
       <c r="BN18" s="35"/>
       <c r="BO18" s="35"/>
     </row>
-    <row r="19" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="53" t="s">
         <v>74</v>
@@ -7334,7 +7343,7 @@
       <c r="BN19" s="35"/>
       <c r="BO19" s="35"/>
     </row>
-    <row r="20" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="53" t="s">
         <v>48</v>
@@ -7441,7 +7450,7 @@
       <c r="BN20" s="35"/>
       <c r="BO20" s="35"/>
     </row>
-    <row r="21" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="53" t="s">
         <v>49</v>
@@ -7527,7 +7536,7 @@
       <c r="BN21" s="35"/>
       <c r="BO21" s="35"/>
     </row>
-    <row r="22" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="53" t="s">
         <v>50</v>
@@ -7612,7 +7621,7 @@
       <c r="BN22" s="35"/>
       <c r="BO22" s="35"/>
     </row>
-    <row r="23" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="53" t="s">
         <v>51</v>
@@ -7698,7 +7707,7 @@
       <c r="BN23" s="35"/>
       <c r="BO23" s="35"/>
     </row>
-    <row r="24" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="53" t="s">
         <v>52</v>
@@ -7708,7 +7717,7 @@
       </c>
       <c r="D24" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.65972222222222221</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="E24" s="31" t="s">
         <v>11</v>
@@ -7718,7 +7727,7 @@
       </c>
       <c r="G24" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.79166666666666663</v>
+        <v>0.84166666666666667</v>
       </c>
       <c r="H24" s="29"/>
       <c r="I24" s="76"/>
@@ -7784,7 +7793,7 @@
       <c r="BN24" s="35"/>
       <c r="BO24" s="35"/>
     </row>
-    <row r="25" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="50" t="s">
         <v>73</v>
@@ -7876,7 +7885,7 @@
       <c r="BN25" s="35"/>
       <c r="BO25" s="35"/>
     </row>
-    <row r="26" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="53" t="s">
         <v>77</v>
@@ -7886,7 +7895,7 @@
       </c>
       <c r="D26" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>1.0625</v>
+        <v>1.2708333333333335</v>
       </c>
       <c r="E26" s="31" t="s">
         <v>11</v>
@@ -7896,7 +7905,7 @@
       </c>
       <c r="G26" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>5.0999999999999996</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
@@ -7962,7 +7971,7 @@
       <c r="BN26" s="35"/>
       <c r="BO26" s="35"/>
     </row>
-    <row r="27" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="53" t="s">
         <v>78</v>
@@ -8048,7 +8057,7 @@
       <c r="BN27" s="35"/>
       <c r="BO27" s="35"/>
     </row>
-    <row r="28" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="53" t="s">
         <v>82</v>
@@ -8133,7 +8142,7 @@
       <c r="BN28" s="35"/>
       <c r="BO28" s="35"/>
     </row>
-    <row r="29" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="53" t="s">
         <v>79</v>
@@ -8143,7 +8152,7 @@
       </c>
       <c r="D29" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.22222222222222232</v>
+        <v>0.38888888888888895</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>11</v>
@@ -8153,7 +8162,7 @@
       </c>
       <c r="G29" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>0.53333333333333355</v>
+        <v>0.93333333333333346</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
@@ -8219,7 +8228,7 @@
       <c r="BN29" s="35"/>
       <c r="BO29" s="35"/>
     </row>
-    <row r="30" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="B30" s="77" t="s">
         <v>53</v>
@@ -8290,7 +8299,7 @@
       <c r="BN30" s="35"/>
       <c r="BO30" s="35"/>
     </row>
-    <row r="31" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="53" t="s">
         <v>99</v>
@@ -8364,7 +8373,7 @@
       <c r="BN31" s="35"/>
       <c r="BO31" s="35"/>
     </row>
-    <row r="32" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="53" t="s">
         <v>54</v>
@@ -8465,7 +8474,7 @@
       <c r="BN32" s="35"/>
       <c r="BO32" s="35"/>
     </row>
-    <row r="33" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="53" t="s">
         <v>89</v>
@@ -8551,7 +8560,7 @@
       <c r="BN33" s="35"/>
       <c r="BO33" s="35"/>
     </row>
-    <row r="34" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="53" t="s">
         <v>83</v>
@@ -8637,7 +8646,7 @@
       <c r="BN34" s="35"/>
       <c r="BO34" s="35"/>
     </row>
-    <row r="35" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="53" t="s">
         <v>84</v>
@@ -8723,7 +8732,7 @@
       <c r="BN35" s="35"/>
       <c r="BO35" s="35"/>
     </row>
-    <row r="36" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="53" t="s">
         <v>85</v>
@@ -8808,7 +8817,7 @@
       <c r="BN36" s="35"/>
       <c r="BO36" s="35"/>
     </row>
-    <row r="37" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="53" t="s">
         <v>86</v>
@@ -8894,7 +8903,7 @@
       <c r="BN37" s="35"/>
       <c r="BO37" s="35"/>
     </row>
-    <row r="38" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="53" t="s">
         <v>87</v>
@@ -8979,7 +8988,7 @@
       <c r="BN38" s="35"/>
       <c r="BO38" s="35"/>
     </row>
-    <row r="39" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="53" t="s">
         <v>55</v>
@@ -9079,7 +9088,7 @@
       <c r="BN39" s="35"/>
       <c r="BO39" s="35"/>
     </row>
-    <row r="40" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="53" t="s">
         <v>70</v>
@@ -9179,7 +9188,7 @@
       <c r="BN40" s="35"/>
       <c r="BO40" s="35"/>
     </row>
-    <row r="41" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="53" t="s">
         <v>56</v>
@@ -9274,7 +9283,7 @@
       <c r="BN41" s="35"/>
       <c r="BO41" s="35"/>
     </row>
-    <row r="42" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="52" t="s">
         <v>57</v>
@@ -9513,7 +9522,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="53" t="s">
         <v>58</v>
@@ -9767,7 +9776,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="53" t="s">
         <v>59</v>
@@ -9856,7 +9865,7 @@
       <c r="BN44" s="35"/>
       <c r="BO44" s="35"/>
     </row>
-    <row r="45" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="53" t="s">
         <v>60</v>
@@ -9945,7 +9954,7 @@
       <c r="BN45" s="35"/>
       <c r="BO45" s="35"/>
     </row>
-    <row r="46" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="53" t="s">
         <v>61</v>
@@ -10031,7 +10040,7 @@
       <c r="BN46" s="35"/>
       <c r="BO46" s="35"/>
     </row>
-    <row r="47" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="53" t="s">
         <v>63</v>
@@ -10117,7 +10126,7 @@
       <c r="BN47" s="35"/>
       <c r="BO47" s="35"/>
     </row>
-    <row r="48" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="53" t="s">
         <v>64</v>
@@ -10203,7 +10212,7 @@
       <c r="BN48" s="35"/>
       <c r="BO48" s="35"/>
     </row>
-    <row r="49" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="53" t="s">
         <v>62</v>
@@ -10213,7 +10222,7 @@
       </c>
       <c r="D49" s="68">
         <f>IF(VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE)=0,"",VLOOKUP(Meilensteine[[#This Row],[Arbeitspaket]],Übersicht!B:G,6,FALSE))</f>
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>11</v>
@@ -10223,7 +10232,7 @@
       </c>
       <c r="G49" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>1.2</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
@@ -10286,7 +10295,7 @@
       <c r="BN49" s="35"/>
       <c r="BO49" s="35"/>
     </row>
-    <row r="50" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="53" t="s">
         <v>95</v>
@@ -10537,7 +10546,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="52" t="s">
         <v>65</v>
@@ -10608,7 +10617,7 @@
       <c r="BN51" s="35"/>
       <c r="BO51" s="35"/>
     </row>
-    <row r="52" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="53" t="s">
         <v>66</v>
@@ -10694,7 +10703,7 @@
       <c r="BN52" s="35"/>
       <c r="BO52" s="35"/>
     </row>
-    <row r="53" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="53" t="s">
         <v>72</v>
@@ -10947,7 +10956,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="66" t="s">
         <v>36</v>
@@ -10958,7 +10967,7 @@
       </c>
       <c r="D54" s="68">
         <f>SUM(D8:D53)</f>
-        <v>18.635416666666668</v>
+        <v>19.100694444444446</v>
       </c>
       <c r="E54" s="69" t="s">
         <v>37</v>
@@ -10969,7 +10978,7 @@
       </c>
       <c r="G54" s="28">
         <f>(Meilensteine[[#This Row],[tatsächlicher Aufwand'[h']]]/Meilensteine[[#This Row],[Aufwandsschätzung'[h']]])</f>
-        <v>1.2926300578034684</v>
+        <v>1.3249036608863203</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -11032,7 +11041,7 @@
       <c r="BN54" s="35"/>
       <c r="BO54" s="35"/>
     </row>
-    <row r="55" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>7</v>
       </c>
@@ -11105,7 +11114,7 @@
       <c r="BN55" s="35"/>
       <c r="BO55" s="35"/>
     </row>
-    <row r="56" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:67" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>8</v>
       </c>
@@ -11176,7 +11185,7 @@
       <c r="BN56" s="34"/>
       <c r="BO56" s="34"/>
     </row>
-    <row r="57" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F57" s="6"/>
       <c r="K57" s="4"/>
     </row>
@@ -11409,15 +11418,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>68580</xdr:rowOff>
+                    <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>67</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>236220</xdr:rowOff>
+                    <xdr:rowOff>238125</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11516,20 +11525,20 @@
       <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="44.109375" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" style="19"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
       <c r="B2" s="57" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="60" t="s">
         <v>39</v>
       </c>
@@ -11549,7 +11558,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -11574,7 +11583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>44</v>
       </c>
@@ -11599,7 +11608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>45</v>
       </c>
@@ -11624,7 +11633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -11649,7 +11658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>46</v>
       </c>
@@ -11659,7 +11668,7 @@
       </c>
       <c r="D8" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B8,Roman!F:F)</f>
-        <v>0.125</v>
+        <v>0.13194444444444442</v>
       </c>
       <c r="E8" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B8,Michi!F:F)</f>
@@ -11671,10 +11680,10 @@
       </c>
       <c r="G8" s="67">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.13194444444444442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>47</v>
       </c>
@@ -11699,7 +11708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>88</v>
       </c>
@@ -11724,7 +11733,7 @@
         <v>0.88541666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>75</v>
       </c>
@@ -11749,7 +11758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>80</v>
       </c>
@@ -11774,7 +11783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>74</v>
       </c>
@@ -11799,7 +11808,7 @@
         <v>0.36458333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>48</v>
       </c>
@@ -11824,7 +11833,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>49</v>
       </c>
@@ -11849,7 +11858,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>50</v>
       </c>
@@ -11874,7 +11883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>51</v>
       </c>
@@ -11899,7 +11908,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="18" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>52</v>
       </c>
@@ -11909,7 +11918,7 @@
       </c>
       <c r="D18" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B18,Roman!F:F)</f>
-        <v>0.65972222222222221</v>
+        <v>0.70138888888888895</v>
       </c>
       <c r="E18" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B18,Michi!F:F)</f>
@@ -11921,10 +11930,10 @@
       </c>
       <c r="G18" s="67">
         <f t="shared" si="0"/>
-        <v>0.65972222222222221</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.70138888888888895</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>77</v>
       </c>
@@ -11934,7 +11943,7 @@
       </c>
       <c r="D19" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B19,Roman!F:F)</f>
-        <v>1.0625</v>
+        <v>1.2708333333333335</v>
       </c>
       <c r="E19" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B19,Michi!F:F)</f>
@@ -11946,10 +11955,10 @@
       </c>
       <c r="G19" s="67">
         <f t="shared" si="0"/>
-        <v>1.0625</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1.2708333333333335</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>78</v>
       </c>
@@ -11974,7 +11983,7 @@
         <v>0.63194444444444464</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>82</v>
       </c>
@@ -11999,7 +12008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>79</v>
       </c>
@@ -12009,7 +12018,7 @@
       </c>
       <c r="D22" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B22,Roman!F:F)</f>
-        <v>0.22222222222222232</v>
+        <v>0.38888888888888895</v>
       </c>
       <c r="E22" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B22,Michi!F:F)</f>
@@ -12021,10 +12030,10 @@
       </c>
       <c r="G22" s="67">
         <f t="shared" si="0"/>
-        <v>0.22222222222222232</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.38888888888888895</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
         <v>54</v>
       </c>
@@ -12049,7 +12058,7 @@
         <v>0.87847222222222221</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>89</v>
       </c>
@@ -12074,7 +12083,7 @@
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>83</v>
       </c>
@@ -12099,7 +12108,7 @@
         <v>3.1180555555555554</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>84</v>
       </c>
@@ -12124,7 +12133,7 @@
         <v>0.19444444444444442</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>85</v>
       </c>
@@ -12149,7 +12158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>86</v>
       </c>
@@ -12174,7 +12183,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="19" t="s">
         <v>87</v>
       </c>
@@ -12199,7 +12208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>55</v>
       </c>
@@ -12224,7 +12233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>70</v>
       </c>
@@ -12249,7 +12258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>56</v>
       </c>
@@ -12274,7 +12283,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="19" t="s">
         <v>58</v>
       </c>
@@ -12299,7 +12308,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="s">
         <v>59</v>
       </c>
@@ -12324,7 +12333,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="19" t="s">
         <v>60</v>
       </c>
@@ -12349,7 +12358,7 @@
         <v>0.12499999999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>61</v>
       </c>
@@ -12374,7 +12383,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>63</v>
       </c>
@@ -12399,7 +12408,7 @@
         <v>1.618055555555556</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>64</v>
       </c>
@@ -12424,7 +12433,7 @@
         <v>3.8819444444444451</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>62</v>
       </c>
@@ -12434,7 +12443,7 @@
       </c>
       <c r="D39" s="67">
         <f>SUMIF(Roman!B:B,Übersicht!B39,Roman!F:F)</f>
-        <v>0.125</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="E39" s="67">
         <f>SUMIF(Michi!B:B,Übersicht!B39,Michi!F:F)</f>
@@ -12446,10 +12455,10 @@
       </c>
       <c r="G39" s="67">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>66</v>
       </c>
@@ -12474,7 +12483,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>72</v>
       </c>
@@ -12499,7 +12508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>95</v>
       </c>
@@ -12524,7 +12533,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>99</v>
       </c>
@@ -12549,7 +12558,7 @@
         <v>1.59375</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="56" t="s">
         <v>32</v>
       </c>
@@ -12559,7 +12568,7 @@
       </c>
       <c r="D44" s="70">
         <f t="shared" ref="D44:E44" si="1">SUM(D4:D43)</f>
-        <v>4.1805555555555562</v>
+        <v>4.6458333333333348</v>
       </c>
       <c r="E44" s="70">
         <f t="shared" si="1"/>
@@ -12571,10 +12580,10 @@
       </c>
       <c r="G44" s="70">
         <f t="shared" si="0"/>
-        <v>18.635416666666671</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+        <v>19.10069444444445</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>34</v>
       </c>
@@ -12596,7 +12605,7 @@
       </c>
       <c r="G45" s="61"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="19"/>
     </row>
   </sheetData>
@@ -12646,15 +12655,15 @@
       <selection activeCell="F64" sqref="F64:F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -12674,7 +12683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="64">
         <v>44097</v>
       </c>
@@ -12699,7 +12708,7 @@
         <v>4.9097222222222205</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="64">
         <v>44097</v>
       </c>
@@ -12716,7 +12725,7 @@
       </c>
       <c r="H3" s="67"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="71">
         <v>44100</v>
       </c>
@@ -12734,7 +12743,7 @@
         <v>6.9444444444444531E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="64">
         <v>44101</v>
       </c>
@@ -12752,7 +12761,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="64">
         <v>44103</v>
       </c>
@@ -12770,7 +12779,7 @@
         <v>4.1666666666666685E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="64">
         <v>44103</v>
       </c>
@@ -12786,7 +12795,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="71">
         <v>44105</v>
       </c>
@@ -12804,7 +12813,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="71">
         <v>44105</v>
       </c>
@@ -12820,7 +12829,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="71">
         <v>44107</v>
       </c>
@@ -12836,7 +12845,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="71">
         <v>44110</v>
       </c>
@@ -12860,7 +12869,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="71">
         <v>44112</v>
       </c>
@@ -12879,7 +12888,7 @@
       </c>
       <c r="J12" s="57"/>
     </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="71">
         <v>44112</v>
       </c>
@@ -12896,7 +12905,7 @@
       </c>
       <c r="J13" s="57"/>
     </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="71">
         <v>44113</v>
       </c>
@@ -12913,7 +12922,7 @@
       </c>
       <c r="J14" s="57"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="71">
         <v>44115</v>
       </c>
@@ -12931,7 +12940,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="71">
         <v>44116</v>
       </c>
@@ -12949,7 +12958,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="71">
         <v>44116</v>
       </c>
@@ -12965,7 +12974,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="64">
         <v>44119</v>
       </c>
@@ -12979,7 +12988,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="71">
         <v>44121</v>
       </c>
@@ -12995,7 +13004,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="71">
         <v>44123</v>
       </c>
@@ -13013,7 +13022,7 @@
         <v>1.0416666666666741E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="71">
         <v>44125</v>
       </c>
@@ -13031,7 +13040,7 @@
         <v>4.166666666666663E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="71">
         <v>44112</v>
       </c>
@@ -13047,7 +13056,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="64">
         <v>44127</v>
       </c>
@@ -13065,7 +13074,7 @@
         <v>3.4722222222222265E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="64">
         <v>44130</v>
       </c>
@@ -13081,7 +13090,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="64">
         <v>44139</v>
       </c>
@@ -13097,7 +13106,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="64">
         <v>44139</v>
       </c>
@@ -13110,7 +13119,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="64">
         <v>44139</v>
       </c>
@@ -13123,7 +13132,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="64">
         <v>44143</v>
       </c>
@@ -13139,7 +13148,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="64">
         <v>44144</v>
       </c>
@@ -13152,7 +13161,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="64">
         <v>44147</v>
       </c>
@@ -13168,7 +13177,7 @@
         <v>0.15277777777777776</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="64">
         <v>44149</v>
       </c>
@@ -13184,7 +13193,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="64">
         <v>44150</v>
       </c>
@@ -13197,7 +13206,7 @@
         <v>5.9027777777777783E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="64">
         <v>44151</v>
       </c>
@@ -13210,7 +13219,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="64">
         <v>44152</v>
       </c>
@@ -13226,7 +13235,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="64">
         <v>44157</v>
       </c>
@@ -13239,7 +13248,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="64">
         <v>44159</v>
       </c>
@@ -13255,7 +13264,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="64">
         <v>44162</v>
       </c>
@@ -13271,7 +13280,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="64">
         <v>44164</v>
       </c>
@@ -13284,7 +13293,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="64">
         <v>44169</v>
       </c>
@@ -13300,7 +13309,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="64">
         <v>44176</v>
       </c>
@@ -13316,7 +13325,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="64">
         <v>44177</v>
       </c>
@@ -13329,7 +13338,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="64">
         <v>44178</v>
       </c>
@@ -13345,7 +13354,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="64">
         <v>44179</v>
       </c>
@@ -13356,7 +13365,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="64">
         <v>44179</v>
       </c>
@@ -13367,7 +13376,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="64">
         <v>44182</v>
       </c>
@@ -13381,7 +13390,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="64">
         <v>44185</v>
       </c>
@@ -13395,7 +13404,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="64">
         <v>44186</v>
       </c>
@@ -13406,7 +13415,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="64">
         <v>44187</v>
       </c>
@@ -13417,7 +13426,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="64">
         <v>44187</v>
       </c>
@@ -13431,7 +13440,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="64">
         <v>44187</v>
       </c>
@@ -13445,7 +13454,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="64">
         <v>44187</v>
       </c>
@@ -13459,7 +13468,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="64">
         <v>44193</v>
       </c>
@@ -13470,7 +13479,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="64">
         <v>44194</v>
       </c>
@@ -13484,7 +13493,7 @@
         <v>0.18402777777777779</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="64">
         <v>44194</v>
       </c>
@@ -13498,7 +13507,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="64">
         <v>44196</v>
       </c>
@@ -13512,7 +13521,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="64">
         <v>44198</v>
       </c>
@@ -13526,7 +13535,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="64">
         <v>44199</v>
       </c>
@@ -13537,7 +13546,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="64">
         <v>44200</v>
       </c>
@@ -13551,7 +13560,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="64">
         <v>44200</v>
       </c>
@@ -13565,7 +13574,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="64">
         <v>44202</v>
       </c>
@@ -13576,7 +13585,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="64">
         <v>44202</v>
       </c>
@@ -13590,7 +13599,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="64">
         <v>44203</v>
       </c>
@@ -13604,7 +13613,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="64">
         <v>44203</v>
       </c>
@@ -13615,7 +13624,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="64">
         <v>44203</v>
       </c>
@@ -13626,7 +13635,7 @@
         <v>5.2083333333333336E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="64">
         <v>44212</v>
       </c>
@@ -13637,7 +13646,7 @@
         <v>6.9444444444444434E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="64">
         <v>44213</v>
       </c>
@@ -13651,7 +13660,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="64">
         <v>44214</v>
       </c>
@@ -13662,7 +13671,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="64">
         <v>44214</v>
       </c>
@@ -13673,7 +13682,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="64">
         <v>44216</v>
       </c>
@@ -13689,49 +13698,49 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F70" s="55">
         <f t="shared" ref="F70:F112" si="1">E75-D75</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F71" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F72" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F73" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F74" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F75" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F76" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="64"/>
       <c r="D77" s="55"/>
       <c r="E77" s="55"/>
@@ -13740,7 +13749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="64"/>
       <c r="D78" s="55"/>
       <c r="E78" s="55"/>
@@ -13749,7 +13758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="64"/>
       <c r="D79" s="55"/>
       <c r="E79" s="55"/>
@@ -13758,199 +13767,199 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F80" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F103" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F105" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F106" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F107" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F108" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F109" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F110" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F111" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F112" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -13966,21 +13975,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" style="19" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="19"/>
-    <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="42.140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="18" style="19" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="19"/>
+    <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -14001,7 +14011,7 @@
       </c>
       <c r="G1" s="75"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="64">
         <v>44097</v>
       </c>
@@ -14024,12 +14034,12 @@
       <c r="G2" s="55"/>
       <c r="H2" s="67">
         <f>SUM(F:F)</f>
-        <v>4.1805555555555571</v>
+        <v>4.6458333333333348</v>
       </c>
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="71">
         <v>44100</v>
       </c>
@@ -14049,7 +14059,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="71">
         <v>44101</v>
       </c>
@@ -14071,7 +14081,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="64">
         <v>44102</v>
       </c>
@@ -14085,15 +14095,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="E5" s="55">
-        <v>0.77083333333333337</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="F5" s="55">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.13194444444444442</v>
       </c>
       <c r="G5" s="55"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="64">
         <v>44103</v>
       </c>
@@ -14112,7 +14122,7 @@
       </c>
       <c r="G6" s="55"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="71">
         <v>44105</v>
       </c>
@@ -14131,7 +14141,7 @@
       </c>
       <c r="G7" s="55"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="71">
         <v>44110</v>
       </c>
@@ -14152,7 +14162,7 @@
       </c>
       <c r="G8" s="55"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="64">
         <v>44118</v>
       </c>
@@ -14166,15 +14176,15 @@
         <v>0.75</v>
       </c>
       <c r="E9" s="55">
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="F9" s="55">
         <f>E9-D9</f>
-        <v>8.333333333333337E-2</v>
+        <v>0.125</v>
       </c>
       <c r="G9" s="55"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="71">
         <v>44120</v>
       </c>
@@ -14196,7 +14206,7 @@
       </c>
       <c r="G10" s="55"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="71">
         <v>44124</v>
       </c>
@@ -14218,7 +14228,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="71">
         <v>44126</v>
       </c>
@@ -14240,7 +14250,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="71">
         <v>44127</v>
       </c>
@@ -14261,7 +14271,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="71">
         <v>44133</v>
       </c>
@@ -14283,7 +14293,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="64">
         <v>44134</v>
       </c>
@@ -14305,7 +14315,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="64">
         <v>44137</v>
       </c>
@@ -14319,15 +14329,15 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="E16" s="55">
-        <v>0.93055555555555547</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="F16" s="55">
         <f t="shared" si="1"/>
-        <v>0.20138888888888884</v>
+        <v>0.24305555555555558</v>
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="64">
         <v>44139</v>
       </c>
@@ -14346,7 +14356,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="64">
         <v>44139</v>
       </c>
@@ -14360,7 +14370,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="64">
         <v>44143</v>
       </c>
@@ -14382,7 +14392,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="64">
         <v>44144</v>
       </c>
@@ -14396,7 +14406,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="64">
         <v>44145</v>
       </c>
@@ -14418,7 +14428,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="64">
         <v>44150</v>
       </c>
@@ -14432,7 +14442,7 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="64">
         <v>44150</v>
       </c>
@@ -14454,7 +14464,7 @@
       </c>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="64">
         <v>44151</v>
       </c>
@@ -14468,7 +14478,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="64">
         <v>44157</v>
       </c>
@@ -14482,7 +14492,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="64">
         <v>44164</v>
       </c>
@@ -14496,7 +14506,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="64">
         <v>44167</v>
       </c>
@@ -14507,18 +14517,18 @@
         <v>114</v>
       </c>
       <c r="D27" s="55">
-        <v>0.875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="E27" s="55">
         <v>1</v>
       </c>
       <c r="F27" s="55">
         <f t="shared" si="2"/>
-        <v>0.125</v>
+        <v>0.20833333333333337</v>
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="64">
         <v>44175</v>
       </c>
@@ -14540,7 +14550,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="64">
         <v>44176</v>
       </c>
@@ -14562,7 +14572,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="64">
         <v>44177</v>
       </c>
@@ -14576,7 +14586,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="64">
         <v>44179</v>
       </c>
@@ -14588,7 +14598,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="64">
         <v>44179</v>
       </c>
@@ -14600,7 +14610,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="64">
         <v>44181</v>
       </c>
@@ -14622,7 +14632,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="64">
         <v>44182</v>
       </c>
@@ -14644,7 +14654,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="64">
         <v>44186</v>
       </c>
@@ -14656,7 +14666,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="64">
         <v>44187</v>
       </c>
@@ -14668,7 +14678,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="64">
         <v>44187</v>
       </c>
@@ -14690,7 +14700,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="64">
         <v>44192</v>
       </c>
@@ -14712,7 +14722,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="64">
         <v>44192</v>
       </c>
@@ -14734,7 +14744,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="64">
         <v>44193</v>
       </c>
@@ -14746,7 +14756,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="64">
         <v>44193</v>
       </c>
@@ -14768,7 +14778,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="64">
         <v>44164</v>
       </c>
@@ -14790,7 +14800,7 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="64">
         <v>44194</v>
       </c>
@@ -14805,7 +14815,7 @@
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="64">
         <v>44194</v>
       </c>
@@ -14827,7 +14837,7 @@
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="64">
         <v>44199</v>
       </c>
@@ -14839,7 +14849,7 @@
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="64">
         <v>44200</v>
       </c>
@@ -14861,7 +14871,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="64">
         <v>44201</v>
       </c>
@@ -14883,7 +14893,7 @@
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="64">
         <v>44202</v>
       </c>
@@ -14895,7 +14905,7 @@
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="64">
         <v>44203</v>
       </c>
@@ -14907,7 +14917,7 @@
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="64">
         <v>44203</v>
       </c>
@@ -14919,7 +14929,7 @@
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="64">
         <v>44207</v>
       </c>
@@ -14941,7 +14951,7 @@
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="64">
         <v>44208</v>
       </c>
@@ -14963,7 +14973,7 @@
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="64">
         <v>44212</v>
       </c>
@@ -14975,7 +14985,7 @@
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="64">
         <v>44214</v>
       </c>
@@ -14987,7 +14997,7 @@
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="64">
         <v>44214</v>
       </c>
@@ -14999,463 +15009,496 @@
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="64">
         <v>44216</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
+        <v>186</v>
+      </c>
+      <c r="D56" s="55">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E56" s="55">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="F56" s="55">
         <v>0.125</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="64"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="64">
+        <v>44216</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" s="55">
+        <v>0.625</v>
+      </c>
+      <c r="E57" s="55">
+        <v>0.75</v>
+      </c>
       <c r="F57" s="55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="64">
+        <v>44216</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="55">
+        <v>0.75</v>
+      </c>
+      <c r="E58" s="55">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="F58" s="55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F59" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F60" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F61" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F62" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F63" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F64" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F65" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G65" s="55"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F66" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F67" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F68" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F69" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F70" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F71" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F72" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F73" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F74" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F75" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F76" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F77" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F78" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F79" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F80" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84" s="55">
         <f t="shared" ref="F84:F120" si="3">E84-D84</f>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F85" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F86" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F87" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F88" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F89" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F90" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F91" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F92" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F93" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G93" s="55"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F94" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F95" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G95" s="55"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F96" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F97" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G97" s="55"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F98" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G98" s="55"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F99" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G99" s="55"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F100" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F101" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G101" s="55"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F102" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G102" s="55"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F103" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G103" s="55"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F104" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G104" s="55"/>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F105" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G105" s="55"/>
     </row>
-    <row r="106" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F106" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G106" s="55"/>
     </row>
-    <row r="107" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F107" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G107" s="55"/>
     </row>
-    <row r="108" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F108" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G108" s="55"/>
     </row>
-    <row r="109" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F109" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G109" s="55"/>
     </row>
-    <row r="110" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F110" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G110" s="55"/>
     </row>
-    <row r="111" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F111" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G111" s="55"/>
     </row>
-    <row r="112" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F112" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G112" s="55"/>
     </row>
-    <row r="113" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F113" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G113" s="55"/>
     </row>
-    <row r="114" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F114" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G114" s="55"/>
     </row>
-    <row r="115" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F115" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G115" s="55"/>
     </row>
-    <row r="116" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F116" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G116" s="55"/>
     </row>
-    <row r="117" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F117" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G117" s="55"/>
     </row>
-    <row r="118" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F118" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F119" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F120" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -15474,18 +15517,18 @@
       <selection activeCell="F54" sqref="F54:F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="19" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="19" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -15506,7 +15549,7 @@
       </c>
       <c r="G1" s="75"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="64">
         <v>44097</v>
       </c>
@@ -15534,7 +15577,7 @@
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="71">
         <v>44100</v>
       </c>
@@ -15554,7 +15597,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="71">
         <v>44101</v>
       </c>
@@ -15576,7 +15619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="71">
         <v>44102</v>
       </c>
@@ -15594,7 +15637,7 @@
       <c r="G5" s="55"/>
       <c r="J5" s="57"/>
     </row>
-    <row r="6" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="64">
         <v>44103</v>
       </c>
@@ -15614,7 +15657,7 @@
       <c r="G6" s="55"/>
       <c r="J6" s="57"/>
     </row>
-    <row r="7" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="64">
         <v>44104</v>
       </c>
@@ -15632,7 +15675,7 @@
       <c r="G7" s="55"/>
       <c r="J7" s="57"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="71">
         <v>44105</v>
       </c>
@@ -15651,7 +15694,7 @@
       </c>
       <c r="G8" s="55"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="71">
         <v>44110</v>
       </c>
@@ -15673,7 +15716,7 @@
       </c>
       <c r="G9" s="55"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="71">
         <v>44110</v>
       </c>
@@ -15690,7 +15733,7 @@
       </c>
       <c r="G10" s="55"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="71">
         <v>44081</v>
       </c>
@@ -15707,7 +15750,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="71">
         <v>44112</v>
       </c>
@@ -15726,7 +15769,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="71">
         <v>44115</v>
       </c>
@@ -15745,7 +15788,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="71">
         <v>44115</v>
       </c>
@@ -15762,7 +15805,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="71">
         <v>44116</v>
       </c>
@@ -15779,7 +15822,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="71">
         <v>44116</v>
       </c>
@@ -15798,7 +15841,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="71">
         <v>44123</v>
       </c>
@@ -15817,7 +15860,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="71">
         <v>44123</v>
       </c>
@@ -15834,7 +15877,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="71">
         <v>44124</v>
       </c>
@@ -15851,7 +15894,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="64">
         <v>44124</v>
       </c>
@@ -15865,7 +15908,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="71">
         <v>44125</v>
       </c>
@@ -15884,7 +15927,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="64">
         <v>44127</v>
       </c>
@@ -15903,7 +15946,7 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="64">
         <v>44130</v>
       </c>
@@ -15920,7 +15963,7 @@
       </c>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="64">
         <v>44131</v>
       </c>
@@ -15937,7 +15980,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="64">
         <v>44139</v>
       </c>
@@ -15951,7 +15994,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="64">
         <v>44139</v>
       </c>
@@ -15965,7 +16008,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="64">
         <v>44144</v>
       </c>
@@ -15980,7 +16023,7 @@
       <c r="G27" s="55"/>
       <c r="I27" s="67"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="64">
         <v>44149</v>
       </c>
@@ -15997,7 +16040,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="64">
         <v>44150</v>
       </c>
@@ -16011,7 +16054,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="64">
         <v>44150</v>
       </c>
@@ -16028,7 +16071,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="64">
         <v>44151</v>
       </c>
@@ -16042,7 +16085,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="64">
         <v>44157</v>
       </c>
@@ -16059,7 +16102,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="64">
         <v>44157</v>
       </c>
@@ -16073,7 +16116,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="64">
         <v>44159</v>
       </c>
@@ -16090,7 +16133,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="64">
         <v>44164</v>
       </c>
@@ -16104,7 +16147,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="64">
         <v>44169</v>
       </c>
@@ -16121,7 +16164,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="64">
         <v>44177</v>
       </c>
@@ -16135,7 +16178,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="64">
         <v>44178</v>
       </c>
@@ -16152,7 +16195,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="64">
         <v>44179</v>
       </c>
@@ -16164,7 +16207,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="64">
         <v>44179</v>
       </c>
@@ -16176,7 +16219,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="64">
         <v>44183</v>
       </c>
@@ -16191,7 +16234,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="64">
         <v>44186</v>
       </c>
@@ -16203,7 +16246,7 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="64">
         <v>44187</v>
       </c>
@@ -16215,7 +16258,7 @@
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="64">
         <v>44187</v>
       </c>
@@ -16230,7 +16273,7 @@
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="64">
         <v>44193</v>
       </c>
@@ -16242,7 +16285,7 @@
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="64">
         <v>44194</v>
       </c>
@@ -16257,7 +16300,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="64">
         <v>44194</v>
       </c>
@@ -16272,7 +16315,7 @@
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="64">
         <v>44196</v>
       </c>
@@ -16287,7 +16330,7 @@
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="64">
         <v>44199</v>
       </c>
@@ -16299,7 +16342,7 @@
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="64">
         <v>44200</v>
       </c>
@@ -16314,7 +16357,7 @@
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="64">
         <v>44202</v>
       </c>
@@ -16326,7 +16369,7 @@
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="64">
         <v>44202</v>
       </c>
@@ -16341,7 +16384,7 @@
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="64">
         <v>44203</v>
       </c>
@@ -16353,7 +16396,7 @@
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="64">
         <v>44203</v>
       </c>
@@ -16365,7 +16408,7 @@
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="64">
         <v>44212</v>
       </c>
@@ -16377,7 +16420,7 @@
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="64">
         <v>44213</v>
       </c>
@@ -16392,7 +16435,7 @@
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="64">
         <v>44214</v>
       </c>
@@ -16404,7 +16447,7 @@
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="64">
         <v>44214</v>
       </c>
@@ -16416,7 +16459,7 @@
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="64">
         <v>44216</v>
       </c>
@@ -16432,238 +16475,238 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F60" s="55">
         <f t="shared" ref="F60:F89" si="2">E60-D60</f>
         <v>0</v>
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F61" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F62" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F63" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F64" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F65" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G65" s="55"/>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F66" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F67" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F68" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F69" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F70" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F71" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G71" s="55"/>
     </row>
-    <row r="72" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F72" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F73" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F74" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F75" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F76" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F77" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F78" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F79" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F80" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F85" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F86" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F87" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F88" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F89" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F90" s="55">
         <f t="shared" ref="F90:F93" si="3">E90-D90</f>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F91" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F92" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F93" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -16678,21 +16721,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="94" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="19"/>
-    <col min="6" max="6" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="19"/>
+    <col min="1" max="1" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="19"/>
+    <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
@@ -16713,7 +16756,7 @@
       </c>
       <c r="G1" s="75"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="64">
         <v>44100</v>
       </c>
@@ -16738,7 +16781,7 @@
       <c r="J2" s="74"/>
       <c r="K2" s="67"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="64">
         <v>44101</v>
       </c>
@@ -16756,7 +16799,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="64">
         <v>44101</v>
       </c>
@@ -16776,7 +16819,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="64">
         <v>44101</v>
       </c>
@@ -16795,7 +16838,7 @@
       </c>
       <c r="G5" s="55"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="64">
         <v>43948</v>
       </c>
@@ -16812,7 +16855,7 @@
       </c>
       <c r="G6" s="55"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="64">
         <v>44101</v>
       </c>
@@ -16829,7 +16872,7 @@
       </c>
       <c r="G7" s="55"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="64">
         <v>44103</v>
       </c>
@@ -16848,7 +16891,7 @@
       </c>
       <c r="G8" s="55"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="64">
         <v>44110</v>
       </c>
@@ -16870,7 +16913,7 @@
       </c>
       <c r="G9" s="55"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="64">
         <v>44112</v>
       </c>
@@ -16889,7 +16932,7 @@
       </c>
       <c r="G10" s="55"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="64">
         <v>44115</v>
       </c>
@@ -16908,7 +16951,7 @@
       </c>
       <c r="G11" s="55"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="64">
         <v>44116</v>
       </c>
@@ -16927,7 +16970,7 @@
       </c>
       <c r="G12" s="55"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="64">
         <v>44123</v>
       </c>
@@ -16946,7 +16989,7 @@
       </c>
       <c r="G13" s="55"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="64">
         <v>44124</v>
       </c>
@@ -16963,7 +17006,7 @@
       </c>
       <c r="G14" s="55"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="64">
         <v>44125</v>
       </c>
@@ -16982,7 +17025,7 @@
       </c>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="64">
         <v>44127</v>
       </c>
@@ -17001,7 +17044,7 @@
       </c>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="64">
         <v>44130</v>
       </c>
@@ -17018,7 +17061,7 @@
       </c>
       <c r="G17" s="55"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="64">
         <v>44139</v>
       </c>
@@ -17035,7 +17078,7 @@
       </c>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="64">
         <v>44139</v>
       </c>
@@ -17049,7 +17092,7 @@
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="64">
         <v>44139</v>
       </c>
@@ -17063,7 +17106,7 @@
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="64">
         <v>44143</v>
       </c>
@@ -17080,7 +17123,7 @@
       </c>
       <c r="G21" s="55"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="64">
         <v>44144</v>
       </c>
@@ -17094,7 +17137,7 @@
       </c>
       <c r="G22" s="55"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="64">
         <v>44145</v>
       </c>
@@ -17112,7 +17155,7 @@
       <c r="G23" s="55"/>
       <c r="I23" s="67"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="64">
         <v>44148</v>
       </c>
@@ -17129,7 +17172,7 @@
       </c>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="64">
         <v>44149</v>
       </c>
@@ -17146,7 +17189,7 @@
       </c>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="64">
         <v>44150</v>
       </c>
@@ -17160,7 +17203,7 @@
       </c>
       <c r="G26" s="55"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="64">
         <v>44150</v>
       </c>
@@ -17177,7 +17220,7 @@
       </c>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="64">
         <v>44151</v>
       </c>
@@ -17194,7 +17237,7 @@
       </c>
       <c r="G28" s="55"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="64">
         <v>44151</v>
       </c>
@@ -17208,7 +17251,7 @@
       </c>
       <c r="G29" s="55"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="64">
         <v>44157</v>
       </c>
@@ -17225,7 +17268,7 @@
       </c>
       <c r="G30" s="55"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="64">
         <v>44157</v>
       </c>
@@ -17239,7 +17282,7 @@
       </c>
       <c r="G31" s="55"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="64">
         <v>44158</v>
       </c>
@@ -17256,7 +17299,7 @@
       </c>
       <c r="G32" s="55"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="64">
         <v>44159</v>
       </c>
@@ -17273,7 +17316,7 @@
       </c>
       <c r="G33" s="55"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="64">
         <v>44164</v>
       </c>
@@ -17290,7 +17333,7 @@
       </c>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="64">
         <v>44164</v>
       </c>
@@ -17304,7 +17347,7 @@
       </c>
       <c r="G35" s="55"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="64">
         <v>44169</v>
       </c>
@@ -17321,7 +17364,7 @@
       </c>
       <c r="G36" s="55"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="64">
         <v>44176</v>
       </c>
@@ -17338,7 +17381,7 @@
       </c>
       <c r="G37" s="55"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="64">
         <v>44177</v>
       </c>
@@ -17355,7 +17398,7 @@
       </c>
       <c r="G38" s="55"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="64">
         <v>44177</v>
       </c>
@@ -17369,7 +17412,7 @@
       </c>
       <c r="G39" s="55"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="64">
         <v>44178</v>
       </c>
@@ -17386,7 +17429,7 @@
       </c>
       <c r="G40" s="55"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="64">
         <v>44178</v>
       </c>
@@ -17403,7 +17446,7 @@
       </c>
       <c r="G41" s="55"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="64">
         <v>44179</v>
       </c>
@@ -17415,7 +17458,7 @@
       </c>
       <c r="G42" s="55"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="64">
         <v>44179</v>
       </c>
@@ -17427,7 +17470,7 @@
       </c>
       <c r="G43" s="55"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="64">
         <v>44182</v>
       </c>
@@ -17442,7 +17485,7 @@
       </c>
       <c r="G44" s="55"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="64">
         <v>44183</v>
       </c>
@@ -17457,7 +17500,7 @@
       </c>
       <c r="G45" s="55"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="64">
         <v>44186</v>
       </c>
@@ -17469,7 +17512,7 @@
       </c>
       <c r="G46" s="55"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="64">
         <v>44187</v>
       </c>
@@ -17481,7 +17524,7 @@
       </c>
       <c r="G47" s="55"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="64">
         <v>44187</v>
       </c>
@@ -17496,7 +17539,7 @@
       </c>
       <c r="G48" s="55"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="64">
         <v>44187</v>
       </c>
@@ -17511,7 +17554,7 @@
       </c>
       <c r="G49" s="55"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="64">
         <v>44187</v>
       </c>
@@ -17526,7 +17569,7 @@
       </c>
       <c r="G50" s="55"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="64">
         <v>44193</v>
       </c>
@@ -17538,7 +17581,7 @@
       </c>
       <c r="G51" s="55"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="64">
         <v>44194</v>
       </c>
@@ -17553,7 +17596,7 @@
       </c>
       <c r="G52" s="55"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="64">
         <v>44194</v>
       </c>
@@ -17568,7 +17611,7 @@
       </c>
       <c r="G53" s="55"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="64">
         <v>44194</v>
       </c>
@@ -17583,7 +17626,7 @@
       </c>
       <c r="G54" s="55"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="64">
         <v>44196</v>
       </c>
@@ -17598,7 +17641,7 @@
       </c>
       <c r="G55" s="55"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="64">
         <v>44198</v>
       </c>
@@ -17613,7 +17656,7 @@
       </c>
       <c r="G56" s="55"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="64">
         <v>44199</v>
       </c>
@@ -17625,7 +17668,7 @@
       </c>
       <c r="G57" s="55"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="64">
         <v>44200</v>
       </c>
@@ -17640,7 +17683,7 @@
       </c>
       <c r="G58" s="55"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="64">
         <v>44200</v>
       </c>
@@ -17655,7 +17698,7 @@
       </c>
       <c r="G59" s="55"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="64">
         <v>44200</v>
       </c>
@@ -17670,7 +17713,7 @@
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="64">
         <v>44202</v>
       </c>
@@ -17682,7 +17725,7 @@
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="64">
         <v>44202</v>
       </c>
@@ -17697,7 +17740,7 @@
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="64">
         <v>44203</v>
       </c>
@@ -17712,7 +17755,7 @@
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="64">
         <v>44203</v>
       </c>
@@ -17724,7 +17767,7 @@
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="64">
         <v>44203</v>
       </c>
@@ -17736,7 +17779,7 @@
       </c>
       <c r="G65" s="55"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="64">
         <v>44212</v>
       </c>
@@ -17748,7 +17791,7 @@
       </c>
       <c r="G66" s="55"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="64">
         <v>44213</v>
       </c>
@@ -17763,7 +17806,7 @@
       </c>
       <c r="G67" s="55"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="64">
         <v>44214</v>
       </c>
@@ -17775,7 +17818,7 @@
       </c>
       <c r="G68" s="55"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="64">
         <v>44214</v>
       </c>
@@ -17787,7 +17830,7 @@
       </c>
       <c r="G69" s="55"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="64">
         <v>44216</v>
       </c>
@@ -17802,7 +17845,7 @@
       </c>
       <c r="G70" s="55"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="64">
         <v>44216</v>
       </c>
@@ -17818,238 +17861,238 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F72" s="55">
         <f t="shared" ref="F72:F105" si="1">E72-D72</f>
         <v>0</v>
       </c>
       <c r="G72" s="55"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F73" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G73" s="55"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F74" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G74" s="55"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F75" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F76" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G76" s="55"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F77" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G77" s="55"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F78" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G78" s="55"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F79" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G79" s="55"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F80" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G80" s="55"/>
     </row>
-    <row r="81" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G82" s="55"/>
     </row>
-    <row r="83" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G83" s="55"/>
     </row>
-    <row r="84" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G84" s="55"/>
     </row>
-    <row r="85" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F85" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G85" s="55"/>
     </row>
-    <row r="86" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F86" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G86" s="55"/>
     </row>
-    <row r="87" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F87" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G87" s="55"/>
     </row>
-    <row r="88" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F88" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G88" s="55"/>
     </row>
-    <row r="89" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F89" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G89" s="55"/>
     </row>
-    <row r="90" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F90" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G90" s="55"/>
     </row>
-    <row r="91" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F91" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G91" s="55"/>
     </row>
-    <row r="92" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F92" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G92" s="55"/>
     </row>
-    <row r="93" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F93" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G93" s="55"/>
     </row>
-    <row r="94" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F94" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G94" s="55"/>
     </row>
-    <row r="95" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F95" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G95" s="55"/>
     </row>
-    <row r="96" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F96" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F97" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G97" s="55"/>
     </row>
-    <row r="98" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F98" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G98" s="55"/>
     </row>
-    <row r="99" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F99" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G99" s="55"/>
     </row>
-    <row r="100" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F100" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G100" s="55"/>
     </row>
-    <row r="101" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F101" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G101" s="55"/>
     </row>
-    <row r="102" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F102" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G102" s="55"/>
     </row>
-    <row r="103" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F103" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G103" s="55"/>
     </row>
-    <row r="104" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F104" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G104" s="55"/>
     </row>
-    <row r="105" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F105" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18070,33 +18113,33 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87.109375" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="8"/>
+    <col min="1" max="1" width="87.140625" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="9" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" s="9" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="10" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" s="10" customFormat="1" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
